--- a/dataset/lg/taadimallaraajagopaala.xlsx
+++ b/dataset/lg/taadimallaraajagopaala.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F131"/>
+  <dimension ref="A1:E131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,3927 +434,3537 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>padyam</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>padyam</t>
+          <t>class</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>class</t>
+          <t>satakam</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>satakam</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>lg</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>శ్రీకృష్ణు నెవ్వరు సేవించుచుందురో వైకుంఠపురమున వారు ఘనులుకమలనాభుని జిత్తకమలంబులో నిల్పి వసుధలో మెలగెడువాడు రాజుధనము మెండుగ గూర్చు ధన్యులెందరునైన స్వామిభక్తులతోటి సాటిగారుహరినామకీర్తన లతిభక్తి చేసినవారి దుష్కర్మముల్ వదలిపోను</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>శ్రీకృష్ణు నెవ్వరు సేవించుచుందురో వైకుంఠపురమున వారు ఘనులుకమలనాభుని జిత్తకమలంబులో నిల్పి వసుధలో మెలగెడువాడు రాజుధనము మెండుగ గూర్చు ధన్యులెందరునైన స్వామిభక్తులతోటి సాటిగారుహరినామకీర్తన లతిభక్తి చేసినవారి దుష్కర్మముల్ వదలిపోను</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
           <t>[('శ్రీ', 'U'), ('కృ', 'U'), ('ష్ణు', '|'), ('నె', 'U'), ('వ్వ', '|'), ('రు', '|'), ('సే', 'U'), ('విం', 'U'), ('చు', '|'), ('చుం', 'U'), ('దు', '|'), ('రో', 'U'), ('వై', 'U'), ('కుం', 'U'), ('ఠ', '|'), ('పు', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('వా', 'U'), ('రు', '|'), ('ఘ', '|'), ('ను', '|'), ('లు', '|'), ('క', '|'), ('మ', '|'), ('ల', '|'), ('నా', 'U'), ('భు', '|'), ('ని', '|'), ('జి', 'U'), ('త్త', '|'), ('క', '|'), ('మ', '|'), ('లం', 'U'), ('బు', '|'), ('లో', 'U'), ('ని', 'U'), ('ల్పి', '|'), ('వ', '|'), ('సు', '|'), ('ధ', '|'), ('లో', 'U'), ('మె', '|'), ('ల', '|'), ('గె', '|'), ('డు', '|'), ('వా', 'U'), ('డు', '|'), ('రా', 'U'), ('జు', '|'), ('ధ', '|'), ('న', '|'), ('ము', '|'), ('మెం', 'U'), ('డు', '|'), ('గ', '|'), ('గూ', 'U'), ('ర్చు', '|'), ('ధ', 'U'), ('న్యు', '|'), ('లెం', 'U'), ('ద', '|'), ('రు', '|'), ('నై', 'U'), ('న', 'U'), ('స్వా', 'U'), ('మి', '|'), ('భ', 'U'), ('క్తు', '|'), ('ల', '|'), ('తో', 'U'), ('టి', '|'), ('సా', 'U'), ('టి', '|'), ('గా', 'U'), ('రు', '|'), ('హ', '|'), ('రి', '|'), ('నా', 'U'), ('మ', '|'), ('కీ', 'U'), ('ర్త', '|'), ('న', '|'), ('ల', '|'), ('తి', '|'), ('భ', 'U'), ('క్తి', '|'), ('చే', 'U'), ('సి', '|'), ('న', '|'), ('వా', 'U'), ('రి', '|'), ('దు', 'U'), ('ష్క', '|'), ('ర్మ', '|'), ('ముల్', 'U'), ('వ', '|'), ('ద', '|'), ('లి', '|'), ('పో', 'U'), ('ను', '|')]</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>గలియుగమునం దొనర్చు నఘంబులెల్ల | బాసిపో గాక వెంబడి బడియు రావుకల్లగాదయ్య శ్రీతాడిమళ్ళవాస | రాజగోపాల నీ పూజ తేజమయ్యె.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>గలియుగమునం దొనర్చు నఘంబులెల్ల | బాసిపో గాక వెంబడి బడియు రావుకల్లగాదయ్య శ్రీతాడిమళ్ళవాస | రాజగోపాల నీ పూజ తేజమయ్యె.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
           <t>[('గ', '|'), ('లి', '|'), ('యు', '|'), ('గ', '|'), ('ము', '|'), ('నం', 'U'), ('దొ', '|'), ('న', 'U'), ('ర్చు', '|'), ('న', '|'), ('ఘం', 'U'), ('బు', '|'), ('లె', 'U'), ('ల్ల', '|'), ('బా', 'U'), ('సి', '|'), ('పో', 'U'), ('గా', 'U'), ('క', '|'), ('వెం', 'U'), ('బ', '|'), ('డి', '|'), ('బ', '|'), ('డి', '|'), ('యు', '|'), ('రా', 'U'), ('వు', '|'), ('క', 'U'), ('ల్ల', '|'), ('గా', 'U'), ('ద', 'U'), ('య్య', 'U'), ('శ్రీ', 'U'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('వా', 'U'), ('స', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('నీ', 'U'), ('పూ', 'U'), ('జ', '|'), ('తే', 'U'), ('జ', '|'), ('మ', 'U'), ('య్యె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>నాథుండు బహుమంది నాటకస్త్రీలతో గలిసియున్నాడని కబురువింటిమగువలతోగూడి మఱచియున్నాడట రాధపై గృప యేల రాకపోయెబిలిచి చిన్నప్పుడు ప్రీతిజేసినవాడె యతివరో యిపుడేల యలిగినాడునెలతరో నావల్ల నేరమేమున్నది మాటాడమని నీవు మందలించి</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>నాథుండు బహుమంది నాటకస్త్రీలతో గలిసియున్నాడని కబురువింటిమగువలతోగూడి మఱచియున్నాడట రాధపై గృప యేల రాకపోయెబిలిచి చిన్నప్పుడు ప్రీతిజేసినవాడె యతివరో యిపుడేల యలిగినాడునెలతరో నావల్ల నేరమేమున్నది మాటాడమని నీవు మందలించి</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
           <t>[('నా', 'U'), ('థుం', 'U'), ('డు', '|'), ('బ', '|'), ('హు', '|'), ('మం', 'U'), ('ది', '|'), ('నా', 'U'), ('ట', '|'), ('క', 'U'), ('స్త్రీ', 'U'), ('ల', '|'), ('తో', 'U'), ('గ', '|'), ('లి', '|'), ('సి', '|'), ('యు', 'U'), ('న్నా', 'U'), ('డ', '|'), ('ని', '|'), ('క', '|'), ('బు', '|'), ('రు', '|'), ('విం', 'U'), ('టి', '|'), ('మ', '|'), ('గు', '|'), ('వ', '|'), ('ల', '|'), ('తో', 'U'), ('గూ', 'U'), ('డి', '|'), ('మ', '|'), ('ఱ', '|'), ('చి', '|'), ('యు', 'U'), ('న్నా', 'U'), ('డ', '|'), ('ట', '|'), ('రా', 'U'), ('ధ', '|'), ('పై', 'U'), ('గృ', '|'), ('ప', '|'), ('యే', 'U'), ('ల', '|'), ('రా', 'U'), ('క', '|'), ('పో', 'U'), ('యె', '|'), ('బి', '|'), ('లి', '|'), ('చి', '|'), ('చి', 'U'), ('న్న', 'U'), ('ప్పు', '|'), ('డు', 'U'), ('ప్రీ', 'U'), ('తి', '|'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('వా', 'U'), ('డె', '|'), ('య', '|'), ('తి', '|'), ('వ', '|'), ('రో', 'U'), ('యి', '|'), ('పు', '|'), ('డే', 'U'), ('ల', '|'), ('య', '|'), ('లి', '|'), ('గి', '|'), ('నా', 'U'), ('డు', '|'), ('నె', '|'), ('ల', '|'), ('త', '|'), ('రో', 'U'), ('నా', 'U'), ('వ', 'U'), ('ల్ల', '|'), ('నే', 'U'), ('ర', '|'), ('మే', 'U'), ('ము', 'U'), ('న్న', '|'), ('ది', '|'), ('మా', 'U'), ('టా', 'U'), ('డ', '|'), ('మ', '|'), ('ని', '|'), ('నీ', 'U'), ('వు', '|'), ('మం', 'U'), ('ద', '|'), ('లిం', 'U'), ('చి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>గట్టిగా కృష్ణు నిప్పుడు బట్టి తెచ్చి | మనసుదీర్పవే యీవేళ మళ్ళిరావెతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>గట్టిగా కృష్ణు నిప్పుడు బట్టి తెచ్చి | మనసుదీర్పవే యీవేళ మళ్ళిరావెతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
           <t>[('గ', 'U'), ('ట్టి', '|'), ('గా', 'U'), ('కృ', 'U'), ('ష్ణు', '|'), ('ని', 'U'), ('ప్పు', '|'), ('డు', '|'), ('బ', 'U'), ('ట్టి', '|'), ('తె', 'U'), ('చ్చి', '|'), ('మ', '|'), ('న', '|'), ('సు', '|'), ('దీ', 'U'), ('ర్ప', '|'), ('వే', 'U'), ('యీ', 'U'), ('వే', 'U'), ('ళ', '|'), ('మ', 'U'), ('ళ్ళి', '|'), ('రా', 'U'), ('వె', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('నీ', 'U'), ('వే', 'U'), ('గి', '|'), ('యి', '|'), ('చ', '|'), ('టి', '|'), ('కి', '|'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('లు', '|'), ('దే', 'U'), ('గ', '|'), ('దే', 'U'), ('రా', 'U'), ('జ', '|'), ('వ', '|'), ('ద', '|'), ('న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>నాథుని కస్తూరినామంబు గన్గొని కలికి యెవ్వతె వాని గౌగిలించెదక్కుచు నా యింటి దగ్గర రాకుండ మాటున బెట్టిన మగువ యెవతెప్రియుని నా పనుల కొప్పించిన దెవ్వతె దానికి నా యుసుర్తగులుగాకదోషమంచెన్నక దుడుకులాడెవ్వతె మన్నన రావించి మరులుకొల్పె</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>నాథుని కస్తూరినామంబు గన్గొని కలికి యెవ్వతె వాని గౌగిలించెదక్కుచు నా యింటి దగ్గర రాకుండ మాటున బెట్టిన మగువ యెవతెప్రియుని నా పనుల కొప్పించిన దెవ్వతె దానికి నా యుసుర్తగులుగాకదోషమంచెన్నక దుడుకులాడెవ్వతె మన్నన రావించి మరులుకొల్పె</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
           <t>[('నా', 'U'), ('థు', '|'), ('ని', '|'), ('క', 'U'), ('స్తూ', 'U'), ('రి', '|'), ('నా', 'U'), ('మం', 'U'), ('బు', '|'), ('గ', 'U'), ('న్గొ', '|'), ('ని', '|'), ('క', '|'), ('లి', '|'), ('కి', '|'), ('యె', 'U'), ('వ్వ', '|'), ('తె', '|'), ('వా', 'U'), ('ని', '|'), ('గౌ', 'U'), ('గి', '|'), ('లిం', 'U'), ('చె', '|'), ('ద', 'U'), ('క్కు', '|'), ('చు', '|'), ('నా', 'U'), ('యిం', 'U'), ('టి', '|'), ('ద', 'U'), ('గ్గ', '|'), ('ర', '|'), ('రా', 'U'), ('కుం', 'U'), ('డ', '|'), ('మా', 'U'), ('టు', '|'), ('న', '|'), ('బె', 'U'), ('ట్టి', '|'), ('న', '|'), ('మ', '|'), ('గు', '|'), ('వ', '|'), ('యె', '|'), ('వ', '|'), ('తె', 'U'), ('ప్రి', '|'), ('యు', '|'), ('ని', '|'), ('నా', 'U'), ('ప', '|'), ('ను', '|'), ('ల', '|'), ('కొ', 'U'), ('ప్పిం', 'U'), ('చి', '|'), ('న', '|'), ('దె', 'U'), ('వ్వ', '|'), ('తె', '|'), ('దా', 'U'), ('ని', '|'), ('కి', '|'), ('నా', 'U'), ('యు', '|'), ('సు', 'U'), ('ర్త', '|'), ('గు', '|'), ('లు', '|'), ('గా', 'U'), ('క', '|'), ('దో', 'U'), ('ష', '|'), ('మం', 'U'), ('చె', 'U'), ('న్న', '|'), ('క', '|'), ('దు', '|'), ('డు', '|'), ('కు', '|'), ('లా', 'U'), ('డె', 'U'), ('వ్వ', '|'), ('తె', '|'), ('మ', 'U'), ('న్న', '|'), ('న', '|'), ('రా', 'U'), ('విం', 'U'), ('చి', '|'), ('మ', '|'), ('రు', '|'), ('లు', '|'), ('కొ', 'U'), ('ల్పె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>దాని కోరిక లీడేర్చు దైవమిప్పు- | డెంత యాసక్తితోనున్న నింతె గదవెతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>దాని కోరిక లీడేర్చు దైవమిప్పు- | డెంత యాసక్తితోనున్న నింతె గదవెతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
           <t>[('దా', 'U'), ('ని', '|'), ('కో', 'U'), ('రి', '|'), ('క', '|'), ('లీ', 'U'), ('డే', 'U'), ('ర్చు', '|'), ('దై', 'U'), ('వ', '|'), ('మి', 'U'), ('ప్పు', '|'), ('డెం', 'U'), ('త', '|'), ('యా', 'U'), ('స', 'U'), ('క్తి', '|'), ('తో', 'U'), ('ను', 'U'), ('న్న', '|'), ('నిం', 'U'), ('తె', '|'), ('గ', '|'), ('ద', '|'), ('వె', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('నీ', 'U'), ('వే', 'U'), ('గి', '|'), ('యి', '|'), ('చ', '|'), ('టి', '|'), ('కి', '|'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('లు', '|'), ('దే', 'U'), ('గ', '|'), ('దే', 'U'), ('రా', 'U'), ('జ', '|'), ('వ', '|'), ('ద', '|'), ('న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>కౌస్తుభమణిహారకంకణంబుల జూచి రానియ్యదయ్యె నా రమణి యెవతినాసాగ్రమందున్న నవమౌక్తికము జూచి వలచిన దెవ్వతె నాడు వల్ల-భుని హరిచందనము మేన నలదికొన్నది చూచి పరిమళగంధి యెవతె పక్కజేర్చెశంఖచక్రములున్న పొంక మెవ్వతె చూచి బలవంతమున వాని భ్రమలు గొల్పె</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>కౌస్తుభమణిహారకంకణంబుల జూచి రానియ్యదయ్యె నా రమణి యెవతినాసాగ్రమందున్న నవమౌక్తికము జూచి వలచిన దెవ్వతె నాడు వల్ల-భుని హరిచందనము మేన నలదికొన్నది చూచి పరిమళగంధి యెవతె పక్కజేర్చెశంఖచక్రములున్న పొంక మెవ్వతె చూచి బలవంతమున వాని భ్రమలు గొల్పె</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
           <t>[('కౌ', 'U'), ('స్తు', '|'), ('భ', '|'), ('మ', '|'), ('ణి', '|'), ('హా', 'U'), ('ర', '|'), ('కం', 'U'), ('క', '|'), ('ణం', 'U'), ('బు', '|'), ('ల', '|'), ('జూ', 'U'), ('చి', '|'), ('రా', 'U'), ('ని', 'U'), ('య్య', '|'), ('ద', 'U'), ('య్యె', '|'), ('నా', 'U'), ('ర', '|'), ('మ', '|'), ('ణి', '|'), ('యె', '|'), ('వ', '|'), ('తి', '|'), ('నా', 'U'), ('సా', 'U'), ('గ్ర', '|'), ('మం', 'U'), ('దు', 'U'), ('న్న', '|'), ('న', '|'), ('వ', '|'), ('మౌ', 'U'), ('క్తి', '|'), ('క', '|'), ('ము', '|'), ('జూ', 'U'), ('చి', '|'), ('వ', '|'), ('ల', '|'), ('చి', '|'), ('న', '|'), ('దె', 'U'), ('వ్వ', '|'), ('తె', '|'), ('నా', 'U'), ('డు', '|'), ('వ', 'U'), ('ల్ల', '|'), ('భు', '|'), ('ని', '|'), ('హ', '|'), ('రి', '|'), ('చం', 'U'), ('ద', '|'), ('న', '|'), ('ము', '|'), ('మే', 'U'), ('న', '|'), ('న', '|'), ('ల', '|'), ('ది', '|'), ('కొ', 'U'), ('న్న', '|'), ('ది', '|'), ('చూ', 'U'), ('చి', '|'), ('ప', '|'), ('రి', '|'), ('మ', '|'), ('ళ', '|'), ('గం', 'U'), ('ధి', '|'), ('యె', '|'), ('వ', '|'), ('తె', '|'), ('ప', 'U'), ('క్క', '|'), ('జే', 'U'), ('ర్చె', '|'), ('శం', 'U'), ('ఖ', '|'), ('చ', 'U'), ('క్ర', '|'), ('ము', '|'), ('లు', 'U'), ('న్న', '|'), ('పొం', 'U'), ('క', '|'), ('మె', 'U'), ('వ్వ', '|'), ('తె', '|'), ('చూ', 'U'), ('చి', '|'), ('బ', '|'), ('ల', '|'), ('వం', 'U'), ('త', '|'), ('ము', '|'), ('న', '|'), ('వా', 'U'), ('ని', 'U'), ('భ్ర', '|'), ('మ', '|'), ('లు', '|'), ('గొ', 'U'), ('ల్పె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నతివ యెవ్వతె దారిలో నడ్డగించి | పొదల కనుగొనిపోయె నాదు వల్లభునితరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>నతివ యెవ్వతె దారిలో నడ్డగించి | పొదల కనుగొనిపోయె నాదు వల్లభునితరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('తి', '|'), ('వ', '|'), ('యె', 'U'), ('వ్వ', '|'), ('తె', '|'), ('దా', 'U'), ('రి', '|'), ('లో', 'U'), ('న', 'U'), ('డ్డ', '|'), ('గిం', 'U'), ('చి', '|'), ('పొ', '|'), ('ద', '|'), ('ల', '|'), ('క', '|'), ('ను', '|'), ('గొ', '|'), ('ని', '|'), ('పో', 'U'), ('యె', '|'), ('నా', 'U'), ('దు', '|'), ('వ', 'U'), ('ల్ల', '|'), ('భు', '|'), ('ని', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('నీ', 'U'), ('వే', 'U'), ('గి', '|'), ('యి', '|'), ('చ', '|'), ('టి', '|'), ('కి', '|'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('లు', '|'), ('దే', 'U'), ('గ', '|'), ('దే', 'U'), ('రా', 'U'), ('జ', '|'), ('వ', '|'), ('ద', '|'), ('న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>సన్నజాజుల సొబగెన్ననేమిటికి నా పతి నన్ను విడనాడి పల్కనపుడురమణిరో కృష్ణుడు రాడాయెనని మది తళ్కు చీరయు గట్ట దలంపురాదువనితరో నా యేడువారాల సొమ్ముల బరిణె విప్పను నాకు భ్రాంతి లేదుఆభరణాలంకృతాంగినై యేనున్న ఫలమేమి కృష్ణుడు వలచిరాడు</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>సన్నజాజుల సొబగెన్ననేమిటికి నా పతి నన్ను విడనాడి పల్కనపుడురమణిరో కృష్ణుడు రాడాయెనని మది తళ్కు చీరయు గట్ట దలంపురాదువనితరో నా యేడువారాల సొమ్ముల బరిణె విప్పను నాకు భ్రాంతి లేదుఆభరణాలంకృతాంగినై యేనున్న ఫలమేమి కృష్ణుడు వలచిరాడు</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
           <t>[('స', 'U'), ('న్న', '|'), ('జా', 'U'), ('జు', '|'), ('ల', '|'), ('సొ', '|'), ('బ', '|'), ('గె', 'U'), ('న్న', '|'), ('నే', 'U'), ('మి', '|'), ('టి', '|'), ('కి', '|'), ('నా', 'U'), ('ప', '|'), ('తి', '|'), ('న', 'U'), ('న్ను', '|'), ('వి', '|'), ('డ', '|'), ('నా', 'U'), ('డి', '|'), ('ప', 'U'), ('ల్క', '|'), ('న', '|'), ('పు', '|'), ('డు', '|'), ('ర', '|'), ('మ', '|'), ('ణి', '|'), ('రో', 'U'), ('కృ', 'U'), ('ష్ణు', '|'), ('డు', '|'), ('రా', 'U'), ('డా', 'U'), ('యె', '|'), ('న', '|'), ('ని', '|'), ('మ', '|'), ('ది', '|'), ('త', 'U'), ('ళ్కు', '|'), ('చీ', 'U'), ('ర', '|'), ('యు', '|'), ('గ', 'U'), ('ట్ట', '|'), ('ద', '|'), ('లం', 'U'), ('పు', '|'), ('రా', 'U'), ('దు', '|'), ('వ', '|'), ('ని', '|'), ('త', '|'), ('రో', 'U'), ('నా', 'U'), ('యే', 'U'), ('డు', '|'), ('వా', 'U'), ('రా', 'U'), ('ల', '|'), ('సొ', 'U'), ('మ్ము', '|'), ('ల', '|'), ('బ', '|'), ('రి', '|'), ('ణె', '|'), ('వి', 'U'), ('ప్ప', '|'), ('ను', '|'), ('నా', 'U'), ('కు', 'U'), ('భ్రాం', 'U'), ('తి', '|'), ('లే', 'U'), ('దు', '|'), ('ఆ', 'U'), ('భ', '|'), ('ర', '|'), ('ణా', 'U'), ('లం', 'U'), ('కృ', '|'), ('తాం', 'U'), ('గి', '|'), ('నై', 'U'), ('యే', 'U'), ('ను', 'U'), ('న్న', '|'), ('ఫ', '|'), ('ల', '|'), ('మే', 'U'), ('మి', '|'), ('కృ', 'U'), ('ష్ణు', '|'), ('డు', '|'), ('వ', '|'), ('ల', '|'), ('చి', '|'), ('రా', 'U'), ('డు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>ఎన్ని సొగసులు గలిగిన నేమిఫలము | కలికి కృష్ణుడు వచ్చుట గాదె సొమ్ముతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ఎన్ని సొగసులు గలిగిన నేమిఫలము | కలికి కృష్ణుడు వచ్చుట గాదె సొమ్ముతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
           <t>[('ఎ', 'U'), ('న్ని', '|'), ('సొ', '|'), ('గ', '|'), ('సు', '|'), ('లు', '|'), ('గ', '|'), ('లి', '|'), ('గి', '|'), ('న', '|'), ('నే', 'U'), ('మి', '|'), ('ఫ', '|'), ('ల', '|'), ('ము', '|'), ('క', '|'), ('లి', '|'), ('కి', '|'), ('కృ', 'U'), ('ష్ణు', '|'), ('డు', '|'), ('వ', 'U'), ('చ్చు', '|'), ('ట', '|'), ('గా', 'U'), ('దె', '|'), ('సొ', 'U'), ('మ్ము', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('నీ', 'U'), ('వే', 'U'), ('గి', '|'), ('యి', '|'), ('చ', '|'), ('టి', '|'), ('కి', '|'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('లు', '|'), ('దే', 'U'), ('గ', '|'), ('దే', 'U'), ('రా', 'U'), ('జ', '|'), ('వ', '|'), ('ద', '|'), ('న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>కృష్ణ నీతోడను గ్రీడింప మది గోరి పడతి రాధిక నన్ను బంపెనయ్యజోడుగా నినుగూడి జూదమాడుటకు సోలుచు బ్రతిజాము చొక్కునయ్యచందురుకాకకు సఖియ తాళగలేక యస్సురుస్సురు మనుచుండునయ్యమదనుండు శరములు మానక వేయగ మగువ నీపై చింత మానదయ్య</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>కృష్ణ నీతోడను గ్రీడింప మది గోరి పడతి రాధిక నన్ను బంపెనయ్యజోడుగా నినుగూడి జూదమాడుటకు సోలుచు బ్రతిజాము చొక్కునయ్యచందురుకాకకు సఖియ తాళగలేక యస్సురుస్సురు మనుచుండునయ్యమదనుండు శరములు మానక వేయగ మగువ నీపై చింత మానదయ్య</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
           <t>[('కృ', 'U'), ('ష్ణ', '|'), ('నీ', 'U'), ('తో', 'U'), ('డ', '|'), ('ను', 'U'), ('గ్రీ', 'U'), ('డిం', 'U'), ('ప', '|'), ('మ', '|'), ('ది', '|'), ('గో', 'U'), ('రి', '|'), ('ప', '|'), ('డ', '|'), ('తి', '|'), ('రా', 'U'), ('ధి', '|'), ('క', '|'), ('న', 'U'), ('న్ను', '|'), ('బం', 'U'), ('పె', '|'), ('న', 'U'), ('య్య', '|'), ('జో', 'U'), ('డు', '|'), ('గా', 'U'), ('ని', '|'), ('ను', '|'), ('గూ', 'U'), ('డి', '|'), ('జూ', 'U'), ('ద', '|'), ('మా', 'U'), ('డు', '|'), ('ట', '|'), ('కు', '|'), ('సో', 'U'), ('లు', '|'), ('చు', 'U'), ('బ్ర', '|'), ('తి', '|'), ('జా', 'U'), ('ము', '|'), ('చొ', 'U'), ('క్కు', '|'), ('న', 'U'), ('య్య', '|'), ('చం', 'U'), ('దు', '|'), ('రు', '|'), ('కా', 'U'), ('క', '|'), ('కు', '|'), ('స', '|'), ('ఖి', '|'), ('య', '|'), ('తా', 'U'), ('ళ', '|'), ('గ', '|'), ('లే', 'U'), ('క', '|'), ('య', 'U'), ('స్సు', '|'), ('రు', 'U'), ('స్సు', '|'), ('రు', '|'), ('మ', '|'), ('ను', '|'), ('చుం', 'U'), ('డు', '|'), ('న', 'U'), ('య్య', '|'), ('మ', '|'), ('ద', '|'), ('నుం', 'U'), ('డు', '|'), ('శ', '|'), ('ర', '|'), ('ము', '|'), ('లు', '|'), ('మా', 'U'), ('న', '|'), ('క', '|'), ('వే', 'U'), ('య', '|'), ('గ', '|'), ('మ', '|'), ('గు', '|'), ('వ', '|'), ('నీ', 'U'), ('పై', 'U'), ('చిం', 'U'), ('త', '|'), ('మా', 'U'), ('న', '|'), ('ద', 'U'), ('య్య', '|')]</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>యనుచు బోధించి యీ మాటలన్ని చెప్పి | సొరిది కృష్ణుని దేవమ్మ సుందరాంగితరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>యనుచు బోధించి యీ మాటలన్ని చెప్పి | సొరిది కృష్ణుని దేవమ్మ సుందరాంగితరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
           <t>[('య', '|'), ('ను', '|'), ('చు', '|'), ('బో', 'U'), ('ధిం', 'U'), ('చి', '|'), ('యీ', 'U'), ('మా', 'U'), ('ట', '|'), ('ల', 'U'), ('న్ని', '|'), ('చె', 'U'), ('ప్పి', '|'), ('సొ', '|'), ('రి', '|'), ('ది', '|'), ('కృ', 'U'), ('ష్ణు', '|'), ('ని', '|'), ('దే', 'U'), ('వ', 'U'), ('మ్మ', '|'), ('సుం', 'U'), ('ద', '|'), ('రాం', 'U'), ('గి', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('నీ', 'U'), ('వే', 'U'), ('గి', '|'), ('యి', '|'), ('చ', '|'), ('టి', '|'), ('కి', '|'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('లు', '|'), ('దే', 'U'), ('గ', '|'), ('దే', 'U'), ('రా', 'U'), ('జ', '|'), ('వ', '|'), ('ద', '|'), ('న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>పద్మగర్భుని వ్రాత బరిహార మొనరింప వశమటే యెంతటివారికైనబగతుడై యా బ్రహ్మ బలవంతమున నన్ను గుత్సితునకు నొనగూర్చెనమ్మవేషధారికి నేను వెలదినై యుండగ సుదతిరో సంసారసుఖమెఱుంగమును నీవీ రీతులనన్నియు జూచిన యప్పుడే కాదని చెప్పనైతి</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>పద్మగర్భుని వ్రాత బరిహార మొనరింప వశమటే యెంతటివారికైనబగతుడై యా బ్రహ్మ బలవంతమున నన్ను గుత్సితునకు నొనగూర్చెనమ్మవేషధారికి నేను వెలదినై యుండగ సుదతిరో సంసారసుఖమెఱుంగమును నీవీ రీతులనన్నియు జూచిన యప్పుడే కాదని చెప్పనైతి</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
           <t>[('ప', 'U'), ('ద్మ', '|'), ('గ', 'U'), ('ర్భు', '|'), ('ని', 'U'), ('వ్రా', 'U'), ('త', '|'), ('బ', '|'), ('రి', '|'), ('హా', 'U'), ('ర', '|'), ('మొ', '|'), ('న', '|'), ('రిం', 'U'), ('ప', '|'), ('వ', '|'), ('శ', '|'), ('మ', '|'), ('టే', 'U'), ('యెం', 'U'), ('త', '|'), ('టి', '|'), ('వా', 'U'), ('రి', '|'), ('కై', 'U'), ('న', '|'), ('బ', '|'), ('గ', '|'), ('తు', '|'), ('డై', 'U'), ('యా', 'U'), ('బ్ర', 'U'), ('హ్మ', '|'), ('బ', '|'), ('ల', '|'), ('వం', 'U'), ('త', '|'), ('ము', '|'), ('న', '|'), ('న', 'U'), ('న్ను', '|'), ('గు', 'U'), ('త్సి', '|'), ('తు', '|'), ('న', '|'), ('కు', '|'), ('నొ', '|'), ('న', '|'), ('గూ', 'U'), ('ర్చె', '|'), ('న', 'U'), ('మ్మ', '|'), ('వే', 'U'), ('ష', '|'), ('ధా', 'U'), ('రి', '|'), ('కి', '|'), ('నే', 'U'), ('ను', '|'), ('వె', '|'), ('ల', '|'), ('ది', '|'), ('నై', 'U'), ('యుం', 'U'), ('డ', '|'), ('గ', '|'), ('సు', '|'), ('ద', '|'), ('తి', '|'), ('రో', 'U'), ('సం', 'U'), ('సా', 'U'), ('ర', '|'), ('సు', '|'), ('ఖ', '|'), ('మె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('ము', '|'), ('ను', '|'), ('నీ', 'U'), ('వీ', 'U'), ('రీ', 'U'), ('తు', '|'), ('ల', '|'), ('న', 'U'), ('న్ని', '|'), ('యు', '|'), ('జూ', 'U'), ('చి', '|'), ('న', '|'), ('య', 'U'), ('ప్పు', '|'), ('డే', 'U'), ('కా', 'U'), ('ద', '|'), ('ని', '|'), ('చె', 'U'), ('ప్ప', '|'), ('నై', 'U'), ('తి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>ననుచు నీవేళ నామాటలడిగి రా- | దలంచి రమ్మని నిను బిలిపించితింతెతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ననుచు నీవేళ నామాటలడిగి రా- | దలంచి రమ్మని నిను బిలిపించితింతెతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('ను', '|'), ('చు', '|'), ('నీ', 'U'), ('వే', 'U'), ('ళ', '|'), ('నా', 'U'), ('మా', 'U'), ('ట', '|'), ('ల', '|'), ('డి', '|'), ('గి', '|'), ('రా', 'U'), ('ద', '|'), ('లం', 'U'), ('చి', '|'), ('ర', 'U'), ('మ్మ', '|'), ('ని', '|'), ('ని', '|'), ('ను', '|'), ('బి', '|'), ('లి', '|'), ('పిం', 'U'), ('చి', '|'), ('తిం', 'U'), ('తె', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('నీ', 'U'), ('వే', 'U'), ('గి', '|'), ('యి', '|'), ('చ', '|'), ('టి', '|'), ('కి', '|'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('లు', '|'), ('దే', 'U'), ('గ', '|'), ('దే', 'U'), ('రా', 'U'), ('జ', '|'), ('వ', '|'), ('ద', '|'), ('న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>వ్రేపల్లెవాడలో గాపైన కృష్ణుని గూర్చిన నీకిత్తు గుండ్లపేరుచెలియరో యీవేళ జెలికాని దెచ్చిన సఖియరో నా బన్నసరములిత్తువగకాని నీవేళ వదలక తెచ్చిన కలికిరో పౌజుల కమ్మలిత్తుమొగమిచ్చి నాతోను ముచ్చటాడించిన ముత్యాలసరములు ముదిత యిత్తు</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>వ్రేపల్లెవాడలో గాపైన కృష్ణుని గూర్చిన నీకిత్తు గుండ్లపేరుచెలియరో యీవేళ జెలికాని దెచ్చిన సఖియరో నా బన్నసరములిత్తువగకాని నీవేళ వదలక తెచ్చిన కలికిరో పౌజుల కమ్మలిత్తుమొగమిచ్చి నాతోను ముచ్చటాడించిన ముత్యాలసరములు ముదిత యిత్తు</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
           <t>[('వ్రే', 'U'), ('ప', 'U'), ('ల్లె', '|'), ('వా', 'U'), ('డ', '|'), ('లో', 'U'), ('గా', 'U'), ('పై', 'U'), ('న', '|'), ('కృ', 'U'), ('ష్ణు', '|'), ('ని', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('న', '|'), ('నీ', 'U'), ('కి', 'U'), ('త్తు', '|'), ('గుం', 'U'), ('డ్ల', '|'), ('పే', 'U'), ('రు', '|'), ('చె', '|'), ('లి', '|'), ('య', '|'), ('రో', 'U'), ('యీ', 'U'), ('వే', 'U'), ('ళ', '|'), ('జె', '|'), ('లి', '|'), ('కా', 'U'), ('ని', '|'), ('దె', 'U'), ('చ్చి', '|'), ('న', '|'), ('స', '|'), ('ఖి', '|'), ('య', '|'), ('రో', 'U'), ('నా', 'U'), ('బ', 'U'), ('న్న', '|'), ('స', '|'), ('ర', '|'), ('ము', '|'), ('లి', 'U'), ('త్తు', '|'), ('వ', '|'), ('గ', '|'), ('కా', 'U'), ('ని', '|'), ('నీ', 'U'), ('వే', 'U'), ('ళ', '|'), ('వ', '|'), ('ద', '|'), ('ల', '|'), ('క', '|'), ('తె', 'U'), ('చ్చి', '|'), ('న', '|'), ('క', '|'), ('లి', '|'), ('కి', '|'), ('రో', 'U'), ('పౌ', 'U'), ('జు', '|'), ('ల', '|'), ('క', 'U'), ('మ్మ', '|'), ('లి', 'U'), ('త్తు', '|'), ('మొ', '|'), ('గ', '|'), ('మి', 'U'), ('చ్చి', '|'), ('నా', 'U'), ('తో', 'U'), ('ను', '|'), ('ము', 'U'), ('చ్చ', '|'), ('టా', 'U'), ('డిం', 'U'), ('చి', '|'), ('న', '|'), ('ము', 'U'), ('త్యా', 'U'), ('ల', '|'), ('స', '|'), ('ర', '|'), ('ము', '|'), ('లు', '|'), ('ము', '|'), ('ది', '|'), ('త', '|'), ('యి', 'U'), ('త్తు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నెన్ని సొమ్ములునైన నేనిత్తు నీకు | నా పతిని జూచినంతనె నయముమీఱతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>నెన్ని సొమ్ములునైన నేనిత్తు నీకు | నా పతిని జూచినంతనె నయముమీఱతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
           <t>[('నె', 'U'), ('న్ని', '|'), ('సొ', 'U'), ('మ్ము', '|'), ('లు', '|'), ('నై', 'U'), ('న', '|'), ('నే', 'U'), ('ని', 'U'), ('త్తు', '|'), ('నీ', 'U'), ('కు', '|'), ('నా', 'U'), ('ప', '|'), ('తి', '|'), ('ని', '|'), ('జూ', 'U'), ('చి', '|'), ('నం', 'U'), ('త', '|'), ('నె', '|'), ('న', '|'), ('య', '|'), ('ము', '|'), ('మీ', 'U'), ('ఱ', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('నీ', 'U'), ('వే', 'U'), ('గి', '|'), ('యి', '|'), ('చ', '|'), ('టి', '|'), ('కి', '|'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('లు', '|'), ('దే', 'U'), ('గ', '|'), ('దే', 'U'), ('రా', 'U'), ('జ', '|'), ('వ', '|'), ('ద', '|'), ('న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>సఖియరో నా పతి సంశయమ్ములు మాని రాడేమిసేయుదు రాజవదనకోమలి నా మీద గోపమింతేలనే దన సిగ్గు దానేల దాచడాయెనా యీడువారిలో నన్ను గుందించుట కూడదు తనకిది గుణముగాదుయేమి సేయుదును నేనేలాగు నోర్తునే విరహవేదనచేత విసికినాను</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>సఖియరో నా పతి సంశయమ్ములు మాని రాడేమిసేయుదు రాజవదనకోమలి నా మీద గోపమింతేలనే దన సిగ్గు దానేల దాచడాయెనా యీడువారిలో నన్ను గుందించుట కూడదు తనకిది గుణముగాదుయేమి సేయుదును నేనేలాగు నోర్తునే విరహవేదనచేత విసికినాను</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
           <t>[('స', '|'), ('ఖి', '|'), ('య', '|'), ('రో', 'U'), ('నా', 'U'), ('ప', '|'), ('తి', '|'), ('సం', 'U'), ('శ', '|'), ('య', 'U'), ('మ్ము', '|'), ('లు', '|'), ('మా', 'U'), ('ని', '|'), ('రా', 'U'), ('డే', 'U'), ('మి', '|'), ('సే', 'U'), ('యు', '|'), ('దు', '|'), ('రా', 'U'), ('జ', '|'), ('వ', '|'), ('ద', '|'), ('న', '|'), ('కో', 'U'), ('మ', '|'), ('లి', '|'), ('నా', 'U'), ('మీ', 'U'), ('ద', '|'), ('గో', 'U'), ('ప', '|'), ('మిం', 'U'), ('తే', 'U'), ('ల', '|'), ('నే', 'U'), ('ద', '|'), ('న', '|'), ('సి', 'U'), ('గ్గు', '|'), ('దా', 'U'), ('నే', 'U'), ('ల', '|'), ('దా', 'U'), ('చ', '|'), ('డా', 'U'), ('యె', '|'), ('నా', 'U'), ('యీ', 'U'), ('డు', '|'), ('వా', 'U'), ('రి', '|'), ('లో', 'U'), ('న', 'U'), ('న్ను', '|'), ('గుం', 'U'), ('దిం', 'U'), ('చు', '|'), ('ట', '|'), ('కూ', 'U'), ('డ', '|'), ('దు', '|'), ('త', '|'), ('న', '|'), ('కి', '|'), ('ది', '|'), ('గు', '|'), ('ణ', '|'), ('ము', '|'), ('గా', 'U'), ('దు', '|'), ('యే', 'U'), ('మి', '|'), ('సే', 'U'), ('యు', '|'), ('దు', '|'), ('ను', '|'), ('నే', 'U'), ('నే', 'U'), ('లా', 'U'), ('గు', '|'), ('నో', 'U'), ('ర్తు', '|'), ('నే', 'U'), ('వి', '|'), ('ర', '|'), ('హ', '|'), ('వే', 'U'), ('ద', '|'), ('న', '|'), ('చే', 'U'), ('త', '|'), ('వి', '|'), ('సి', '|'), ('కి', '|'), ('నా', 'U'), ('ను', '|')]</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>మదనబాణాగ్ని యేలాగు మానిపోను | చెలియ నా వెతలేమని చెప్పుకొందుతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>మదనబాణాగ్ని యేలాగు మానిపోను | చెలియ నా వెతలేమని చెప్పుకొందుతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('ద', '|'), ('న', '|'), ('బా', 'U'), ('ణా', 'U'), ('గ్ని', '|'), ('యే', 'U'), ('లా', 'U'), ('గు', '|'), ('మా', 'U'), ('ని', '|'), ('పో', 'U'), ('ను', '|'), ('చె', '|'), ('లి', '|'), ('య', '|'), ('నా', 'U'), ('వె', '|'), ('త', '|'), ('లే', 'U'), ('మ', '|'), ('ని', '|'), ('చె', 'U'), ('ప్పు', '|'), ('కొం', 'U'), ('దు', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('నీ', 'U'), ('వే', 'U'), ('గి', '|'), ('యి', '|'), ('చ', '|'), ('టి', '|'), ('కి', '|'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('లు', '|'), ('దే', 'U'), ('గ', '|'), ('దే', 'U'), ('రా', 'U'), ('జ', '|'), ('వ', '|'), ('ద', '|'), ('న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>పగతుడై మదనుండు బాణముల్సంధించి చురచురక్కున సేయజూచెనమ్మబాల యాతని వేడిబాణముల్ దాకక తప్పించుకొనగ నా తరముగాదుయో సఖి నిమిషంబు నూరకుండనుగాదు వెడవిలుకాడు నా వెంటనంటిజాముజామున లేపి లేమరో నా పైని తన శరంబులు చేర్చి దాకునమ్మ</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>పగతుడై మదనుండు బాణముల్సంధించి చురచురక్కున సేయజూచెనమ్మబాల యాతని వేడిబాణముల్ దాకక తప్పించుకొనగ నా తరముగాదుయో సఖి నిమిషంబు నూరకుండనుగాదు వెడవిలుకాడు నా వెంటనంటిజాముజామున లేపి లేమరో నా పైని తన శరంబులు చేర్చి దాకునమ్మ</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('గ', '|'), ('తు', '|'), ('డై', 'U'), ('మ', '|'), ('ద', '|'), ('నుం', 'U'), ('డు', '|'), ('బా', 'U'), ('ణ', '|'), ('ము', 'U'), ('ల్సం', 'U'), ('ధిం', 'U'), ('చి', '|'), ('చు', '|'), ('ర', '|'), ('చు', '|'), ('ర', 'U'), ('క్కు', '|'), ('న', '|'), ('సే', 'U'), ('య', '|'), ('జూ', 'U'), ('చె', '|'), ('న', 'U'), ('మ్మ', '|'), ('బా', 'U'), ('ల', '|'), ('యా', 'U'), ('త', '|'), ('ని', '|'), ('వే', 'U'), ('డి', '|'), ('బా', 'U'), ('ణ', '|'), ('ముల్', 'U'), ('దా', 'U'), ('క', '|'), ('క', '|'), ('త', 'U'), ('ప్పిం', 'U'), ('చు', '|'), ('కొ', '|'), ('న', '|'), ('గ', '|'), ('నా', 'U'), ('త', '|'), ('ర', '|'), ('ము', '|'), ('గా', 'U'), ('దు', '|'), ('యో', 'U'), ('స', '|'), ('ఖి', '|'), ('ని', '|'), ('మి', '|'), ('షం', 'U'), ('బు', '|'), ('నూ', 'U'), ('ర', '|'), ('కుం', 'U'), ('డ', '|'), ('ను', '|'), ('గా', 'U'), ('దు', '|'), ('వె', '|'), ('డ', '|'), ('వి', '|'), ('లు', '|'), ('కా', 'U'), ('డు', '|'), ('నా', 'U'), ('వెం', 'U'), ('ట', '|'), ('నం', 'U'), ('టి', '|'), ('జా', 'U'), ('ము', '|'), ('జా', 'U'), ('ము', '|'), ('న', '|'), ('లే', 'U'), ('పి', '|'), ('లే', 'U'), ('మ', '|'), ('రో', 'U'), ('నా', 'U'), ('పై', 'U'), ('ని', '|'), ('త', '|'), ('న', '|'), ('శ', '|'), ('రం', 'U'), ('బు', '|'), ('లు', '|'), ('చే', 'U'), ('ర్చి', '|'), ('దా', 'U'), ('కు', '|'), ('న', 'U'), ('మ్మ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>బుట్టి వెతలకు లోనయి యెట్టులుందు | మంచిపనిగాదు రమ్మని మందలించితరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>బుట్టి వెతలకు లోనయి యెట్టులుందు | మంచిపనిగాదు రమ్మని మందలించితరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
           <t>[('బు', 'U'), ('ట్టి', '|'), ('వె', '|'), ('త', '|'), ('ల', '|'), ('కు', '|'), ('లో', 'U'), ('న', '|'), ('యి', '|'), ('యె', 'U'), ('ట్టు', '|'), ('లుం', 'U'), ('దు', '|'), ('మం', 'U'), ('చి', '|'), ('ప', '|'), ('ని', '|'), ('గా', 'U'), ('దు', '|'), ('ర', 'U'), ('మ్మ', '|'), ('ని', '|'), ('మం', 'U'), ('ద', '|'), ('లిం', 'U'), ('చి', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('నీ', 'U'), ('వే', 'U'), ('గి', '|'), ('యి', '|'), ('చ', '|'), ('టి', '|'), ('కి', '|'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('లు', '|'), ('దే', 'U'), ('గ', '|'), ('దే', 'U'), ('రా', 'U'), ('జ', '|'), ('వ', '|'), ('ద', '|'), ('న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>పసులగాపరియైన పద్మనాభుని కేను పడతినెట్లయితినే బాల్యముననుఉట్టి పెట్టిన వెన్న దుట్టగా మెక్కిన చోరునికేలనే సుదతినైతి గడెగడెకును వేసగాడంచు దెలియక వెఱ్ఱిగొల్లనికేల వెలదినైతి నవతారమూర్తి యంచాసనొందితికాని దైత్యసంహరుడంచు దలచనైతి</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>పసులగాపరియైన పద్మనాభుని కేను పడతినెట్లయితినే బాల్యముననుఉట్టి పెట్టిన వెన్న దుట్టగా మెక్కిన చోరునికేలనే సుదతినైతి గడెగడెకును వేసగాడంచు దెలియక వెఱ్ఱిగొల్లనికేల వెలదినైతి నవతారమూర్తి యంచాసనొందితికాని దైత్యసంహరుడంచు దలచనైతి</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('సు', '|'), ('ల', '|'), ('గా', 'U'), ('ప', '|'), ('రి', '|'), ('యై', 'U'), ('న', '|'), ('ప', 'U'), ('ద్మ', '|'), ('నా', 'U'), ('భు', '|'), ('ని', '|'), ('కే', 'U'), ('ను', '|'), ('ప', '|'), ('డ', '|'), ('తి', '|'), ('నె', 'U'), ('ట్ల', '|'), ('యి', '|'), ('తి', '|'), ('నే', 'U'), ('బా', 'U'), ('ల్య', '|'), ('ము', '|'), ('న', '|'), ('ను', '|'), ('ఉ', 'U'), ('ట్టి', '|'), ('పె', 'U'), ('ట్టి', '|'), ('న', '|'), ('వె', 'U'), ('న్న', '|'), ('దు', 'U'), ('ట్ట', '|'), ('గా', 'U'), ('మె', 'U'), ('క్కి', '|'), ('న', '|'), ('చో', 'U'), ('రు', '|'), ('ని', '|'), ('కే', 'U'), ('ల', '|'), ('నే', 'U'), ('సు', '|'), ('ద', '|'), ('తి', '|'), ('నై', 'U'), ('తి', '|'), ('గ', '|'), ('డె', '|'), ('గ', '|'), ('డె', '|'), ('కు', '|'), ('ను', '|'), ('వే', 'U'), ('స', '|'), ('గా', 'U'), ('డం', 'U'), ('చు', '|'), ('దె', '|'), ('లి', '|'), ('య', '|'), ('క', '|'), ('వె', 'U'), ('ఱ్ఱి', '|'), ('గొ', 'U'), ('ల్ల', '|'), ('ని', '|'), ('కే', 'U'), ('ల', '|'), ('వె', '|'), ('ల', '|'), ('ది', '|'), ('నై', 'U'), ('తి', '|'), ('న', '|'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('యం', 'U'), ('చా', 'U'), ('స', '|'), ('నొం', 'U'), ('ది', '|'), ('తి', '|'), ('కా', 'U'), ('ని', '|'), ('దై', 'U'), ('త్య', '|'), ('సం', 'U'), ('హ', '|'), ('రు', '|'), ('డం', 'U'), ('చు', '|'), ('ద', '|'), ('ల', '|'), ('చ', '|'), ('నై', 'U'), ('తి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నతివ యావేళ రుక్మిణీపతిని గాంచి | విసికియున్నది రమ్మని వేగిరంబతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>నతివ యావేళ రుక్మిణీపతిని గాంచి | విసికియున్నది రమ్మని వేగిరంబతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('తి', '|'), ('వ', '|'), ('యా', 'U'), ('వే', 'U'), ('ళ', '|'), ('రు', 'U'), ('క్మి', '|'), ('ణీ', 'U'), ('ప', '|'), ('తి', '|'), ('ని', '|'), ('గాం', 'U'), ('చి', '|'), ('వి', '|'), ('సి', '|'), ('కి', '|'), ('యు', 'U'), ('న్న', '|'), ('ది', '|'), ('ర', 'U'), ('మ్మ', '|'), ('ని', '|'), ('వే', 'U'), ('గి', '|'), ('రం', 'U'), ('బ', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('నీ', 'U'), ('వే', 'U'), ('గి', '|'), ('యి', '|'), ('చ', '|'), ('టి', '|'), ('కి', '|'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('లు', '|'), ('దే', 'U'), ('గ', '|'), ('దే', 'U'), ('రా', 'U'), ('జ', '|'), ('వ', '|'), ('ద', '|'), ('న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>కలికిరో నా పతి కరుణించి యీవేళ వచ్చి నా కౌగిట జొచ్చునేమొఊహించి నీచేత నుత్తరంబంపిన ప్రేమతో రమ్మని పిలుచునేమొ యేనుజేసిన పూజ యిత్తరి ఒకవేళ దరుణి నాపయి భ్రాంతి గలుగునేమొసుదతి నా పల్కులు చోద్యమై తోచిన వడివడి నొకవేళ వచ్చునేమొ</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>కలికిరో నా పతి కరుణించి యీవేళ వచ్చి నా కౌగిట జొచ్చునేమొఊహించి నీచేత నుత్తరంబంపిన ప్రేమతో రమ్మని పిలుచునేమొ యేనుజేసిన పూజ యిత్తరి ఒకవేళ దరుణి నాపయి భ్రాంతి గలుగునేమొసుదతి నా పల్కులు చోద్యమై తోచిన వడివడి నొకవేళ వచ్చునేమొ</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('లి', '|'), ('కి', '|'), ('రో', 'U'), ('నా', 'U'), ('ప', '|'), ('తి', '|'), ('క', '|'), ('రు', '|'), ('ణిం', 'U'), ('చి', '|'), ('యీ', 'U'), ('వే', 'U'), ('ళ', '|'), ('వ', 'U'), ('చ్చి', '|'), ('నా', 'U'), ('కౌ', 'U'), ('గి', '|'), ('ట', '|'), ('జొ', 'U'), ('చ్చు', '|'), ('నే', 'U'), ('మొ', '|'), ('ఊ', 'U'), ('హిం', 'U'), ('చి', '|'), ('నీ', 'U'), ('చే', 'U'), ('త', '|'), ('ను', 'U'), ('త్త', '|'), ('రం', 'U'), ('బం', 'U'), ('పి', '|'), ('న', 'U'), ('ప్రే', 'U'), ('మ', '|'), ('తో', 'U'), ('ర', 'U'), ('మ్మ', '|'), ('ని', '|'), ('పి', '|'), ('లు', '|'), ('చు', '|'), ('నే', 'U'), ('మొ', '|'), ('యే', 'U'), ('ను', '|'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('పూ', 'U'), ('జ', '|'), ('యి', 'U'), ('త్త', '|'), ('రి', '|'), ('ఒ', '|'), ('క', '|'), ('వే', 'U'), ('ళ', '|'), ('ద', '|'), ('రు', '|'), ('ణి', '|'), ('నా', 'U'), ('ప', '|'), ('యి', 'U'), ('భ్రాం', 'U'), ('తి', '|'), ('గ', '|'), ('లు', '|'), ('గు', '|'), ('నే', 'U'), ('మొ', '|'), ('సు', '|'), ('ద', '|'), ('తి', '|'), ('నా', 'U'), ('ప', 'U'), ('ల్కు', '|'), ('లు', '|'), ('చో', 'U'), ('ద్య', '|'), ('మై', 'U'), ('తో', 'U'), ('చి', '|'), ('న', '|'), ('వ', '|'), ('డి', '|'), ('వ', '|'), ('డి', '|'), ('నొ', '|'), ('క', '|'), ('వే', 'U'), ('ళ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('నే', 'U'), ('మొ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>పడతిరో నాదు కౌగిట పంజరమున | జేర్పబొసగదె యెటులైన జెలిమికానితరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>పడతిరో నాదు కౌగిట పంజరమున | జేర్పబొసగదె యెటులైన జెలిమికానితరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('డ', '|'), ('తి', '|'), ('రో', 'U'), ('నా', 'U'), ('దు', '|'), ('కౌ', 'U'), ('గి', '|'), ('ట', '|'), ('పం', 'U'), ('జ', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('జే', 'U'), ('ర్ప', '|'), ('బొ', '|'), ('స', '|'), ('గ', '|'), ('దె', '|'), ('యె', '|'), ('టు', '|'), ('లై', 'U'), ('న', '|'), ('జె', '|'), ('లి', '|'), ('మి', '|'), ('కా', 'U'), ('ని', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('నీ', 'U'), ('వే', 'U'), ('గి', '|'), ('యి', '|'), ('చ', '|'), ('టి', '|'), ('కి', '|'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('లు', '|'), ('దే', 'U'), ('గ', '|'), ('దే', 'U'), ('రా', 'U'), ('జ', '|'), ('వ', '|'), ('ద', '|'), ('న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>బాగుగా శేషాహిపానుపుపై బవళించితినంచు గర్వింపదగునెపంతగించుట గొల్లభామలయిండ్లలో బొంచియుండుట దన కంచితంబెనాతిరో తనవంటి నాథుని నమ్మిన జింతతో బవళింపం జెల్లునటనెగొల్లవానికి రాజుకూతురునియ్య మా తల్లిదండ్రులకిది ధర్మమగునె</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>బాగుగా శేషాహిపానుపుపై బవళించితినంచు గర్వింపదగునెపంతగించుట గొల్లభామలయిండ్లలో బొంచియుండుట దన కంచితంబెనాతిరో తనవంటి నాథుని నమ్మిన జింతతో బవళింపం జెల్లునటనెగొల్లవానికి రాజుకూతురునియ్య మా తల్లిదండ్రులకిది ధర్మమగునె</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
           <t>[('బా', 'U'), ('గు', '|'), ('గా', 'U'), ('శే', 'U'), ('షా', 'U'), ('హి', '|'), ('పా', 'U'), ('ను', '|'), ('పు', '|'), ('పై', 'U'), ('బ', '|'), ('వ', '|'), ('ళిం', 'U'), ('చి', '|'), ('తి', '|'), ('నం', 'U'), ('చు', '|'), ('గ', 'U'), ('ర్విం', 'U'), ('ప', '|'), ('ద', '|'), ('గు', '|'), ('నె', '|'), ('పం', 'U'), ('త', '|'), ('గిం', 'U'), ('చు', '|'), ('ట', '|'), ('గొ', 'U'), ('ల్ల', '|'), ('భా', 'U'), ('మ', '|'), ('ల', '|'), ('యిం', 'U'), ('డ్ల', '|'), ('లో', 'U'), ('బొం', 'U'), ('చి', '|'), ('యుం', 'U'), ('డు', '|'), ('ట', '|'), ('ద', '|'), ('న', '|'), ('కం', 'U'), ('చి', '|'), ('తం', 'U'), ('బె', '|'), ('నా', 'U'), ('తి', '|'), ('రో', 'U'), ('త', '|'), ('న', '|'), ('వం', 'U'), ('టి', '|'), ('నా', 'U'), ('థు', '|'), ('ని', '|'), ('న', 'U'), ('మ్మి', '|'), ('న', '|'), ('జిం', 'U'), ('త', '|'), ('తో', 'U'), ('బ', '|'), ('వ', '|'), ('ళిం', 'U'), ('పం', 'U'), ('జె', 'U'), ('ల్లు', '|'), ('న', '|'), ('ట', '|'), ('నె', '|'), ('గొ', 'U'), ('ల్ల', '|'), ('వా', 'U'), ('ని', '|'), ('కి', '|'), ('రా', 'U'), ('జు', '|'), ('కూ', 'U'), ('తు', '|'), ('రు', '|'), ('ని', 'U'), ('య్య', '|'), ('మా', 'U'), ('త', 'U'), ('ల్లి', '|'), ('దం', 'U'), ('డ్రు', '|'), ('ల', '|'), ('కి', '|'), ('ది', '|'), ('ధ', '|'), ('ర్మ', '|'), ('మ', '|'), ('గు', '|'), ('నె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>పసులగాపరి కీలాగు పడతిజేసి | కూర్చె గద నన్ను దైవంబు కుటిలబుద్ధితరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>పసులగాపరి కీలాగు పడతిజేసి | కూర్చె గద నన్ను దైవంబు కుటిలబుద్ధితరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('సు', '|'), ('ల', '|'), ('గా', 'U'), ('ప', '|'), ('రి', '|'), ('కీ', 'U'), ('లా', 'U'), ('గు', '|'), ('ప', '|'), ('డ', '|'), ('తి', '|'), ('జే', 'U'), ('సి', '|'), ('కూ', 'U'), ('ర్చె', '|'), ('గ', '|'), ('ద', '|'), ('న', 'U'), ('న్ను', '|'), ('దై', 'U'), ('వం', 'U'), ('బు', '|'), ('కు', '|'), ('టి', '|'), ('ల', '|'), ('బు', 'U'), ('ద్ధి', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('నీ', 'U'), ('వే', 'U'), ('గి', '|'), ('యి', '|'), ('చ', '|'), ('టి', '|'), ('కి', '|'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('లు', '|'), ('దే', 'U'), ('గ', '|'), ('దే', 'U'), ('రా', 'U'), ('జ', '|'), ('వ', '|'), ('ద', '|'), ('న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>సఖియరో యాతని సంప్రదాయంబెల్ల విను చెప్పెదను నీకు విశదముగనుదన తల్లిగుణములు దక్కించి చూచిన బుత్రుల గని చంపు పుణ్యశాలితన యక్కగుణములు దరమటే యెంచను నైదుగురికి రాణియైన గరితతన యన్నగుణములు దానె యెఱుంగును దున్నుక బ్రతికెడి దుక్కిముచ్చు</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>సఖియరో యాతని సంప్రదాయంబెల్ల విను చెప్పెదను నీకు విశదముగనుదన తల్లిగుణములు దక్కించి చూచిన బుత్రుల గని చంపు పుణ్యశాలితన యక్కగుణములు దరమటే యెంచను నైదుగురికి రాణియైన గరితతన యన్నగుణములు దానె యెఱుంగును దున్నుక బ్రతికెడి దుక్కిముచ్చు</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
           <t>[('స', '|'), ('ఖి', '|'), ('య', '|'), ('రో', 'U'), ('యా', 'U'), ('త', '|'), ('ని', '|'), ('సం', 'U'), ('ప్ర', '|'), ('దా', 'U'), ('యం', 'U'), ('బె', 'U'), ('ల్ల', '|'), ('వి', '|'), ('ను', '|'), ('చె', 'U'), ('ప్పె', '|'), ('ద', '|'), ('ను', '|'), ('నీ', 'U'), ('కు', '|'), ('వి', '|'), ('శ', '|'), ('ద', '|'), ('ము', '|'), ('గ', '|'), ('ను', '|'), ('ద', '|'), ('న', '|'), ('త', 'U'), ('ల్లి', '|'), ('గు', '|'), ('ణ', '|'), ('ము', '|'), ('లు', '|'), ('ద', 'U'), ('క్కిం', 'U'), ('చి', '|'), ('చూ', 'U'), ('చి', '|'), ('న', '|'), ('బు', 'U'), ('త్రు', '|'), ('ల', '|'), ('గ', '|'), ('ని', '|'), ('చం', 'U'), ('పు', '|'), ('పు', 'U'), ('ణ్య', '|'), ('శా', 'U'), ('లి', '|'), ('త', '|'), ('న', '|'), ('య', 'U'), ('క్క', '|'), ('గు', '|'), ('ణ', '|'), ('ము', '|'), ('లు', '|'), ('ద', '|'), ('ర', '|'), ('మ', '|'), ('టే', 'U'), ('యెం', 'U'), ('చ', '|'), ('ను', '|'), ('నై', 'U'), ('దు', '|'), ('గు', '|'), ('రి', '|'), ('కి', '|'), ('రా', 'U'), ('ణి', '|'), ('యై', 'U'), ('న', '|'), ('గ', '|'), ('రి', '|'), ('త', '|'), ('త', '|'), ('న', '|'), ('య', 'U'), ('న్న', '|'), ('గు', '|'), ('ణ', '|'), ('ము', '|'), ('లు', '|'), ('దా', 'U'), ('నె', '|'), ('యె', '|'), ('ఱుం', 'U'), ('గు', '|'), ('ను', '|'), ('దు', 'U'), ('న్ను', '|'), ('క', 'U'), ('బ్ర', '|'), ('తి', '|'), ('కె', '|'), ('డి', '|'), ('దు', 'U'), ('క్కి', '|'), ('ము', 'U'), ('చ్చు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>ఇంత బహిరంగమాతని యింటిగుట్టు | కడకు దన కెట్టు సుగుణంబు గలుగునమ్మతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ఇంత బహిరంగమాతని యింటిగుట్టు | కడకు దన కెట్టు సుగుణంబు గలుగునమ్మతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
           <t>[('ఇం', 'U'), ('త', '|'), ('బ', '|'), ('హి', '|'), ('రం', 'U'), ('గ', '|'), ('మా', 'U'), ('త', '|'), ('ని', '|'), ('యిం', 'U'), ('టి', '|'), ('గు', 'U'), ('ట్టు', '|'), ('క', '|'), ('డ', '|'), ('కు', '|'), ('ద', '|'), ('న', '|'), ('కె', 'U'), ('ట్టు', '|'), ('సు', '|'), ('గు', '|'), ('ణం', 'U'), ('బు', '|'), ('గ', '|'), ('లు', '|'), ('గు', '|'), ('న', 'U'), ('మ్మ', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('నీ', 'U'), ('వే', 'U'), ('గి', '|'), ('యి', '|'), ('చ', '|'), ('టి', '|'), ('కి', '|'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('లు', '|'), ('దే', 'U'), ('గ', '|'), ('దే', 'U'), ('రా', 'U'), ('జ', '|'), ('వ', '|'), ('ద', '|'), ('న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>విరులు సరంబులు వింతగా సవరించి క్రొమ్ముడిలో జేర్చుకొన్నదనవెజిగివన్నె బంగారుచీరలు రత్నాలు దాపిన రవికయు దాల్చెననవెసఖియ పున్నమనాటి చందురుకన్నను మిన్నయై మెఱయుచున్నదనవెనీమీద ప్రేమతోనిండార నేవేళ దైవము బ్రార్థించు తరుణి యనవే</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>విరులు సరంబులు వింతగా సవరించి క్రొమ్ముడిలో జేర్చుకొన్నదనవెజిగివన్నె బంగారుచీరలు రత్నాలు దాపిన రవికయు దాల్చెననవెసఖియ పున్నమనాటి చందురుకన్నను మిన్నయై మెఱయుచున్నదనవెనీమీద ప్రేమతోనిండార నేవేళ దైవము బ్రార్థించు తరుణి యనవే</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
           <t>[('వి', '|'), ('రు', '|'), ('లు', '|'), ('స', '|'), ('రం', 'U'), ('బు', '|'), ('లు', '|'), ('విం', 'U'), ('త', '|'), ('గా', 'U'), ('స', '|'), ('వ', '|'), ('రిం', 'U'), ('చి', 'U'), ('క్రొ', 'U'), ('మ్ము', '|'), ('డి', '|'), ('లో', 'U'), ('జే', 'U'), ('ర్చు', '|'), ('కొ', 'U'), ('న్న', '|'), ('ద', '|'), ('న', '|'), ('వె', '|'), ('జి', '|'), ('గి', '|'), ('వ', 'U'), ('న్నె', '|'), ('బం', 'U'), ('గా', 'U'), ('రు', '|'), ('చీ', 'U'), ('ర', '|'), ('లు', '|'), ('ర', 'U'), ('త్నా', 'U'), ('లు', '|'), ('దా', 'U'), ('పి', '|'), ('న', '|'), ('ర', '|'), ('వి', '|'), ('క', '|'), ('యు', '|'), ('దా', 'U'), ('ల్చె', '|'), ('న', '|'), ('న', '|'), ('వె', '|'), ('స', '|'), ('ఖి', '|'), ('య', '|'), ('పు', 'U'), ('న్న', '|'), ('మ', '|'), ('నా', 'U'), ('టి', '|'), ('చం', 'U'), ('దు', '|'), ('రు', '|'), ('క', 'U'), ('న్న', '|'), ('ను', '|'), ('మి', 'U'), ('న్న', '|'), ('యై', 'U'), ('మె', '|'), ('ఱ', '|'), ('యు', '|'), ('చు', 'U'), ('న్న', '|'), ('ద', '|'), ('న', '|'), ('వె', '|'), ('నీ', 'U'), ('మీ', 'U'), ('ద', 'U'), ('ప్రే', 'U'), ('మ', '|'), ('తో', 'U'), ('నిం', 'U'), ('డా', 'U'), ('ర', '|'), ('నే', 'U'), ('వే', 'U'), ('ళ', '|'), ('దై', 'U'), ('వ', '|'), ('ము', 'U'), ('బ్రా', 'U'), ('ర్థిం', 'U'), ('చు', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('య', '|'), ('న', '|'), ('వే', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నీవు రాకున్న నిక నొక్కనిమిషమైన | నెలత యుసురులు తనువున నిల్వదనవెతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>నీవు రాకున్న నిక నొక్కనిమిషమైన | నెలత యుసురులు తనువున నిల్వదనవెతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('వు', '|'), ('రా', 'U'), ('కు', 'U'), ('న్న', '|'), ('ని', '|'), ('క', '|'), ('నొ', 'U'), ('క్క', '|'), ('ని', '|'), ('మి', '|'), ('ష', '|'), ('మై', 'U'), ('న', '|'), ('నె', '|'), ('ల', '|'), ('త', '|'), ('యు', '|'), ('సు', '|'), ('రు', '|'), ('లు', '|'), ('త', '|'), ('ను', '|'), ('వు', '|'), ('న', '|'), ('ని', 'U'), ('ల్వ', '|'), ('ద', '|'), ('న', '|'), ('వె', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('నీ', 'U'), ('వే', 'U'), ('గి', '|'), ('యి', '|'), ('చ', '|'), ('టి', '|'), ('కి', '|'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('లు', '|'), ('దే', 'U'), ('గ', '|'), ('దే', 'U'), ('రా', 'U'), ('జ', '|'), ('వ', '|'), ('ద', '|'), ('న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>చెలియ నన్నీలాగు నలయింపగా నీకు లేస్సగా దనిమందలింపుమపుడుఅతివరో నన్నిటులారడి సేయుట దగదనిచెప్పు మాతనికినీవుభయమేమి వానితో బరుషో కులకునై, ననిపుడేలరావని యెలమినడుగుమతనికి గరుణరా నర్మిలి మాట్లాడియీ వేళ తోడి తెమ్మింతినీవు</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>చెలియ నన్నీలాగు నలయింపగా నీకు లేస్సగా దనిమందలింపుమపుడుఅతివరో నన్నిటులారడి సేయుట దగదనిచెప్పు మాతనికినీవుభయమేమి వానితో బరుషో కులకునై, ననిపుడేలరావని యెలమినడుగుమతనికి గరుణరా నర్మిలి మాట్లాడియీ వేళ తోడి తెమ్మింతినీవు</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
           <t>[('చె', '|'), ('లి', '|'), ('య', '|'), ('న', 'U'), ('న్నీ', 'U'), ('లా', 'U'), ('గు', '|'), ('న', '|'), ('ల', '|'), ('యిం', 'U'), ('ప', '|'), ('గా', 'U'), ('నీ', 'U'), ('కు', '|'), ('లే', 'U'), ('స్స', '|'), ('గా', 'U'), ('ద', '|'), ('ని', '|'), ('మం', 'U'), ('ద', '|'), ('లిం', 'U'), ('పు', '|'), ('మ', '|'), ('పు', '|'), ('డు', '|'), ('అ', '|'), ('తి', '|'), ('వ', '|'), ('రో', 'U'), ('న', 'U'), ('న్ని', '|'), ('టు', '|'), ('లా', 'U'), ('ర', '|'), ('డి', '|'), ('సే', 'U'), ('యు', '|'), ('ట', '|'), ('ద', '|'), ('గ', '|'), ('ద', '|'), ('ని', '|'), ('చె', 'U'), ('ప్పు', '|'), ('మా', 'U'), ('త', '|'), ('ని', '|'), ('కి', '|'), ('నీ', 'U'), ('వు', '|'), ('భ', '|'), ('య', '|'), ('మే', 'U'), ('మి', '|'), ('వా', 'U'), ('ని', '|'), ('తో', 'U'), ('బ', '|'), ('రు', '|'), ('షో', 'U'), ('కు', '|'), ('ల', '|'), ('కు', '|'), ('నై', 'U'), ('న', '|'), ('ని', '|'), ('పు', '|'), ('డే', 'U'), ('ల', '|'), ('రా', 'U'), ('వ', '|'), ('ని', '|'), ('యె', '|'), ('ల', '|'), ('మి', '|'), ('న', '|'), ('డు', '|'), ('గు', '|'), ('మ', '|'), ('త', '|'), ('ని', '|'), ('కి', '|'), ('గ', '|'), ('రు', '|'), ('ణ', '|'), ('రా', 'U'), ('న', '|'), ('ర్మి', '|'), ('లి', '|'), ('మా', 'U'), ('ట్లా', 'U'), ('డి', '|'), ('యీ', 'U'), ('వే', 'U'), ('ళ', '|'), ('తో', 'U'), ('డి', '|'), ('తె', 'U'), ('మ్మిం', 'U'), ('తి', '|'), ('నీ', 'U'), ('వు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>జాగు సేయక రాగదే జాములోన | నానవాలందుకొని వేగనతనికడకుతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>జాగు సేయక రాగదే జాములోన | నానవాలందుకొని వేగనతనికడకుతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
           <t>[('జా', 'U'), ('గు', '|'), ('సే', 'U'), ('య', '|'), ('క', '|'), ('రా', 'U'), ('గ', '|'), ('దే', 'U'), ('జా', 'U'), ('ము', '|'), ('లో', 'U'), ('న', '|'), ('నా', 'U'), ('న', '|'), ('వా', 'U'), ('లం', 'U'), ('దు', '|'), ('కొ', '|'), ('ని', '|'), ('వే', 'U'), ('గ', '|'), ('న', '|'), ('త', '|'), ('ని', '|'), ('క', '|'), ('డ', '|'), ('కు', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('నీ', 'U'), ('వే', 'U'), ('గి', '|'), ('యి', '|'), ('చ', '|'), ('టి', '|'), ('కి', '|'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('లు', '|'), ('దే', 'U'), ('గ', '|'), ('దే', 'U'), ('రా', 'U'), ('జ', '|'), ('వ', '|'), ('ద', '|'), ('న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>తరుణి నా యధరామృతముగోరు నా పతికిప్పుడు విసము నేనెట్టులైతినతనికి నా నేస్త మతిదూరమేయుండ నెవ్వతె చేసెనో యెఱుగనైతిమగువ చిన్నప్పటిమాటలో చోద్యముల్ గలుగు నాకెపుడని గర్వపడితిబడతి నన్నందఱి పాటిగా నెంచక యెక్కువ లాలించు టెఱుగనైతి</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>తరుణి నా యధరామృతముగోరు నా పతికిప్పుడు విసము నేనెట్టులైతినతనికి నా నేస్త మతిదూరమేయుండ నెవ్వతె చేసెనో యెఱుగనైతిమగువ చిన్నప్పటిమాటలో చోద్యముల్ గలుగు నాకెపుడని గర్వపడితిబడతి నన్నందఱి పాటిగా నెంచక యెక్కువ లాలించు టెఱుగనైతి</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('రు', '|'), ('ణి', '|'), ('నా', 'U'), ('య', '|'), ('ధ', '|'), ('రా', 'U'), ('మృ', '|'), ('త', '|'), ('ము', '|'), ('గో', 'U'), ('రు', '|'), ('నా', 'U'), ('ప', '|'), ('తి', '|'), ('కి', 'U'), ('ప్పు', '|'), ('డు', '|'), ('వి', '|'), ('స', '|'), ('ము', '|'), ('నే', 'U'), ('నె', 'U'), ('ట్టు', '|'), ('లై', 'U'), ('తి', '|'), ('న', '|'), ('త', '|'), ('ని', '|'), ('కి', '|'), ('నా', 'U'), ('నే', 'U'), ('స్త', '|'), ('మ', '|'), ('తి', '|'), ('దూ', 'U'), ('ర', '|'), ('మే', 'U'), ('యుం', 'U'), ('డ', '|'), ('నె', 'U'), ('వ్వ', '|'), ('తె', '|'), ('చే', 'U'), ('సె', '|'), ('నో', 'U'), ('యె', '|'), ('ఱు', '|'), ('గ', '|'), ('నై', 'U'), ('తి', '|'), ('మ', '|'), ('గు', '|'), ('వ', '|'), ('చి', 'U'), ('న్న', 'U'), ('ప్ప', '|'), ('టి', '|'), ('మా', 'U'), ('ట', '|'), ('లో', 'U'), ('చో', 'U'), ('ద్య', '|'), ('ముల్', 'U'), ('గ', '|'), ('లు', '|'), ('గు', '|'), ('నా', 'U'), ('కె', '|'), ('పు', '|'), ('డ', '|'), ('ని', '|'), ('గ', 'U'), ('ర్వ', '|'), ('ప', '|'), ('డి', '|'), ('తి', '|'), ('బ', '|'), ('డ', '|'), ('తి', '|'), ('న', 'U'), ('న్నం', 'U'), ('ద', '|'), ('ఱి', '|'), ('పా', 'U'), ('టి', '|'), ('గా', 'U'), ('నెం', 'U'), ('చ', '|'), ('క', '|'), ('యె', 'U'), ('క్కు', '|'), ('వ', '|'), ('లా', 'U'), ('లిం', 'U'), ('చు', '|'), ('టె', '|'), ('ఱు', '|'), ('గ', '|'), ('నై', 'U'), ('తి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నలరువిల్తుని బారికి నప్పగించి | చెలియ నన్నిప్పుడీరీతి జేసినాడుతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>నలరువిల్తుని బారికి నప్పగించి | చెలియ నన్నిప్పుడీరీతి జేసినాడుతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('ల', '|'), ('రు', '|'), ('వి', 'U'), ('ల్తు', '|'), ('ని', '|'), ('బా', 'U'), ('రి', '|'), ('కి', '|'), ('న', 'U'), ('ప్ప', '|'), ('గిం', 'U'), ('చి', '|'), ('చె', '|'), ('లి', '|'), ('య', '|'), ('న', 'U'), ('న్ని', 'U'), ('ప్పు', '|'), ('డీ', 'U'), ('రీ', 'U'), ('తి', '|'), ('జే', 'U'), ('సి', '|'), ('నా', 'U'), ('డు', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('నీ', 'U'), ('వే', 'U'), ('గి', '|'), ('యి', '|'), ('చ', '|'), ('టి', '|'), ('కి', '|'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('లు', '|'), ('దే', 'U'), ('గ', '|'), ('దే', 'U'), ('రా', 'U'), ('జ', '|'), ('వ', '|'), ('ద', '|'), ('న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>అతనికి నేమేమి యానవాలంటివా వేణువు దనచేత బూనువాడు రహినొప్ప శంఖచక్రంబులు గలవాడు సఖియ శ్రీవత్సలాంఛనమువాడుకోమలి నవరత్నకుండలంబులవాడు కస్తూరితిలకము గలుగువాడునలినాక్షి స్త్రీలతో నవ్వుచుండెడువాడు కమనీయ జీమూతకాంతివాడు</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>అతనికి నేమేమి యానవాలంటివా వేణువు దనచేత బూనువాడు రహినొప్ప శంఖచక్రంబులు గలవాడు సఖియ శ్రీవత్సలాంఛనమువాడుకోమలి నవరత్నకుండలంబులవాడు కస్తూరితిలకము గలుగువాడునలినాక్షి స్త్రీలతో నవ్వుచుండెడువాడు కమనీయ జీమూతకాంతివాడు</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('త', '|'), ('ని', '|'), ('కి', '|'), ('నే', 'U'), ('మే', 'U'), ('మి', '|'), ('యా', 'U'), ('న', '|'), ('వా', 'U'), ('లం', 'U'), ('టి', '|'), ('వా', 'U'), ('వే', 'U'), ('ణు', '|'), ('వు', '|'), ('ద', '|'), ('న', '|'), ('చే', 'U'), ('త', '|'), ('బూ', 'U'), ('ను', '|'), ('వా', 'U'), ('డు', '|'), ('ర', '|'), ('హి', '|'), ('నొ', 'U'), ('ప్ప', '|'), ('శం', 'U'), ('ఖ', '|'), ('చ', 'U'), ('క్రం', 'U'), ('బు', '|'), ('లు', '|'), ('గ', '|'), ('ల', '|'), ('వా', 'U'), ('డు', '|'), ('స', '|'), ('ఖి', '|'), ('య', 'U'), ('శ్రీ', 'U'), ('వ', 'U'), ('త్స', '|'), ('లాం', 'U'), ('ఛ', '|'), ('న', '|'), ('ము', '|'), ('వా', 'U'), ('డు', '|'), ('కో', 'U'), ('మ', '|'), ('లి', '|'), ('న', '|'), ('వ', '|'), ('ర', 'U'), ('త్న', '|'), ('కుం', 'U'), ('డ', '|'), ('లం', 'U'), ('బు', '|'), ('ల', '|'), ('వా', 'U'), ('డు', '|'), ('క', 'U'), ('స్తూ', 'U'), ('రి', '|'), ('తి', '|'), ('ల', '|'), ('క', '|'), ('ము', '|'), ('గ', '|'), ('లు', '|'), ('గు', '|'), ('వా', 'U'), ('డు', '|'), ('న', '|'), ('లి', '|'), ('నా', 'U'), ('క్షి', 'U'), ('స్త్రీ', 'U'), ('ల', '|'), ('తో', 'U'), ('న', 'U'), ('వ్వు', '|'), ('చుం', 'U'), ('డె', '|'), ('డు', '|'), ('వా', 'U'), ('డు', '|'), ('క', '|'), ('మ', '|'), ('నీ', 'U'), ('య', '|'), ('జీ', 'U'), ('మూ', 'U'), ('త', '|'), ('కాం', 'U'), ('తి', '|'), ('వా', 'U'), ('డు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>యిన్ని సొగసులు గలిగిన వన్నెకాడు | దెలిపి నా వర్తమానము దేటపఱచితరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>యిన్ని సొగసులు గలిగిన వన్నెకాడు | దెలిపి నా వర్తమానము దేటపఱచితరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
           <t>[('యి', 'U'), ('న్ని', '|'), ('సొ', '|'), ('గ', '|'), ('సు', '|'), ('లు', '|'), ('గ', '|'), ('లి', '|'), ('గి', '|'), ('న', '|'), ('వ', 'U'), ('న్నె', '|'), ('కా', 'U'), ('డు', '|'), ('దె', '|'), ('లి', '|'), ('పి', '|'), ('నా', 'U'), ('వ', 'U'), ('ర్త', '|'), ('మా', 'U'), ('న', '|'), ('ము', '|'), ('దే', 'U'), ('ట', '|'), ('ప', '|'), ('ఱ', '|'), ('చి', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('నీ', 'U'), ('వే', 'U'), ('గి', '|'), ('యి', '|'), ('చ', '|'), ('టి', '|'), ('కి', '|'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('లు', '|'), ('దే', 'U'), ('గ', '|'), ('దే', 'U'), ('రా', 'U'), ('జ', '|'), ('వ', '|'), ('ద', '|'), ('న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>కమలాక్షి యడవిలో గాయు వెన్నెలరీతి నాతడు సరసము లాడడాయెగూరిమి నాయొద్ద గూర్చున్నయపుడైన నింతి నాకొక్క ముద్దియ్యడాయెబడతి నే రమ్మని బతిమాలినపుడైన నగరుగంధమ్ము మేనలదడాయెనో రాధికా యని యూహించి యెపుడైన బ్రీతితో నన్ను తా బిల్వడాయె</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>కమలాక్షి యడవిలో గాయు వెన్నెలరీతి నాతడు సరసము లాడడాయెగూరిమి నాయొద్ద గూర్చున్నయపుడైన నింతి నాకొక్క ముద్దియ్యడాయెబడతి నే రమ్మని బతిమాలినపుడైన నగరుగంధమ్ము మేనలదడాయెనో రాధికా యని యూహించి యెపుడైన బ్రీతితో నన్ను తా బిల్వడాయె</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('మ', '|'), ('లా', 'U'), ('క్షి', '|'), ('య', '|'), ('డ', '|'), ('వి', '|'), ('లో', 'U'), ('గా', 'U'), ('యు', '|'), ('వె', 'U'), ('న్నె', '|'), ('ల', '|'), ('రీ', 'U'), ('తి', '|'), ('నా', 'U'), ('త', '|'), ('డు', '|'), ('స', '|'), ('ర', '|'), ('స', '|'), ('ము', '|'), ('లా', 'U'), ('డ', '|'), ('డా', 'U'), ('యె', '|'), ('గూ', 'U'), ('రి', '|'), ('మి', '|'), ('నా', 'U'), ('యొ', 'U'), ('ద్ద', '|'), ('గూ', 'U'), ('ర్చు', 'U'), ('న్న', '|'), ('య', '|'), ('పు', '|'), ('డై', 'U'), ('న', '|'), ('నిం', 'U'), ('తి', '|'), ('నా', 'U'), ('కొ', 'U'), ('క్క', '|'), ('ము', 'U'), ('ద్ది', 'U'), ('య్య', '|'), ('డా', 'U'), ('యె', '|'), ('బ', '|'), ('డ', '|'), ('తి', '|'), ('నే', 'U'), ('ర', 'U'), ('మ్మ', '|'), ('ని', '|'), ('బ', '|'), ('తి', '|'), ('మా', 'U'), ('లి', '|'), ('న', '|'), ('పు', '|'), ('డై', 'U'), ('న', '|'), ('న', '|'), ('గ', '|'), ('రు', '|'), ('గం', 'U'), ('ధ', 'U'), ('మ్ము', '|'), ('మే', 'U'), ('న', '|'), ('ల', '|'), ('ద', '|'), ('డా', 'U'), ('యె', '|'), ('నో', 'U'), ('రా', 'U'), ('ధి', '|'), ('కా', 'U'), ('య', '|'), ('ని', '|'), ('యూ', 'U'), ('హిం', 'U'), ('చి', '|'), ('యె', '|'), ('పు', '|'), ('డై', 'U'), ('న', 'U'), ('బ్రీ', 'U'), ('తి', '|'), ('తో', 'U'), ('న', 'U'), ('న్ను', '|'), ('తా', 'U'), ('బి', 'U'), ('ల్వ', '|'), ('డా', 'U'), ('యె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నరయ నా మది చింతచే నడలజేసె | మానితంబుగ గృష్ణుని మనసురాదుతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>నరయ నా మది చింతచే నడలజేసె | మానితంబుగ గృష్ణుని మనసురాదుతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('ర', '|'), ('య', '|'), ('నా', 'U'), ('మ', '|'), ('ది', '|'), ('చిం', 'U'), ('త', '|'), ('చే', 'U'), ('న', '|'), ('డ', '|'), ('ల', '|'), ('జే', 'U'), ('సె', '|'), ('మా', 'U'), ('ని', '|'), ('తం', 'U'), ('బు', '|'), ('గ', '|'), ('గృ', 'U'), ('ష్ణు', '|'), ('ని', '|'), ('మ', '|'), ('న', '|'), ('సు', '|'), ('రా', 'U'), ('దు', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('నీ', 'U'), ('వే', 'U'), ('గి', '|'), ('యి', '|'), ('చ', '|'), ('టి', '|'), ('కి', '|'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('లు', '|'), ('దే', 'U'), ('గ', '|'), ('దే', 'U'), ('రా', 'U'), ('జ', '|'), ('వ', '|'), ('ద', '|'), ('న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>చెలగి నాతో జెల్మి సేయుచున్నప్పడు దూరపుజర్చకు దొడరనైతి నతివవాదము సేయడంచు దోచెనుగాని యిటు మాయకాడౌట యెఱుగనైతివేగమె కర్పూరవిడెము మెక్కితి గాని యతివ భోగాలు చే నందనైతిభామ పూపాన్పుపై పవ్వళించితి కాని కూరిమితో వాని గూడనైతి</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>చెలగి నాతో జెల్మి సేయుచున్నప్పడు దూరపుజర్చకు దొడరనైతి నతివవాదము సేయడంచు దోచెనుగాని యిటు మాయకాడౌట యెఱుగనైతివేగమె కర్పూరవిడెము మెక్కితి గాని యతివ భోగాలు చే నందనైతిభామ పూపాన్పుపై పవ్వళించితి కాని కూరిమితో వాని గూడనైతి</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
           <t>[('చె', '|'), ('ల', '|'), ('గి', '|'), ('నా', 'U'), ('తో', 'U'), ('జె', 'U'), ('ల్మి', '|'), ('సే', 'U'), ('యు', '|'), ('చు', 'U'), ('న్న', 'U'), ('ప్ప', '|'), ('డు', '|'), ('దూ', 'U'), ('ర', '|'), ('పు', '|'), ('జ', 'U'), ('ర్చ', '|'), ('కు', '|'), ('దొ', '|'), ('డ', '|'), ('ర', '|'), ('నై', 'U'), ('తి', '|'), ('న', '|'), ('తి', '|'), ('వ', '|'), ('వా', 'U'), ('ద', '|'), ('ము', '|'), ('సే', 'U'), ('య', '|'), ('డం', 'U'), ('చు', '|'), ('దో', 'U'), ('చె', '|'), ('ను', '|'), ('గా', 'U'), ('ని', '|'), ('యి', '|'), ('టు', '|'), ('మా', 'U'), ('య', '|'), ('కా', 'U'), ('డౌ', 'U'), ('ట', '|'), ('యె', '|'), ('ఱు', '|'), ('గ', '|'), ('నై', 'U'), ('తి', '|'), ('వే', 'U'), ('గ', '|'), ('మె', '|'), ('క', 'U'), ('ర్పూ', 'U'), ('ర', '|'), ('వి', '|'), ('డె', '|'), ('ము', '|'), ('మె', 'U'), ('క్కి', '|'), ('తి', '|'), ('గా', 'U'), ('ని', '|'), ('య', '|'), ('తి', '|'), ('వ', '|'), ('భో', 'U'), ('గా', 'U'), ('లు', '|'), ('చే', 'U'), ('నం', 'U'), ('ద', '|'), ('నై', 'U'), ('తి', '|'), ('భా', 'U'), ('మ', '|'), ('పూ', 'U'), ('పా', 'U'), ('న్పు', '|'), ('పై', 'U'), ('ప', 'U'), ('వ్వ', '|'), ('ళిం', 'U'), ('చి', '|'), ('తి', '|'), ('కా', 'U'), ('ని', '|'), ('కూ', 'U'), ('రి', '|'), ('మి', '|'), ('తో', 'U'), ('వా', 'U'), ('ని', '|'), ('గూ', 'U'), ('డ', '|'), ('నై', 'U'), ('తి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>వెలది నా వెతలెంతని విన్నవింతు | నతని దయరాదు నేనెంత యడరియున్నతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>వెలది నా వెతలెంతని విన్నవింతు | నతని దయరాదు నేనెంత యడరియున్నతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
           <t>[('వె', '|'), ('ల', '|'), ('ది', '|'), ('నా', 'U'), ('వె', '|'), ('త', '|'), ('లెం', 'U'), ('త', '|'), ('ని', '|'), ('వి', 'U'), ('న్న', '|'), ('విం', 'U'), ('తు', '|'), ('న', '|'), ('త', '|'), ('ని', '|'), ('ద', '|'), ('య', '|'), ('రా', 'U'), ('దు', '|'), ('నే', 'U'), ('నెం', 'U'), ('త', '|'), ('య', '|'), ('డ', '|'), ('రి', '|'), ('యు', 'U'), ('న్న', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('నీ', 'U'), ('వే', 'U'), ('గి', '|'), ('యి', '|'), ('చ', '|'), ('టి', '|'), ('కి', '|'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('లు', '|'), ('దే', 'U'), ('గ', '|'), ('దే', 'U'), ('రా', 'U'), ('జ', '|'), ('వ', '|'), ('ద', '|'), ('న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>చెంగల్వకొలనులో శృంగారముగ జలక్రీడ చేడియలతో నాడువానిసిగ్గులేకను వారి చీరలన్నియు గొని తక్కక పొన్న మ్రానెక్కువానినెక్కడి చోరకుం డెత్తుకపోయెనో యనుచు వ్రేతల నలయించువానికొలనులో సిగ్గుచే గొంకెడు వనితల చలువలిచ్చెదనని వచ్చువాని</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>చెంగల్వకొలనులో శృంగారముగ జలక్రీడ చేడియలతో నాడువానిసిగ్గులేకను వారి చీరలన్నియు గొని తక్కక పొన్న మ్రానెక్కువానినెక్కడి చోరకుం డెత్తుకపోయెనో యనుచు వ్రేతల నలయించువానికొలనులో సిగ్గుచే గొంకెడు వనితల చలువలిచ్చెదనని వచ్చువాని</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
           <t>[('చెం', 'U'), ('గ', 'U'), ('ల్వ', '|'), ('కొ', '|'), ('ల', '|'), ('ను', '|'), ('లో', 'U'), ('శృం', 'U'), ('గా', 'U'), ('ర', '|'), ('ము', '|'), ('గ', '|'), ('జ', '|'), ('ల', 'U'), ('క్రీ', 'U'), ('డ', '|'), ('చే', 'U'), ('డి', '|'), ('య', '|'), ('ల', '|'), ('తో', 'U'), ('నా', 'U'), ('డు', '|'), ('వా', 'U'), ('ని', '|'), ('సి', 'U'), ('గ్గు', '|'), ('లే', 'U'), ('క', '|'), ('ను', '|'), ('వా', 'U'), ('రి', '|'), ('చీ', 'U'), ('ర', '|'), ('ల', 'U'), ('న్ని', '|'), ('యు', '|'), ('గొ', '|'), ('ని', '|'), ('త', 'U'), ('క్క', '|'), ('క', '|'), ('పొ', 'U'), ('న్న', '|'), ('మ్రా', 'U'), ('నె', 'U'), ('క్కు', '|'), ('వా', 'U'), ('ని', '|'), ('నె', 'U'), ('క్క', '|'), ('డి', '|'), ('చో', 'U'), ('ర', '|'), ('కుం', 'U'), ('డె', 'U'), ('త్తు', '|'), ('క', '|'), ('పో', 'U'), ('యె', '|'), ('నో', 'U'), ('య', '|'), ('ను', '|'), ('చు', 'U'), ('వ్రే', 'U'), ('త', '|'), ('ల', '|'), ('న', '|'), ('ల', '|'), ('యిం', 'U'), ('చు', '|'), ('వా', 'U'), ('ని', '|'), ('కొ', '|'), ('ల', '|'), ('ను', '|'), ('లో', 'U'), ('సి', 'U'), ('గ్గు', '|'), ('చే', 'U'), ('గొం', 'U'), ('కె', '|'), ('డు', '|'), ('వ', '|'), ('ని', '|'), ('త', '|'), ('ల', '|'), ('చ', '|'), ('లు', '|'), ('వ', '|'), ('లి', 'U'), ('చ్చె', '|'), ('ద', '|'), ('న', '|'), ('ని', '|'), ('వ', 'U'), ('చ్చు', '|'), ('వా', 'U'), ('ని', '|')]</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>బైట రండిత్తునని వారి భ్రమలఁ బెట్టి | హస్తములు రెండు నెత్తుడంచనెడువానితరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>బైట రండిత్తునని వారి భ్రమలఁ బెట్టి | హస్తములు రెండు నెత్తుడంచనెడువానితరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
           <t>[('బై', 'U'), ('ట', '|'), ('రం', 'U'), ('డి', 'U'), ('త్తు', '|'), ('న', '|'), ('ని', '|'), ('వా', 'U'), ('రి', 'U'), ('భ్ర', '|'), ('మ', '|'), ('ల', '|'), ('బె', 'U'), ('ట్టి', '|'), ('హ', 'U'), ('స్త', '|'), ('ము', '|'), ('లు', '|'), ('రెం', 'U'), ('డు', '|'), ('నె', 'U'), ('త్తు', '|'), ('డం', 'U'), ('చ', '|'), ('నె', '|'), ('డు', '|'), ('వా', 'U'), ('ని', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('నీ', 'U'), ('వే', 'U'), ('గి', '|'), ('యి', '|'), ('చ', '|'), ('టి', '|'), ('కి', '|'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('లు', '|'), ('దే', 'U'), ('గ', '|'), ('దే', 'U'), ('రా', 'U'), ('జ', '|'), ('వ', '|'), ('ద', '|'), ('న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>లంచమియ్యకను రానంచు బొమ్మనువాని నప్పుడే యేమైన నడుగనైతిమొలకనవ్వుల ముద్దుమోము జూచినయంత నాతని గుణము లే నరయనైతిమా తల్లిదండ్రుల మాటలాలింపక కుటిలబుద్ధిని గూడి కోలుపోతివేగిరపడి నేను వేడుకొంటిని గాని సవతిపోరనుచు నే జడియనైతి</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>లంచమియ్యకను రానంచు బొమ్మనువాని నప్పుడే యేమైన నడుగనైతిమొలకనవ్వుల ముద్దుమోము జూచినయంత నాతని గుణము లే నరయనైతిమా తల్లిదండ్రుల మాటలాలింపక కుటిలబుద్ధిని గూడి కోలుపోతివేగిరపడి నేను వేడుకొంటిని గాని సవతిపోరనుచు నే జడియనైతి</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
           <t>[('లం', 'U'), ('చ', '|'), ('మి', 'U'), ('య్య', '|'), ('క', '|'), ('ను', '|'), ('రా', 'U'), ('నం', 'U'), ('చు', '|'), ('బొ', 'U'), ('మ్మ', '|'), ('ను', '|'), ('వా', 'U'), ('ని', '|'), ('న', 'U'), ('ప్పు', '|'), ('డే', 'U'), ('యే', 'U'), ('మై', 'U'), ('న', '|'), ('న', '|'), ('డు', '|'), ('గ', '|'), ('నై', 'U'), ('తి', '|'), ('మొ', '|'), ('ల', '|'), ('క', '|'), ('న', 'U'), ('వ్వు', '|'), ('ల', '|'), ('ము', 'U'), ('ద్దు', '|'), ('మో', 'U'), ('ము', '|'), ('జూ', 'U'), ('చి', '|'), ('న', '|'), ('యం', 'U'), ('త', '|'), ('నా', 'U'), ('త', '|'), ('ని', '|'), ('గు', '|'), ('ణ', '|'), ('ము', '|'), ('లే', 'U'), ('న', '|'), ('ర', '|'), ('య', '|'), ('నై', 'U'), ('తి', '|'), ('మా', 'U'), ('త', 'U'), ('ల్లి', '|'), ('దం', 'U'), ('డ్రు', '|'), ('ల', '|'), ('మా', 'U'), ('ట', '|'), ('లా', 'U'), ('లిం', 'U'), ('ప', '|'), ('క', '|'), ('కు', '|'), ('టి', '|'), ('ల', '|'), ('బు', 'U'), ('ద్ధి', '|'), ('ని', '|'), ('గూ', 'U'), ('డి', '|'), ('కో', 'U'), ('లు', '|'), ('పో', 'U'), ('తి', '|'), ('వే', 'U'), ('గి', '|'), ('ర', '|'), ('ప', '|'), ('డి', '|'), ('నే', 'U'), ('ను', '|'), ('వే', 'U'), ('డు', '|'), ('కొం', 'U'), ('టి', '|'), ('ని', '|'), ('గా', 'U'), ('ని', '|'), ('స', '|'), ('వ', '|'), ('తి', '|'), ('పో', 'U'), ('ర', '|'), ('ను', '|'), ('చు', '|'), ('నే', 'U'), ('జ', '|'), ('డి', '|'), ('య', '|'), ('నై', 'U'), ('తి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>కొమ్మ నా బుద్ధి కేమనుకొందునమ్మ | వలపు ఘనమాయె యోర్వ నా వశముగాదుతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>కొమ్మ నా బుద్ధి కేమనుకొందునమ్మ | వలపు ఘనమాయె యోర్వ నా వశముగాదుతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
           <t>[('కొ', 'U'), ('మ్మ', '|'), ('నా', 'U'), ('బు', 'U'), ('ద్ధి', '|'), ('కే', 'U'), ('మ', '|'), ('ను', '|'), ('కొం', 'U'), ('దు', '|'), ('న', 'U'), ('మ్మ', '|'), ('వ', '|'), ('ల', '|'), ('పు', '|'), ('ఘ', '|'), ('న', '|'), ('మా', 'U'), ('యె', '|'), ('యో', 'U'), ('ర్వ', '|'), ('నా', 'U'), ('వ', '|'), ('శ', '|'), ('ము', '|'), ('గా', 'U'), ('దు', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('నీ', 'U'), ('వే', 'U'), ('గి', '|'), ('యి', '|'), ('చ', '|'), ('టి', '|'), ('కి', '|'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('లు', '|'), ('దే', 'U'), ('గ', '|'), ('దే', 'U'), ('రా', 'U'), ('జ', '|'), ('వ', '|'), ('ద', '|'), ('న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>విరహతాపంబాయె విభుడిటు రాడాయె మది తాల్మి లేదాయె మందయానవెన్నెలాతపమాయె విరిసరుల్ వెగటాయె నిదుర లేదాయెనే నీలవేణి హ-ర్షంబు లేదాయె నాడికల్ ఘనమాయె నిద్దరి కెడమాయె నిందువదనకలికి పెట్టినమందు తలకెక్కి యిపుడైనచేడె నా యిలు తొంగిచూడడాయె</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>విరహతాపంబాయె విభుడిటు రాడాయె మది తాల్మి లేదాయె మందయానవెన్నెలాతపమాయె విరిసరుల్ వెగటాయె నిదుర లేదాయెనే నీలవేణి హ-ర్షంబు లేదాయె నాడికల్ ఘనమాయె నిద్దరి కెడమాయె నిందువదనకలికి పెట్టినమందు తలకెక్కి యిపుడైనచేడె నా యిలు తొంగిచూడడాయె</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
           <t>[('వి', '|'), ('ర', '|'), ('హ', '|'), ('తా', 'U'), ('పం', 'U'), ('బా', 'U'), ('యె', '|'), ('వి', '|'), ('భు', '|'), ('డి', '|'), ('టు', '|'), ('రా', 'U'), ('డా', 'U'), ('యె', '|'), ('మ', '|'), ('ది', '|'), ('తా', 'U'), ('ల్మి', '|'), ('లే', 'U'), ('దా', 'U'), ('యె', '|'), ('మం', 'U'), ('ద', '|'), ('యా', 'U'), ('న', '|'), ('వె', 'U'), ('న్నె', '|'), ('లా', 'U'), ('త', '|'), ('ప', '|'), ('మా', 'U'), ('యె', '|'), ('వి', '|'), ('రి', '|'), ('స', '|'), ('రుల్', 'U'), ('వె', '|'), ('గ', '|'), ('టా', 'U'), ('యె', '|'), ('ని', '|'), ('దు', '|'), ('ర', '|'), ('లే', 'U'), ('దా', 'U'), ('యె', '|'), ('నే', 'U'), ('నీ', 'U'), ('ల', '|'), ('వే', 'U'), ('ణి', '|'), ('హ', 'U'), ('ర్షం', 'U'), ('బు', '|'), ('లే', 'U'), ('దా', 'U'), ('యె', '|'), ('నా', 'U'), ('డి', '|'), ('కల్', 'U'), ('ఘ', '|'), ('న', '|'), ('మా', 'U'), ('యె', '|'), ('ని', 'U'), ('ద్ద', '|'), ('రి', '|'), ('కె', '|'), ('డ', '|'), ('మా', 'U'), ('యె', '|'), ('నిం', 'U'), ('దు', '|'), ('వ', '|'), ('ద', '|'), ('న', '|'), ('క', '|'), ('లి', '|'), ('కి', '|'), ('పె', 'U'), ('ట్టి', '|'), ('న', '|'), ('మం', 'U'), ('దు', '|'), ('త', '|'), ('ల', '|'), ('కె', 'U'), ('క్కి', '|'), ('యి', '|'), ('పు', '|'), ('డై', 'U'), ('న', '|'), ('చే', 'U'), ('డె', '|'), ('నా', 'U'), ('యి', '|'), ('లు', '|'), ('తొం', 'U'), ('గి', '|'), ('చూ', 'U'), ('డ', '|'), ('డా', 'U'), ('యె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>పగలు రేయును దానింట బండనాయె | నెలక నాపొందుమదిలోన నెన్నడాయెతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>పగలు రేయును దానింట బండనాయె | నెలక నాపొందుమదిలోన నెన్నడాయెతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('గ', '|'), ('లు', '|'), ('రే', 'U'), ('యు', '|'), ('ను', '|'), ('దా', 'U'), ('నిం', 'U'), ('ట', '|'), ('బం', 'U'), ('డ', '|'), ('నా', 'U'), ('యె', '|'), ('నె', '|'), ('ల', '|'), ('క', '|'), ('నా', 'U'), ('పొం', 'U'), ('దు', '|'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('న', '|'), ('నె', 'U'), ('న్న', '|'), ('డా', 'U'), ('యె', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('నీ', 'U'), ('వే', 'U'), ('గి', '|'), ('యి', '|'), ('చ', '|'), ('టి', '|'), ('కి', '|'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('లు', '|'), ('దే', 'U'), ('గ', '|'), ('దే', 'U'), ('రా', 'U'), ('జ', '|'), ('వ', '|'), ('ద', '|'), ('న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>బాణజాలంబుల పాలు సేయగనేల కాముడా నీ రూపు కాలిపోనుచెవులు చిందరగొన జెలగి కూయగనేల కోకిల నీ యుల్లు గూలిపోనుప్రళయాగ్నిరూపమై పట్టుగా విసరెడు పవనుడ నినుఁ ద్రాచుపాము మ్రింగవెన్నెల గురిపించి వేడి చూపగనేల చంద్రుడా నీ రూపు సమసిపోను</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>బాణజాలంబుల పాలు సేయగనేల కాముడా నీ రూపు కాలిపోనుచెవులు చిందరగొన జెలగి కూయగనేల కోకిల నీ యుల్లు గూలిపోనుప్రళయాగ్నిరూపమై పట్టుగా విసరెడు పవనుడ నినుఁ ద్రాచుపాము మ్రింగవెన్నెల గురిపించి వేడి చూపగనేల చంద్రుడా నీ రూపు సమసిపోను</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
           <t>[('బా', 'U'), ('ణ', '|'), ('జా', 'U'), ('లం', 'U'), ('బు', '|'), ('ల', '|'), ('పా', 'U'), ('లు', '|'), ('సే', 'U'), ('య', '|'), ('గ', '|'), ('నే', 'U'), ('ల', '|'), ('కా', 'U'), ('ము', '|'), ('డా', 'U'), ('నీ', 'U'), ('రూ', 'U'), ('పు', '|'), ('కా', 'U'), ('లి', '|'), ('పో', 'U'), ('ను', '|'), ('చె', '|'), ('వు', '|'), ('లు', '|'), ('చిం', 'U'), ('ద', '|'), ('ర', '|'), ('గొ', '|'), ('న', '|'), ('జె', '|'), ('ల', '|'), ('గి', '|'), ('కూ', 'U'), ('య', '|'), ('గ', '|'), ('నే', 'U'), ('ల', '|'), ('కో', 'U'), ('కి', '|'), ('ల', '|'), ('నీ', 'U'), ('యు', 'U'), ('ల్లు', '|'), ('గూ', 'U'), ('లి', '|'), ('పో', 'U'), ('ను', 'U'), ('ప్ర', '|'), ('ళ', '|'), ('యా', 'U'), ('గ్ని', '|'), ('రూ', 'U'), ('ప', '|'), ('మై', 'U'), ('ప', 'U'), ('ట్టు', '|'), ('గా', 'U'), ('వి', '|'), ('స', '|'), ('రె', '|'), ('డు', '|'), ('ప', '|'), ('వ', '|'), ('ను', '|'), ('డ', '|'), ('ని', '|'), ('ను', '|'), ('ద్రా', 'U'), ('చు', '|'), ('పా', 'U'), ('ము', '|'), ('మ్రిం', 'U'), ('గ', '|'), ('వె', 'U'), ('న్నె', '|'), ('ల', '|'), ('గు', '|'), ('రి', '|'), ('పిం', 'U'), ('చి', '|'), ('వే', 'U'), ('డి', '|'), ('చూ', 'U'), ('ప', '|'), ('గ', '|'), ('నే', 'U'), ('ల', '|'), ('చం', 'U'), ('ద్రు', '|'), ('డా', 'U'), ('నీ', 'U'), ('రూ', 'U'), ('పు', '|'), ('స', '|'), ('మ', '|'), ('సి', '|'), ('పో', 'U'), ('ను', '|')]</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>వలచి వలపించి నా ప్రాణవల్లభుండు | రాడనుచు వీరలందఱు గూడికొనిరితరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>వలచి వలపించి నా ప్రాణవల్లభుండు | రాడనుచు వీరలందఱు గూడికొనిరితరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
           <t>[('వ', '|'), ('ల', '|'), ('చి', '|'), ('వ', '|'), ('ల', '|'), ('పిం', 'U'), ('చి', '|'), ('నా', 'U'), ('ప్రా', 'U'), ('ణ', '|'), ('వ', 'U'), ('ల్ల', '|'), ('భుం', 'U'), ('డు', '|'), ('రా', 'U'), ('డ', '|'), ('ను', '|'), ('చు', '|'), ('వీ', 'U'), ('ర', '|'), ('లం', 'U'), ('ద', '|'), ('ఱు', '|'), ('గూ', 'U'), ('డి', '|'), ('కొ', '|'), ('ని', '|'), ('రి', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('నీ', 'U'), ('వే', 'U'), ('గి', '|'), ('యి', '|'), ('చ', '|'), ('టి', '|'), ('కి', '|'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('లు', '|'), ('దే', 'U'), ('గ', '|'), ('దే', 'U'), ('రా', 'U'), ('జ', '|'), ('వ', '|'), ('ద', '|'), ('న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>దశరథనందన ధాత్రీశయచ్యుత దైతేయహర మీకు దండమయ్యగౌతమాంగనశాపకలుషంబు బాపిన ధర్మాత్మ హరి మీకు దండమయ్యవనచరవందిత వారిధిబంధన దశకంఠసంహార దండమయ్యగోపాలసేవిత గోపీమనోహర తాపసనుత మీకు దండమయ్య</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>దశరథనందన ధాత్రీశయచ్యుత దైతేయహర మీకు దండమయ్యగౌతమాంగనశాపకలుషంబు బాపిన ధర్మాత్మ హరి మీకు దండమయ్యవనచరవందిత వారిధిబంధన దశకంఠసంహార దండమయ్యగోపాలసేవిత గోపీమనోహర తాపసనుత మీకు దండమయ్య</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
           <t>[('ద', '|'), ('శ', '|'), ('ర', '|'), ('థ', '|'), ('నం', 'U'), ('ద', '|'), ('న', '|'), ('ధా', 'U'), ('త్రీ', 'U'), ('శ', '|'), ('య', 'U'), ('చ్యు', '|'), ('త', '|'), ('దై', 'U'), ('తే', 'U'), ('య', '|'), ('హ', '|'), ('ర', '|'), ('మీ', 'U'), ('కు', '|'), ('దం', 'U'), ('డ', '|'), ('మ', 'U'), ('య్య', '|'), ('గౌ', 'U'), ('త', '|'), ('మాం', 'U'), ('గ', '|'), ('న', '|'), ('శా', 'U'), ('ప', '|'), ('క', '|'), ('లు', '|'), ('షం', 'U'), ('బు', '|'), ('బా', 'U'), ('పి', '|'), ('న', '|'), ('ధ', '|'), ('ర్మా', 'U'), ('త్మ', '|'), ('హ', '|'), ('రి', '|'), ('మీ', 'U'), ('కు', '|'), ('దం', 'U'), ('డ', '|'), ('మ', 'U'), ('య్య', '|'), ('వ', '|'), ('న', '|'), ('చ', '|'), ('ర', '|'), ('వం', 'U'), ('ది', '|'), ('త', '|'), ('వా', 'U'), ('రి', '|'), ('ధి', '|'), ('బం', 'U'), ('ధ', '|'), ('న', '|'), ('ద', '|'), ('శ', '|'), ('కం', 'U'), ('ఠ', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('దం', 'U'), ('డ', '|'), ('మ', 'U'), ('య్య', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('సే', 'U'), ('వి', '|'), ('త', '|'), ('గో', 'U'), ('పీ', 'U'), ('మ', '|'), ('నో', 'U'), ('హ', '|'), ('ర', '|'), ('తా', 'U'), ('ప', '|'), ('స', '|'), ('ను', '|'), ('త', '|'), ('మీ', 'U'), ('కు', '|'), ('దం', 'U'), ('డ', '|'), ('మ', 'U'), ('య్య', '|')]</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>జానకీనాథ రాఘవచక్రహస్త | రఘుకులోత్తమ దశరథరామచంద్ర................................. | రాజగోపాల రావయ్య రమణి గూడ.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>జానకీనాథ రాఘవచక్రహస్త | రఘుకులోత్తమ దశరథరామచంద్ర................................. | రాజగోపాల రావయ్య రమణి గూడ.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
           <t>[('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('థ', '|'), ('రా', 'U'), ('ఘ', '|'), ('వ', '|'), ('చ', 'U'), ('క్ర', '|'), ('హ', 'U'), ('స్త', '|'), ('ర', '|'), ('ఘు', '|'), ('కు', '|'), ('లో', 'U'), ('త్త', '|'), ('మ', '|'), ('ద', '|'), ('శ', '|'), ('ర', '|'), ('థ', '|'), ('రా', 'U'), ('మ', '|'), ('చం', 'U'), ('ద్ర', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('రా', 'U'), ('వ', 'U'), ('య్య', '|'), ('ర', '|'), ('మ', '|'), ('ణి', '|'), ('గూ', 'U'), ('డ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>చల్లగ వర్ధిల్లు సరససద్గుణమణి సౌభాగ్యమే నీకు సత్యభామయారోగ్యమే నీకు నతివ చక్కనిలేమ దీర్ఘాయువే నీకు తెరవ సుమతిమంగళమే నీకు మహనీయగుణవతి సాఫల్యమే నీకు సరసిజాక్షిశ్రీరస్తు నీకును శీతాంశుముఖమణి కల్యాణమే నీకు కంబుకంఠి</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>చల్లగ వర్ధిల్లు సరససద్గుణమణి సౌభాగ్యమే నీకు సత్యభామయారోగ్యమే నీకు నతివ చక్కనిలేమ దీర్ఘాయువే నీకు తెరవ సుమతిమంగళమే నీకు మహనీయగుణవతి సాఫల్యమే నీకు సరసిజాక్షిశ్రీరస్తు నీకును శీతాంశుముఖమణి కల్యాణమే నీకు కంబుకంఠి</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
           <t>[('చ', 'U'), ('ల్ల', '|'), ('గ', '|'), ('వ', 'U'), ('ర్ధి', 'U'), ('ల్లు', '|'), ('స', '|'), ('ర', '|'), ('స', '|'), ('స', 'U'), ('ద్గు', '|'), ('ణ', '|'), ('మ', '|'), ('ణి', '|'), ('సౌ', 'U'), ('భా', 'U'), ('గ్య', '|'), ('మే', 'U'), ('నీ', 'U'), ('కు', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మ', '|'), ('యా', 'U'), ('రో', 'U'), ('గ్య', '|'), ('మే', 'U'), ('నీ', 'U'), ('కు', '|'), ('న', '|'), ('తి', '|'), ('వ', '|'), ('చ', 'U'), ('క్క', '|'), ('ని', '|'), ('లే', 'U'), ('మ', '|'), ('దీ', 'U'), ('ర్ఘా', 'U'), ('యు', '|'), ('వే', 'U'), ('నీ', 'U'), ('కు', '|'), ('తె', '|'), ('ర', '|'), ('వ', '|'), ('సు', '|'), ('మ', '|'), ('తి', '|'), ('మం', 'U'), ('గ', '|'), ('ళ', '|'), ('మే', 'U'), ('నీ', 'U'), ('కు', '|'), ('మ', '|'), ('హ', '|'), ('నీ', 'U'), ('య', '|'), ('గు', '|'), ('ణ', '|'), ('వ', '|'), ('తి', '|'), ('సా', 'U'), ('ఫ', 'U'), ('ల్య', '|'), ('మే', 'U'), ('నీ', 'U'), ('కు', '|'), ('స', '|'), ('ర', '|'), ('సి', '|'), ('జా', 'U'), ('క్షి', 'U'), ('శ్రీ', 'U'), ('ర', 'U'), ('స్తు', '|'), ('నీ', 'U'), ('కు', '|'), ('ను', '|'), ('శీ', 'U'), ('తాం', 'U'), ('శు', '|'), ('ము', '|'), ('ఖ', '|'), ('మ', '|'), ('ణి', '|'), ('క', 'U'), ('ల్యా', 'U'), ('ణ', '|'), ('మే', 'U'), ('నీ', 'U'), ('కు', '|'), ('కం', 'U'), ('బు', '|'), ('కం', 'U'), ('ఠి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నీవు కోరిన కోర్కెలు నిత్యముగను | సఫలమాయెను బోగదే సత్యభామతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>నీవు కోరిన కోర్కెలు నిత్యముగను | సఫలమాయెను బోగదే సత్యభామతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('వు', '|'), ('కో', 'U'), ('రి', '|'), ('న', '|'), ('కో', 'U'), ('ర్కె', '|'), ('లు', '|'), ('ని', 'U'), ('త్య', '|'), ('ము', '|'), ('గ', '|'), ('ను', '|'), ('స', '|'), ('ఫ', '|'), ('ల', '|'), ('మా', 'U'), ('యె', '|'), ('ను', '|'), ('బో', 'U'), ('గ', '|'), ('దే', 'U'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మ', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('నీ', 'U'), ('వే', 'U'), ('గి', '|'), ('యి', '|'), ('చ', '|'), ('టి', '|'), ('కి', '|'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('లు', '|'), ('దే', 'U'), ('గ', '|'), ('దే', 'U'), ('రా', 'U'), ('జ', '|'), ('వ', '|'), ('ద', '|'), ('న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>ఏమిరా కృష్ణ నీకెంత గర్వంబురా పిలిచిన పలుకవు పిరికితనముఆలకాపరివాడ పతిభీతితనమైన గనిపెట్టి గోవుల గాయవలదెచీకటియిండ్లలో బ్రాకులాడుచు వెన్నపాలు దావుట నీకు భయముగాదెదూరి పొరుగిండ్లలో దొంగిలి దినకుండ చోరుడవై స్త్రీల జేరదగునే</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ఏమిరా కృష్ణ నీకెంత గర్వంబురా పిలిచిన పలుకవు పిరికితనముఆలకాపరివాడ పతిభీతితనమైన గనిపెట్టి గోవుల గాయవలదెచీకటియిండ్లలో బ్రాకులాడుచు వెన్నపాలు దావుట నీకు భయముగాదెదూరి పొరుగిండ్లలో దొంగిలి దినకుండ చోరుడవై స్త్రీల జేరదగునే</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
           <t>[('ఏ', 'U'), ('మి', '|'), ('రా', 'U'), ('కృ', 'U'), ('ష్ణ', '|'), ('నీ', 'U'), ('కెం', 'U'), ('త', '|'), ('గ', 'U'), ('ర్వం', 'U'), ('బు', '|'), ('రా', 'U'), ('పి', '|'), ('లి', '|'), ('చి', '|'), ('న', '|'), ('ప', '|'), ('లు', '|'), ('క', '|'), ('వు', '|'), ('పి', '|'), ('రి', '|'), ('కి', '|'), ('త', '|'), ('న', '|'), ('ము', '|'), ('ఆ', 'U'), ('ల', '|'), ('కా', 'U'), ('ప', '|'), ('రి', '|'), ('వా', 'U'), ('డ', '|'), ('ప', '|'), ('తి', '|'), ('భీ', 'U'), ('తి', '|'), ('త', '|'), ('న', '|'), ('మై', 'U'), ('న', '|'), ('గ', '|'), ('ని', '|'), ('పె', 'U'), ('ట్టి', '|'), ('గో', 'U'), ('వు', '|'), ('ల', '|'), ('గా', 'U'), ('య', '|'), ('వ', '|'), ('ల', '|'), ('దె', '|'), ('చీ', 'U'), ('క', '|'), ('టి', '|'), ('యిం', 'U'), ('డ్ల', '|'), ('లో', 'U'), ('బ్రా', 'U'), ('కు', '|'), ('లా', 'U'), ('డు', '|'), ('చు', '|'), ('వె', 'U'), ('న్న', '|'), ('పా', 'U'), ('లు', '|'), ('దా', 'U'), ('వు', '|'), ('ట', '|'), ('నీ', 'U'), ('కు', '|'), ('భ', '|'), ('య', '|'), ('ము', '|'), ('గా', 'U'), ('దె', '|'), ('దూ', 'U'), ('రి', '|'), ('పొ', '|'), ('రు', '|'), ('గిం', 'U'), ('డ్ల', '|'), ('లో', 'U'), ('దొం', 'U'), ('గి', '|'), ('లి', '|'), ('ది', '|'), ('న', '|'), ('కుం', 'U'), ('డ', '|'), ('చో', 'U'), ('రు', '|'), ('డ', '|'), ('వై', 'U'), ('స్త్రీ', 'U'), ('ల', '|'), ('జే', 'U'), ('ర', '|'), ('ద', '|'), ('గు', '|'), ('నే', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>యింత చక్కనితనము నీ సంతసమున | గనెనె మీ తల్లి తన వరగర్భముననుతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>యింత చక్కనితనము నీ సంతసమున | గనెనె మీ తల్లి తన వరగర్భముననుతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
           <t>[('యిం', 'U'), ('త', '|'), ('చ', 'U'), ('క్క', '|'), ('ని', '|'), ('త', '|'), ('న', '|'), ('ము', '|'), ('నీ', 'U'), ('సం', 'U'), ('త', '|'), ('స', '|'), ('ము', '|'), ('న', '|'), ('గ', '|'), ('నె', '|'), ('నె', '|'), ('మీ', 'U'), ('త', 'U'), ('ల్లి', '|'), ('త', '|'), ('న', '|'), ('వ', '|'), ('ర', '|'), ('గ', 'U'), ('ర్భ', '|'), ('ము', '|'), ('న', '|'), ('ను', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('నీ', 'U'), ('వే', 'U'), ('గి', '|'), ('యి', '|'), ('చ', '|'), ('టి', '|'), ('కి', '|'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('లు', '|'), ('దే', 'U'), ('గ', '|'), ('దే', 'U'), ('రా', 'U'), ('జ', '|'), ('వ', '|'), ('ద', '|'), ('న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>పసులగాపరియంచు బలుకులాడెదవేమి నా బిరుదెఱుగవా నాతి నీవుకలికిరో నా నాభికమలమందున బ్రహ్మ చాతుర్ముఖంబుతో జననమాయెపాలకడలిని బుట్టి పద్మాక్షి బెండ్లాడి మన్మథు గంటినే మగువ నాడుఆదికాలమునా డవతారమెత్తిన మత్స్యావతారము మహిమ వినవె</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>పసులగాపరియంచు బలుకులాడెదవేమి నా బిరుదెఱుగవా నాతి నీవుకలికిరో నా నాభికమలమందున బ్రహ్మ చాతుర్ముఖంబుతో జననమాయెపాలకడలిని బుట్టి పద్మాక్షి బెండ్లాడి మన్మథు గంటినే మగువ నాడుఆదికాలమునా డవతారమెత్తిన మత్స్యావతారము మహిమ వినవె</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('సు', '|'), ('ల', '|'), ('గా', 'U'), ('ప', '|'), ('రి', '|'), ('యం', 'U'), ('చు', '|'), ('బ', '|'), ('లు', '|'), ('కు', '|'), ('లా', 'U'), ('డె', '|'), ('ద', '|'), ('వే', 'U'), ('మి', '|'), ('నా', 'U'), ('బి', '|'), ('రు', '|'), ('దె', '|'), ('ఱు', '|'), ('గ', '|'), ('వా', 'U'), ('నా', 'U'), ('తి', '|'), ('నీ', 'U'), ('వు', '|'), ('క', '|'), ('లి', '|'), ('కి', '|'), ('రో', 'U'), ('నా', 'U'), ('నా', 'U'), ('భి', '|'), ('క', '|'), ('మ', '|'), ('ల', '|'), ('మం', 'U'), ('దు', '|'), ('న', 'U'), ('బ్ర', 'U'), ('హ్మ', '|'), ('చా', 'U'), ('తు', '|'), ('ర్ము', '|'), ('ఖం', 'U'), ('బు', '|'), ('తో', 'U'), ('జ', '|'), ('న', '|'), ('న', '|'), ('మా', 'U'), ('యె', '|'), ('పా', 'U'), ('ల', '|'), ('క', '|'), ('డ', '|'), ('లి', '|'), ('ని', '|'), ('బు', 'U'), ('ట్టి', '|'), ('ప', 'U'), ('ద్మా', 'U'), ('క్షి', '|'), ('బెం', 'U'), ('డ్లా', 'U'), ('డి', '|'), ('మ', 'U'), ('న్మ', '|'), ('థు', '|'), ('గం', 'U'), ('టి', '|'), ('నే', 'U'), ('మ', '|'), ('గు', '|'), ('వ', '|'), ('నా', 'U'), ('డు', '|'), ('ఆ', 'U'), ('ది', '|'), ('కా', 'U'), ('ల', '|'), ('ము', '|'), ('నా', 'U'), ('డ', '|'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('మె', 'U'), ('త్తి', '|'), ('న', '|'), ('మ', 'U'), ('త్స్యా', 'U'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('ము', '|'), ('మ', '|'), ('హి', '|'), ('మ', '|'), ('వి', '|'), ('న', '|'), ('వె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>యుగయుగంబుల పలువిధముగ జనించు- | వాడనని నీవెఱుంగవె వనిత పోవేతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>యుగయుగంబుల పలువిధముగ జనించు- | వాడనని నీవెఱుంగవె వనిత పోవేతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
           <t>[('యు', '|'), ('గ', '|'), ('యు', '|'), ('గం', 'U'), ('బు', '|'), ('ల', '|'), ('ప', '|'), ('లు', '|'), ('వి', '|'), ('ధ', '|'), ('ము', '|'), ('గ', '|'), ('జ', '|'), ('నిం', 'U'), ('చు', '|'), ('వా', 'U'), ('డ', '|'), ('న', '|'), ('ని', '|'), ('నీ', 'U'), ('వె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('వె', '|'), ('వ', '|'), ('ని', '|'), ('త', '|'), ('పో', 'U'), ('వే', 'U'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('నీ', 'U'), ('వే', 'U'), ('గి', '|'), ('యి', '|'), ('చ', '|'), ('టి', '|'), ('కి', '|'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('లు', '|'), ('దే', 'U'), ('గ', '|'), ('దే', 'U'), ('రా', 'U'), ('జ', '|'), ('వ', '|'), ('ద', '|'), ('న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>మత్స్యావతారమై మడుగులో జొచ్చియు జేపవై పుట్టుట జన్మమేమికుటిలబుద్ధిని నీవు కూర్మావతారమై తాబేలవైనది తప్పుగాదెవరహావతారమై వాంఛ పడితివిగాని యతినీచమనుచు నెఱిగినావయావెన్క నారసింహావతారంబెత్తి మఱుగుజ్జువాడవై మల్లినావు</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>మత్స్యావతారమై మడుగులో జొచ్చియు జేపవై పుట్టుట జన్మమేమికుటిలబుద్ధిని నీవు కూర్మావతారమై తాబేలవైనది తప్పుగాదెవరహావతారమై వాంఛ పడితివిగాని యతినీచమనుచు నెఱిగినావయావెన్క నారసింహావతారంబెత్తి మఱుగుజ్జువాడవై మల్లినావు</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
           <t>[('మ', 'U'), ('త్స్యా', 'U'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('మై', 'U'), ('మ', '|'), ('డు', '|'), ('గు', '|'), ('లో', 'U'), ('జొ', 'U'), ('చ్చి', '|'), ('యు', '|'), ('జే', 'U'), ('ప', '|'), ('వై', 'U'), ('పు', 'U'), ('ట్టు', '|'), ('ట', '|'), ('జ', 'U'), ('న్మ', '|'), ('మే', 'U'), ('మి', '|'), ('కు', '|'), ('టి', '|'), ('ల', '|'), ('బు', 'U'), ('ద్ధి', '|'), ('ని', '|'), ('నీ', 'U'), ('వు', '|'), ('కూ', 'U'), ('ర్మా', 'U'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('మై', 'U'), ('తా', 'U'), ('బే', 'U'), ('ల', '|'), ('వై', 'U'), ('న', '|'), ('ది', '|'), ('త', 'U'), ('ప్పు', '|'), ('గా', 'U'), ('దె', '|'), ('వ', '|'), ('ర', '|'), ('హా', 'U'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('మై', 'U'), ('వాం', 'U'), ('ఛ', '|'), ('ప', '|'), ('డి', '|'), ('తి', '|'), ('వి', '|'), ('గా', 'U'), ('ని', '|'), ('య', '|'), ('తి', '|'), ('నీ', 'U'), ('చ', '|'), ('మ', '|'), ('ను', '|'), ('చు', '|'), ('నె', '|'), ('ఱి', '|'), ('గి', '|'), ('నా', 'U'), ('వ', '|'), ('యా', 'U'), ('వె', 'U'), ('న్క', '|'), ('నా', 'U'), ('ర', '|'), ('సిం', 'U'), ('హా', 'U'), ('వ', '|'), ('తా', 'U'), ('రం', 'U'), ('బె', 'U'), ('త్తి', '|'), ('మ', '|'), ('ఱు', '|'), ('గు', 'U'), ('జ్జు', '|'), ('వా', 'U'), ('డ', '|'), ('వై', 'U'), ('మ', 'U'), ('ల్లి', '|'), ('నా', 'U'), ('వు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>వేషధారికి యా బ్రహ్మ వెఱ్ఱియగుచు | గూర్చినందుకు నేమనుకొందునింకతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>వేషధారికి యా బ్రహ్మ వెఱ్ఱియగుచు | గూర్చినందుకు నేమనుకొందునింకతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
           <t>[('వే', 'U'), ('ష', '|'), ('ధా', 'U'), ('రి', '|'), ('కి', '|'), ('యా', 'U'), ('బ్ర', 'U'), ('హ్మ', '|'), ('వె', 'U'), ('ఱ్ఱి', '|'), ('య', '|'), ('గు', '|'), ('చు', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('నం', 'U'), ('దు', '|'), ('కు', '|'), ('నే', 'U'), ('మ', '|'), ('ను', '|'), ('కొం', 'U'), ('దు', '|'), ('నిం', 'U'), ('క', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('నీ', 'U'), ('వే', 'U'), ('గి', '|'), ('యి', '|'), ('చ', '|'), ('టి', '|'), ('కి', '|'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('లు', '|'), ('దే', 'U'), ('గ', '|'), ('దే', 'U'), ('రా', 'U'), ('జ', '|'), ('వ', '|'), ('ద', '|'), ('న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>అర్జునుకోసమై యవతారమెత్తిన కృష్ణావతారంబు గుణము వినుమువాయుపుత్రునితోడ వాదించి యర్జును డంపశయనము గట్టినట్టినప్పు-డా విల్లుజెడకున్న నా క్షణంబునను దా గేరుచు హనుమంతు గూల్చినాడుపదునొకండక్షోహిణి బలముల జంపించి యర్జును గాచితి నతివ నాడు</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>అర్జునుకోసమై యవతారమెత్తిన కృష్ణావతారంబు గుణము వినుమువాయుపుత్రునితోడ వాదించి యర్జును డంపశయనము గట్టినట్టినప్పు-డా విల్లుజెడకున్న నా క్షణంబునను దా గేరుచు హనుమంతు గూల్చినాడుపదునొకండక్షోహిణి బలముల జంపించి యర్జును గాచితి నతివ నాడు</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
           <t>[('అ', 'U'), ('ర్జు', '|'), ('ను', '|'), ('కో', 'U'), ('స', '|'), ('మై', 'U'), ('య', '|'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('మె', 'U'), ('త్తి', '|'), ('న', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('వ', '|'), ('తా', 'U'), ('రం', 'U'), ('బు', '|'), ('గు', '|'), ('ణ', '|'), ('ము', '|'), ('వి', '|'), ('ను', '|'), ('ము', '|'), ('వా', 'U'), ('యు', '|'), ('పు', 'U'), ('త్రు', '|'), ('ని', '|'), ('తో', 'U'), ('డ', '|'), ('వా', 'U'), ('దిం', 'U'), ('చి', '|'), ('య', 'U'), ('ర్జు', '|'), ('ను', '|'), ('డం', 'U'), ('ప', '|'), ('శ', '|'), ('య', '|'), ('న', '|'), ('ము', '|'), ('గ', 'U'), ('ట్టి', '|'), ('న', 'U'), ('ట్టి', '|'), ('న', 'U'), ('ప్పు', '|'), ('డా', 'U'), ('వి', 'U'), ('ల్లు', '|'), ('జె', '|'), ('డ', '|'), ('కు', 'U'), ('న్న', '|'), ('నా', 'U'), ('క్ష', '|'), ('ణం', 'U'), ('బు', '|'), ('న', '|'), ('ను', '|'), ('దా', 'U'), ('గే', 'U'), ('రు', '|'), ('చు', '|'), ('హ', '|'), ('ను', '|'), ('మం', 'U'), ('తు', '|'), ('గూ', 'U'), ('ల్చి', '|'), ('నా', 'U'), ('డు', '|'), ('ప', '|'), ('దు', '|'), ('నొ', '|'), ('కం', 'U'), ('డ', 'U'), ('క్షో', 'U'), ('హి', '|'), ('ణి', '|'), ('బ', '|'), ('ల', '|'), ('ము', '|'), ('ల', '|'), ('జం', 'U'), ('పిం', 'U'), ('చి', '|'), ('య', 'U'), ('ర్జు', '|'), ('ను', '|'), ('గా', 'U'), ('చి', '|'), ('తి', '|'), ('న', '|'), ('తి', '|'), ('వ', '|'), ('నా', 'U'), ('డు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>ధరణిలోపల నా విల్లు విఱుగనీక | పట్టి బరువును నాపైని బెట్టుకొంటితరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>ధరణిలోపల నా విల్లు విఱుగనీక | పట్టి బరువును నాపైని బెట్టుకొంటితరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
           <t>[('ధ', '|'), ('ర', '|'), ('ణి', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('నా', 'U'), ('వి', 'U'), ('ల్లు', '|'), ('వి', '|'), ('ఱు', '|'), ('గ', '|'), ('నీ', 'U'), ('క', '|'), ('ప', 'U'), ('ట్టి', '|'), ('బ', '|'), ('రు', '|'), ('వు', '|'), ('ను', '|'), ('నా', 'U'), ('పై', 'U'), ('ని', '|'), ('బె', 'U'), ('ట్టు', '|'), ('కొం', 'U'), ('టి', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('నీ', 'U'), ('వే', 'U'), ('గి', '|'), ('యి', '|'), ('చ', '|'), ('టి', '|'), ('కి', '|'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('లు', '|'), ('దే', 'U'), ('గ', '|'), ('దే', 'U'), ('రా', 'U'), ('జ', '|'), ('వ', '|'), ('ద', '|'), ('న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>వాదించుచును నీవు వద్దను గూర్చుండి తగులాట బెట్టుట తగవుగాదువారు వీరనుకొన్న వట్టిమాటలగూర్చి చాడీలు చెప్పుట సమముగాదుచిన్నవాడవుగాదు తన్నులాడించను బాల్యమా యిది నీకు బాగుగాదుపదియేండ్లలోపల బాలుడవై యుండి గోవర్ధనాద్రిని గొడుగుగాను</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>వాదించుచును నీవు వద్దను గూర్చుండి తగులాట బెట్టుట తగవుగాదువారు వీరనుకొన్న వట్టిమాటలగూర్చి చాడీలు చెప్పుట సమముగాదుచిన్నవాడవుగాదు తన్నులాడించను బాల్యమా యిది నీకు బాగుగాదుపదియేండ్లలోపల బాలుడవై యుండి గోవర్ధనాద్రిని గొడుగుగాను</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
           <t>[('వా', 'U'), ('దిం', 'U'), ('చు', '|'), ('చు', '|'), ('ను', '|'), ('నీ', 'U'), ('వు', '|'), ('వ', 'U'), ('ద్ద', '|'), ('ను', '|'), ('గూ', 'U'), ('ర్చుం', 'U'), ('డి', '|'), ('త', '|'), ('గు', '|'), ('లా', 'U'), ('ట', '|'), ('బె', 'U'), ('ట్టు', '|'), ('ట', '|'), ('త', '|'), ('గ', '|'), ('వు', '|'), ('గా', 'U'), ('దు', '|'), ('వా', 'U'), ('రు', '|'), ('వీ', 'U'), ('ర', '|'), ('ను', '|'), ('కొ', 'U'), ('న్న', '|'), ('వ', 'U'), ('ట్టి', '|'), ('మా', 'U'), ('ట', '|'), ('ల', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('చా', 'U'), ('డీ', 'U'), ('లు', '|'), ('చె', 'U'), ('ప్పు', '|'), ('ట', '|'), ('స', '|'), ('మ', '|'), ('ము', '|'), ('గా', 'U'), ('దు', '|'), ('చి', 'U'), ('న్న', '|'), ('వా', 'U'), ('డ', '|'), ('వు', '|'), ('గా', 'U'), ('దు', '|'), ('త', 'U'), ('న్ను', '|'), ('లా', 'U'), ('డిం', 'U'), ('చ', '|'), ('ను', '|'), ('బా', 'U'), ('ల్య', '|'), ('మా', 'U'), ('యి', '|'), ('ది', '|'), ('నీ', 'U'), ('కు', '|'), ('బా', 'U'), ('గు', '|'), ('గా', 'U'), ('దు', '|'), ('ప', '|'), ('ది', '|'), ('యేం', 'U'), ('డ్ల', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('బా', 'U'), ('లు', '|'), ('డ', '|'), ('వై', 'U'), ('యుం', 'U'), ('డి', '|'), ('గో', 'U'), ('వ', 'U'), ('ర్ధ', '|'), ('నా', 'U'), ('ద్రి', '|'), ('ని', '|'), ('గొ', '|'), ('డు', '|'), ('గు', '|'), ('గా', 'U'), ('ను', '|')]</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>బట్టి గోగోపకుల వెతల్పెట్టినావు | సురవరుడు ఱాళ్ళవానను గురియు తరినితరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>బట్టి గోగోపకుల వెతల్పెట్టినావు | సురవరుడు ఱాళ్ళవానను గురియు తరినితరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
           <t>[('బ', 'U'), ('ట్టి', '|'), ('గో', 'U'), ('గో', 'U'), ('ప', '|'), ('కు', '|'), ('ల', '|'), ('వె', '|'), ('త', 'U'), ('ల్పె', 'U'), ('ట్టి', '|'), ('నా', 'U'), ('వు', '|'), ('సు', '|'), ('ర', '|'), ('వ', '|'), ('రు', '|'), ('డు', '|'), ('ఱా', 'U'), ('ళ్ళ', '|'), ('వా', 'U'), ('న', '|'), ('ను', '|'), ('గు', '|'), ('రి', '|'), ('యు', '|'), ('త', '|'), ('రి', '|'), ('ని', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('నీ', 'U'), ('వే', 'U'), ('గి', '|'), ('యి', '|'), ('చ', '|'), ('టి', '|'), ('కి', '|'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('లు', '|'), ('దే', 'U'), ('గ', '|'), ('దే', 'U'), ('రా', 'U'), ('జ', '|'), ('వ', '|'), ('ద', '|'), ('న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>అంబుజాక్షిరో వామనావతారుండనై బలిచక్రవర్తిని బాధలిడగబూని మూడడుగుల భూమి నే నడుగగ నతడు గైకొమ్మని యంబువోయభూమి నాకాశంబు బొత్తిగా గొలిచిన బాదద్వయంబయ్యె బడతి నాకుమూడవ పాదంబు మోపు చోటేదన భీతిల్లి తన నెత్తి బెట్టుమనియె</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>అంబుజాక్షిరో వామనావతారుండనై బలిచక్రవర్తిని బాధలిడగబూని మూడడుగుల భూమి నే నడుగగ నతడు గైకొమ్మని యంబువోయభూమి నాకాశంబు బొత్తిగా గొలిచిన బాదద్వయంబయ్యె బడతి నాకుమూడవ పాదంబు మోపు చోటేదన భీతిల్లి తన నెత్తి బెట్టుమనియె</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
           <t>[('అం', 'U'), ('బు', '|'), ('జా', 'U'), ('క్షి', '|'), ('రో', 'U'), ('వా', 'U'), ('మ', '|'), ('నా', 'U'), ('వ', '|'), ('తా', 'U'), ('రుం', 'U'), ('డ', '|'), ('నై', 'U'), ('బ', '|'), ('లి', '|'), ('చ', 'U'), ('క్ర', '|'), ('వ', 'U'), ('ర్తి', '|'), ('ని', '|'), ('బా', 'U'), ('ధ', '|'), ('లి', '|'), ('డ', '|'), ('గ', '|'), ('బూ', 'U'), ('ని', '|'), ('మూ', 'U'), ('డ', '|'), ('డు', '|'), ('గు', '|'), ('ల', '|'), ('భూ', 'U'), ('మి', '|'), ('నే', 'U'), ('న', '|'), ('డు', '|'), ('గ', '|'), ('గ', '|'), ('న', '|'), ('త', '|'), ('డు', '|'), ('గై', 'U'), ('కొ', 'U'), ('మ్మ', '|'), ('ని', '|'), ('యం', 'U'), ('బు', '|'), ('వో', 'U'), ('య', '|'), ('భూ', 'U'), ('మి', '|'), ('నా', 'U'), ('కా', 'U'), ('శం', 'U'), ('బు', '|'), ('బొ', 'U'), ('త్తి', '|'), ('గా', 'U'), ('గొ', '|'), ('లి', '|'), ('చి', '|'), ('న', '|'), ('బా', 'U'), ('ద', 'U'), ('ద్వ', '|'), ('యం', 'U'), ('బ', 'U'), ('య్యె', '|'), ('బ', '|'), ('డ', '|'), ('తి', '|'), ('నా', 'U'), ('కు', '|'), ('మూ', 'U'), ('డ', '|'), ('వ', '|'), ('పా', 'U'), ('దం', 'U'), ('బు', '|'), ('మో', 'U'), ('పు', '|'), ('చో', 'U'), ('టే', 'U'), ('ద', '|'), ('న', '|'), ('భీ', 'U'), ('తి', 'U'), ('ల్లి', '|'), ('త', '|'), ('న', '|'), ('నె', 'U'), ('త్తి', '|'), ('బె', 'U'), ('ట్టు', '|'), ('మ', '|'), ('ని', '|'), ('యె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నంత నాతని నే బట్టి యడగదొక్కి | తిరిగి యవతారమున మల్లి దేలినానుతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>నంత నాతని నే బట్టి యడగదొక్కి | తిరిగి యవతారమున మల్లి దేలినానుతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
           <t>[('నం', 'U'), ('త', '|'), ('నా', 'U'), ('త', '|'), ('ని', '|'), ('నే', 'U'), ('బ', 'U'), ('ట్టి', '|'), ('య', '|'), ('డ', '|'), ('గ', '|'), ('దొ', 'U'), ('క్కి', '|'), ('తి', '|'), ('రి', '|'), ('గి', '|'), ('య', '|'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('మ', 'U'), ('ల్లి', '|'), ('దే', 'U'), ('లి', '|'), ('నా', 'U'), ('ను', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('నీ', 'U'), ('వే', 'U'), ('గి', '|'), ('యి', '|'), ('చ', '|'), ('టి', '|'), ('కి', '|'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('లు', '|'), ('దే', 'U'), ('గ', '|'), ('దే', 'U'), ('రా', 'U'), ('జ', '|'), ('వ', '|'), ('ద', '|'), ('న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>అవతారమెత్తుచు హతము సేయుటగాని గొనసాగనీయవు గొల్లబిరుదువంచించి మరి గొల్లవారల నందఱ చిక్కుబెట్టుచు నీవు చెలగినావుబలిచక్రవర్తిని బంధించితివిగాని పాపమెఱుంగవు పడుచవగుచుసుఖము నెరుంగగా సూటివౌదువెకాని బిరుదైన చక్కని పేరు గనవు</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>అవతారమెత్తుచు హతము సేయుటగాని గొనసాగనీయవు గొల్లబిరుదువంచించి మరి గొల్లవారల నందఱ చిక్కుబెట్టుచు నీవు చెలగినావుబలిచక్రవర్తిని బంధించితివిగాని పాపమెఱుంగవు పడుచవగుచుసుఖము నెరుంగగా సూటివౌదువెకాని బిరుదైన చక్కని పేరు గనవు</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('మె', 'U'), ('త్తు', '|'), ('చు', '|'), ('హ', '|'), ('త', '|'), ('ము', '|'), ('సే', 'U'), ('యు', '|'), ('ట', '|'), ('గా', 'U'), ('ని', '|'), ('గొ', '|'), ('న', '|'), ('సా', 'U'), ('గ', '|'), ('నీ', 'U'), ('య', '|'), ('వు', '|'), ('గొ', 'U'), ('ల్ల', '|'), ('బి', '|'), ('రు', '|'), ('దు', '|'), ('వం', 'U'), ('చిం', 'U'), ('చి', '|'), ('మ', '|'), ('రి', '|'), ('గొ', 'U'), ('ల్ల', '|'), ('వా', 'U'), ('ర', '|'), ('ల', '|'), ('నం', 'U'), ('ద', '|'), ('ఱ', '|'), ('చి', 'U'), ('క్కు', '|'), ('బె', 'U'), ('ట్టు', '|'), ('చు', '|'), ('నీ', 'U'), ('వు', '|'), ('చె', '|'), ('ల', '|'), ('గి', '|'), ('నా', 'U'), ('వు', '|'), ('బ', '|'), ('లి', '|'), ('చ', 'U'), ('క్ర', '|'), ('వ', 'U'), ('ర్తి', '|'), ('ని', '|'), ('బం', 'U'), ('ధిం', 'U'), ('చి', '|'), ('తి', '|'), ('వి', '|'), ('గా', 'U'), ('ని', '|'), ('పా', 'U'), ('ప', '|'), ('మె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('వు', '|'), ('ప', '|'), ('డు', '|'), ('చ', '|'), ('వ', '|'), ('గు', '|'), ('చు', '|'), ('సు', '|'), ('ఖ', '|'), ('ము', '|'), ('నె', '|'), ('రుం', 'U'), ('గ', '|'), ('గా', 'U'), ('సూ', 'U'), ('టి', '|'), ('వౌ', 'U'), ('దు', '|'), ('వె', '|'), ('కా', 'U'), ('ని', '|'), ('బి', '|'), ('రు', '|'), ('దై', 'U'), ('న', '|'), ('చ', 'U'), ('క్క', '|'), ('ని', '|'), ('పే', 'U'), ('రు', '|'), ('గ', '|'), ('న', '|'), ('వు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>మర్మమొచ్చిన యీలాగు మంచిఘనులు | సంహరించుట సరసమా సమరసమునతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>మర్మమొచ్చిన యీలాగు మంచిఘనులు | సంహరించుట సరసమా సమరసమునతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('ర్మ', '|'), ('మొ', 'U'), ('చ్చి', '|'), ('న', '|'), ('యీ', 'U'), ('లా', 'U'), ('గు', '|'), ('మం', 'U'), ('చి', '|'), ('ఘ', '|'), ('ను', '|'), ('లు', '|'), ('సం', 'U'), ('హ', '|'), ('రిం', 'U'), ('చు', '|'), ('ట', '|'), ('స', '|'), ('ర', '|'), ('స', '|'), ('మా', 'U'), ('స', '|'), ('మ', '|'), ('ర', '|'), ('స', '|'), ('ము', '|'), ('న', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('నీ', 'U'), ('వే', 'U'), ('గి', '|'), ('యి', '|'), ('చ', '|'), ('టి', '|'), ('కి', '|'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('లు', '|'), ('దే', 'U'), ('గ', '|'), ('దే', 'U'), ('రా', 'U'), ('జ', '|'), ('వ', '|'), ('ద', '|'), ('న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>సూర్యవంశమునందు శూరుడై వెలసిన దశరథరాజుకు దనయుడైతిగౌసల్య నన్నును గర్భంబులో మోసి గన్నది మరి దైవఘటనచేతభరతశత్రుఘ్నులు పరగంగ లక్ష్మణు లనుజులు దొడ్డవా రవని గలరురహి లంకలోనున్న రావణాసురు గెల్వ రాజెవ్వడును లేడు రాజ్యమందు</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>సూర్యవంశమునందు శూరుడై వెలసిన దశరథరాజుకు దనయుడైతిగౌసల్య నన్నును గర్భంబులో మోసి గన్నది మరి దైవఘటనచేతభరతశత్రుఘ్నులు పరగంగ లక్ష్మణు లనుజులు దొడ్డవా రవని గలరురహి లంకలోనున్న రావణాసురు గెల్వ రాజెవ్వడును లేడు రాజ్యమందు</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
           <t>[('సూ', 'U'), ('ర్య', '|'), ('వం', 'U'), ('శ', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('శూ', 'U'), ('రు', '|'), ('డై', 'U'), ('వె', '|'), ('ల', '|'), ('సి', '|'), ('న', '|'), ('ద', '|'), ('శ', '|'), ('ర', '|'), ('థ', '|'), ('రా', 'U'), ('జు', '|'), ('కు', '|'), ('ద', '|'), ('న', '|'), ('యు', '|'), ('డై', 'U'), ('తి', '|'), ('గౌ', 'U'), ('స', 'U'), ('ల్య', '|'), ('న', 'U'), ('న్ను', '|'), ('ను', '|'), ('గ', 'U'), ('ర్భం', 'U'), ('బు', '|'), ('లో', 'U'), ('మో', 'U'), ('సి', '|'), ('గ', 'U'), ('న్న', '|'), ('ది', '|'), ('మ', '|'), ('రి', '|'), ('దై', 'U'), ('వ', '|'), ('ఘ', '|'), ('ట', '|'), ('న', '|'), ('చే', 'U'), ('త', '|'), ('భ', '|'), ('ర', '|'), ('త', '|'), ('శ', 'U'), ('త్రు', 'U'), ('ఘ్ను', '|'), ('లు', '|'), ('ప', '|'), ('ర', '|'), ('గం', 'U'), ('గ', '|'), ('ల', 'U'), ('క్ష్మ', '|'), ('ణు', '|'), ('ల', '|'), ('ను', '|'), ('జు', '|'), ('లు', '|'), ('దొ', 'U'), ('డ్డ', '|'), ('వా', 'U'), ('ర', '|'), ('వ', '|'), ('ని', '|'), ('గ', '|'), ('ల', '|'), ('రు', '|'), ('ర', '|'), ('హి', '|'), ('లం', 'U'), ('క', '|'), ('లో', 'U'), ('ను', 'U'), ('న్న', '|'), ('రా', 'U'), ('వ', '|'), ('ణా', 'U'), ('సు', '|'), ('రు', '|'), ('గె', 'U'), ('ల్వ', '|'), ('రా', 'U'), ('జె', 'U'), ('వ్వ', '|'), ('డు', '|'), ('ను', '|'), ('లే', 'U'), ('డు', '|'), ('రా', 'U'), ('జ్య', '|'), ('మం', 'U'), ('దు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నందుకోసము నే వచ్చి యవతరించి | సిరుల వరలితి నిక వేయి జెప్పనేలతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>నందుకోసము నే వచ్చి యవతరించి | సిరుల వరలితి నిక వేయి జెప్పనేలతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
           <t>[('నం', 'U'), ('దు', '|'), ('కో', 'U'), ('స', '|'), ('ము', '|'), ('నే', 'U'), ('వ', 'U'), ('చ్చి', '|'), ('య', '|'), ('వ', '|'), ('త', '|'), ('రిం', 'U'), ('చి', '|'), ('సి', '|'), ('రు', '|'), ('ల', '|'), ('వ', '|'), ('ర', '|'), ('లి', '|'), ('తి', '|'), ('ని', '|'), ('క', '|'), ('వే', 'U'), ('యి', '|'), ('జె', 'U'), ('ప్ప', '|'), ('నే', 'U'), ('ల', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('నీ', 'U'), ('వే', 'U'), ('గి', '|'), ('యి', '|'), ('చ', '|'), ('టి', '|'), ('కి', '|'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('లు', '|'), ('దే', 'U'), ('గ', '|'), ('దే', 'U'), ('రా', 'U'), ('జ', '|'), ('వ', '|'), ('ద', '|'), ('న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>ఎనమండ్రు పట్టపుటింతుల విడనాడి నలినాక్ష విరహివైనావు గావపదియారువేల యా పడతులకోసమై నరకాసురుని గొట్టినావు గావభూపతివై పుట్టి బోరజొచ్చితిగాని యాద్యవతారమై యలరినావమకరిని చాటున మదమడంచితిగాని సమముగా జగడము సలిపినావ</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>ఎనమండ్రు పట్టపుటింతుల విడనాడి నలినాక్ష విరహివైనావు గావపదియారువేల యా పడతులకోసమై నరకాసురుని గొట్టినావు గావభూపతివై పుట్టి బోరజొచ్చితిగాని యాద్యవతారమై యలరినావమకరిని చాటున మదమడంచితిగాని సమముగా జగడము సలిపినావ</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
           <t>[('ఎ', '|'), ('న', '|'), ('మం', 'U'), ('డ్రు', '|'), ('ప', 'U'), ('ట్ట', '|'), ('పు', '|'), ('టిం', 'U'), ('తు', '|'), ('ల', '|'), ('వి', '|'), ('డ', '|'), ('నా', 'U'), ('డి', '|'), ('న', '|'), ('లి', '|'), ('నా', 'U'), ('క్ష', '|'), ('వి', '|'), ('ర', '|'), ('హి', '|'), ('వై', 'U'), ('నా', 'U'), ('వు', '|'), ('గా', 'U'), ('వ', '|'), ('ప', '|'), ('ది', '|'), ('యా', 'U'), ('రు', '|'), ('వే', 'U'), ('ల', '|'), ('యా', 'U'), ('ప', '|'), ('డ', '|'), ('తు', '|'), ('ల', '|'), ('కో', 'U'), ('స', '|'), ('మై', 'U'), ('న', '|'), ('ర', '|'), ('కా', 'U'), ('సు', '|'), ('రు', '|'), ('ని', '|'), ('గొ', 'U'), ('ట్టి', '|'), ('నా', 'U'), ('వు', '|'), ('గా', 'U'), ('వ', '|'), ('భూ', 'U'), ('ప', '|'), ('తి', '|'), ('వై', 'U'), ('పు', 'U'), ('ట్టి', '|'), ('బో', 'U'), ('ర', '|'), ('జొ', 'U'), ('చ్చి', '|'), ('తి', '|'), ('గా', 'U'), ('ని', '|'), ('యా', 'U'), ('ద్య', '|'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('మై', 'U'), ('య', '|'), ('ల', '|'), ('రి', '|'), ('నా', 'U'), ('వ', '|'), ('మ', '|'), ('క', '|'), ('రి', '|'), ('ని', '|'), ('చా', 'U'), ('టు', '|'), ('న', '|'), ('మ', '|'), ('ద', '|'), ('మ', '|'), ('డం', 'U'), ('చి', '|'), ('తి', '|'), ('గా', 'U'), ('ని', '|'), ('స', '|'), ('మ', '|'), ('ము', '|'), ('గా', 'U'), ('జ', '|'), ('గ', '|'), ('డ', '|'), ('ము', '|'), ('స', '|'), ('లి', '|'), ('పి', '|'), ('నా', 'U'), ('వ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>చోరుడై వచ్చి యీపాటి ధీరవరుల | గొట్టవచ్చునె పదికోట్ల గుంపులోనతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>చోరుడై వచ్చి యీపాటి ధీరవరుల | గొట్టవచ్చునె పదికోట్ల గుంపులోనతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
           <t>[('చో', 'U'), ('రు', '|'), ('డై', 'U'), ('వ', 'U'), ('చ్చి', '|'), ('యీ', 'U'), ('పా', 'U'), ('టి', '|'), ('ధీ', 'U'), ('ర', '|'), ('వ', '|'), ('రు', '|'), ('ల', '|'), ('గొ', 'U'), ('ట్ట', '|'), ('వ', 'U'), ('చ్చు', '|'), ('నె', '|'), ('ప', '|'), ('ది', '|'), ('కో', 'U'), ('ట్ల', '|'), ('గుం', 'U'), ('పు', '|'), ('లో', 'U'), ('న', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('నీ', 'U'), ('వే', 'U'), ('గి', '|'), ('యి', '|'), ('చ', '|'), ('టి', '|'), ('కి', '|'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('లు', '|'), ('దే', 'U'), ('గ', '|'), ('దే', 'U'), ('రా', 'U'), ('జ', '|'), ('వ', '|'), ('ద', '|'), ('న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>జనకుడన్ బహుశాంతశాలి సముఖమ్మున విఱువరానట్టి విల్విరచినానుయవనిపుత్రిక సీత నతివేగముగ నేను గెల్చుకొంటిని భూమికీర్తికొఱకుజోడుగా భూపుత్రికూడ వేడుక లలరంగ నయ్యోధ్యాపురంబు జేరితల్లిదండ్రుల నన్నదమ్ముల మెలగుచు రారాజునైతి నో రమణి నేను</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>జనకుడన్ బహుశాంతశాలి సముఖమ్మున విఱువరానట్టి విల్విరచినానుయవనిపుత్రిక సీత నతివేగముగ నేను గెల్చుకొంటిని భూమికీర్తికొఱకుజోడుగా భూపుత్రికూడ వేడుక లలరంగ నయ్యోధ్యాపురంబు జేరితల్లిదండ్రుల నన్నదమ్ముల మెలగుచు రారాజునైతి నో రమణి నేను</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
           <t>[('జ', '|'), ('న', '|'), ('కు', '|'), ('డన్', 'U'), ('బ', '|'), ('హు', '|'), ('శాం', 'U'), ('త', '|'), ('శా', 'U'), ('లి', '|'), ('స', '|'), ('ము', '|'), ('ఖ', 'U'), ('మ్ము', '|'), ('న', '|'), ('వి', '|'), ('ఱు', '|'), ('వ', '|'), ('రా', 'U'), ('న', 'U'), ('ట్టి', '|'), ('వి', 'U'), ('ల్వి', '|'), ('ర', '|'), ('చి', '|'), ('నా', 'U'), ('ను', '|'), ('య', '|'), ('వ', '|'), ('ని', '|'), ('పు', 'U'), ('త్రి', '|'), ('క', '|'), ('సీ', 'U'), ('త', '|'), ('న', '|'), ('తి', '|'), ('వే', 'U'), ('గ', '|'), ('ము', '|'), ('గ', '|'), ('నే', 'U'), ('ను', '|'), ('గె', 'U'), ('ల్చు', '|'), ('కొం', 'U'), ('టి', '|'), ('ని', '|'), ('భూ', 'U'), ('మి', '|'), ('కీ', 'U'), ('ర్తి', '|'), ('కొ', '|'), ('ఱ', '|'), ('కు', '|'), ('జో', 'U'), ('డు', '|'), ('గా', 'U'), ('భూ', 'U'), ('పు', 'U'), ('త్రి', '|'), ('కూ', 'U'), ('డ', '|'), ('వే', 'U'), ('డు', '|'), ('క', '|'), ('ల', '|'), ('ల', '|'), ('రం', 'U'), ('గ', '|'), ('న', 'U'), ('య్యో', 'U'), ('ధ్యా', 'U'), ('పు', '|'), ('రం', 'U'), ('బు', '|'), ('జే', 'U'), ('రి', '|'), ('త', 'U'), ('ల్లి', '|'), ('దం', 'U'), ('డ్రు', '|'), ('ల', '|'), ('న', 'U'), ('న్న', '|'), ('ద', 'U'), ('మ్ము', '|'), ('ల', '|'), ('మె', '|'), ('ల', '|'), ('గు', '|'), ('చు', '|'), ('రా', 'U'), ('రా', 'U'), ('జు', '|'), ('నై', 'U'), ('తి', '|'), ('నో', 'U'), ('ర', '|'), ('మ', '|'), ('ణి', '|'), ('నే', 'U'), ('ను', '|')]</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>సుదతి యీవేళ నన్నింత చుల్కచేసి | మాటలాడుట యిది నీకు మంచిదటనేతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>సుదతి యీవేళ నన్నింత చుల్కచేసి | మాటలాడుట యిది నీకు మంచిదటనేతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
           <t>[('సు', '|'), ('ద', '|'), ('తి', '|'), ('యీ', 'U'), ('వే', 'U'), ('ళ', '|'), ('న', 'U'), ('న్నిం', 'U'), ('త', '|'), ('చు', 'U'), ('ల్క', '|'), ('చే', 'U'), ('సి', '|'), ('మా', 'U'), ('ట', '|'), ('లా', 'U'), ('డు', '|'), ('ట', '|'), ('యి', '|'), ('ది', '|'), ('నీ', 'U'), ('కు', '|'), ('మం', 'U'), ('చి', '|'), ('ద', '|'), ('ట', '|'), ('నే', 'U'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('నీ', 'U'), ('వే', 'U'), ('గి', '|'), ('యి', '|'), ('చ', '|'), ('టి', '|'), ('కి', '|'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('లు', '|'), ('దే', 'U'), ('గ', '|'), ('దే', 'U'), ('రా', 'U'), ('జ', '|'), ('వ', '|'), ('ద', '|'), ('న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>రహి లక్ష్మణుండను రాజును గాపిడి సీతను చెరసాల చేసివావుమారీచుడని నీవు మర్మంబుగానక గాసిల్ల నమ్మున నేసినావుహా లక్ష్మణా యని యా మృగంబటు గూయ వడిగ నీకోసమె వచ్చినాడురథమెక్కి యత్తరి రావణుం డరుదెంచి సీతను భీతిల్లజేసినాడు</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>రహి లక్ష్మణుండను రాజును గాపిడి సీతను చెరసాల చేసివావుమారీచుడని నీవు మర్మంబుగానక గాసిల్ల నమ్మున నేసినావుహా లక్ష్మణా యని యా మృగంబటు గూయ వడిగ నీకోసమె వచ్చినాడురథమెక్కి యత్తరి రావణుం డరుదెంచి సీతను భీతిల్లజేసినాడు</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
           <t>[('ర', '|'), ('హి', '|'), ('ల', 'U'), ('క్ష్మ', '|'), ('ణుం', 'U'), ('డ', '|'), ('ను', '|'), ('రా', 'U'), ('జు', '|'), ('ను', '|'), ('గా', 'U'), ('పి', '|'), ('డి', '|'), ('సీ', 'U'), ('త', '|'), ('ను', '|'), ('చె', '|'), ('ర', '|'), ('సా', 'U'), ('ల', '|'), ('చే', 'U'), ('సి', '|'), ('వా', 'U'), ('వు', '|'), ('మా', 'U'), ('రీ', 'U'), ('చు', '|'), ('డ', '|'), ('ని', '|'), ('నీ', 'U'), ('వు', '|'), ('మ', '|'), ('ర్మం', 'U'), ('బు', '|'), ('గా', 'U'), ('న', '|'), ('క', '|'), ('గా', 'U'), ('సి', 'U'), ('ల్ల', '|'), ('న', 'U'), ('మ్ము', '|'), ('న', '|'), ('నే', 'U'), ('సి', '|'), ('నా', 'U'), ('వు', '|'), ('హా', 'U'), ('ల', 'U'), ('క్ష్మ', '|'), ('ణా', 'U'), ('య', '|'), ('ని', '|'), ('యా', 'U'), ('మృ', '|'), ('గం', 'U'), ('బ', '|'), ('టు', '|'), ('గూ', 'U'), ('య', '|'), ('వ', '|'), ('డి', '|'), ('గ', '|'), ('నీ', 'U'), ('కో', 'U'), ('స', '|'), ('మె', '|'), ('వ', 'U'), ('చ్చి', '|'), ('నా', 'U'), ('డు', '|'), ('ర', '|'), ('థ', '|'), ('మె', 'U'), ('క్కి', '|'), ('య', 'U'), ('త్త', '|'), ('రి', '|'), ('రా', 'U'), ('వ', '|'), ('ణుం', 'U'), ('డ', '|'), ('రు', '|'), ('దెం', 'U'), ('చి', '|'), ('సీ', 'U'), ('త', '|'), ('ను', '|'), ('భీ', 'U'), ('తి', 'U'), ('ల్ల', '|'), ('జే', 'U'), ('సి', '|'), ('నా', 'U'), ('డు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>యింత నగుబాటువాఁడవు సంతసమునఁ | బ్రజ్ఞలాడెదు నాయొద్ద ప్రకటితముగతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>యింత నగుబాటువాఁడవు సంతసమునఁ | బ్రజ్ఞలాడెదు నాయొద్ద ప్రకటితముగతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
           <t>[('యిం', 'U'), ('త', '|'), ('న', '|'), ('గు', '|'), ('బా', 'U'), ('టు', '|'), ('వా', 'U'), ('డ', '|'), ('వు', '|'), ('సం', 'U'), ('త', '|'), ('స', '|'), ('ము', '|'), ('న', 'U'), ('బ్ర', 'U'), ('జ్ఞ', '|'), ('లా', 'U'), ('డె', '|'), ('దు', '|'), ('నా', 'U'), ('యొ', 'U'), ('ద్ద', 'U'), ('ప్ర', '|'), ('క', '|'), ('టి', '|'), ('త', '|'), ('ము', '|'), ('గ', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('నీ', 'U'), ('వే', 'U'), ('గి', '|'), ('యి', '|'), ('చ', '|'), ('టి', '|'), ('కి', '|'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('లు', '|'), ('దే', 'U'), ('గ', '|'), ('దే', 'U'), ('రా', 'U'), ('జ', '|'), ('వ', '|'), ('ద', '|'), ('న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>తప్పక లక్ష్మణుఁ దడయక గాపిడి యేగి మృగమ్మును నేయుతరినిహా లక్ష్మణా యని యా మృగమటు గూయ మగువకు దుఃఖమై మరిది నంపెమారీచు మాటయే మా యన్న గాదని భావించి తమ్ముడు బాసచేసెనాడగూడని మాటలాడగా దలపెట్ట వనితరో తమ్ముడు వచ్చినాడు</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>తప్పక లక్ష్మణుఁ దడయక గాపిడి యేగి మృగమ్మును నేయుతరినిహా లక్ష్మణా యని యా మృగమటు గూయ మగువకు దుఃఖమై మరిది నంపెమారీచు మాటయే మా యన్న గాదని భావించి తమ్ముడు బాసచేసెనాడగూడని మాటలాడగా దలపెట్ట వనితరో తమ్ముడు వచ్చినాడు</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
           <t>[('త', 'U'), ('ప్ప', '|'), ('క', '|'), ('ల', 'U'), ('క్ష్మ', '|'), ('ణు', '|'), ('ద', '|'), ('డ', '|'), ('య', '|'), ('క', '|'), ('గా', 'U'), ('పి', '|'), ('డి', '|'), ('యే', 'U'), ('గి', '|'), ('మృ', '|'), ('గ', 'U'), ('మ్ము', '|'), ('ను', '|'), ('నే', 'U'), ('యు', '|'), ('త', '|'), ('రి', '|'), ('ని', '|'), ('హా', 'U'), ('ల', 'U'), ('క్ష్మ', '|'), ('ణా', 'U'), ('య', '|'), ('ని', '|'), ('యా', 'U'), ('మృ', '|'), ('గ', '|'), ('మ', '|'), ('టు', '|'), ('గూ', 'U'), ('య', '|'), ('మ', '|'), ('గు', '|'), ('వ', '|'), ('కు', '|'), ('దుః', 'U'), ('ఖ', '|'), ('మై', 'U'), ('మ', '|'), ('రి', '|'), ('ది', '|'), ('నం', 'U'), ('పె', '|'), ('మా', 'U'), ('రీ', 'U'), ('చు', '|'), ('మా', 'U'), ('ట', '|'), ('యే', 'U'), ('మా', 'U'), ('య', 'U'), ('న్న', '|'), ('గా', 'U'), ('ద', '|'), ('ని', '|'), ('భా', 'U'), ('విం', 'U'), ('చి', '|'), ('త', 'U'), ('మ్ము', '|'), ('డు', '|'), ('బా', 'U'), ('స', '|'), ('చే', 'U'), ('సె', '|'), ('నా', 'U'), ('డ', '|'), ('గూ', 'U'), ('డ', '|'), ('ని', '|'), ('మా', 'U'), ('ట', '|'), ('లా', 'U'), ('డ', '|'), ('గా', 'U'), ('ద', '|'), ('ల', '|'), ('పె', 'U'), ('ట్ట', '|'), ('వ', '|'), ('ని', '|'), ('త', '|'), ('రో', 'U'), ('త', 'U'), ('మ్ము', '|'), ('డు', '|'), ('వ', 'U'), ('చ్చి', '|'), ('నా', 'U'), ('డు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>రమ్యమైనట్టి ముల్లోకరక్షకుఁడగు | సుదతి దశరథరాజుకు సుతువుగాడెతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>రమ్యమైనట్టి ముల్లోకరక్షకుఁడగు | సుదతి దశరథరాజుకు సుతువుగాడెతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
           <t>[('ర', 'U'), ('మ్య', '|'), ('మై', 'U'), ('న', 'U'), ('ట్టి', '|'), ('ము', 'U'), ('ల్లో', 'U'), ('క', '|'), ('ర', 'U'), ('క్ష', '|'), ('కు', '|'), ('డ', '|'), ('గు', '|'), ('సు', '|'), ('ద', '|'), ('తి', '|'), ('ద', '|'), ('శ', '|'), ('ర', '|'), ('థ', '|'), ('రా', 'U'), ('జు', '|'), ('కు', '|'), ('సు', '|'), ('తు', '|'), ('వు', '|'), ('గా', 'U'), ('డె', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('నీ', 'U'), ('వే', 'U'), ('గి', '|'), ('యి', '|'), ('చ', '|'), ('టి', '|'), ('కి', '|'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('లు', '|'), ('దే', 'U'), ('గ', '|'), ('దే', 'U'), ('రా', 'U'), ('జ', '|'), ('వ', '|'), ('ద', '|'), ('న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>ధరణిలో గృష్ణావతారమెత్తిననాడు తల్లిమాటకు మేఱ దప్పినావుఆ తల్లి నిన్నెంతో యాసక్తి బెంపగా దుందుడుకై చాల దూకినావుగద్దఱీవని తల్లి పెద్దరోటను గట్ట మద్దులఁ బడద్రోసి మళ్ళినావుమగుడి యావెంటను మఱి బుద్ధరూపమై చెలుల వ్రతంబులఁ జెఱచినావు</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>ధరణిలో గృష్ణావతారమెత్తిననాడు తల్లిమాటకు మేఱ దప్పినావుఆ తల్లి నిన్నెంతో యాసక్తి బెంపగా దుందుడుకై చాల దూకినావుగద్దఱీవని తల్లి పెద్దరోటను గట్ట మద్దులఁ బడద్రోసి మళ్ళినావుమగుడి యావెంటను మఱి బుద్ధరూపమై చెలుల వ్రతంబులఁ జెఱచినావు</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
           <t>[('ధ', '|'), ('ర', '|'), ('ణి', '|'), ('లో', 'U'), ('గృ', 'U'), ('ష్ణా', 'U'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('మె', 'U'), ('త్తి', '|'), ('న', '|'), ('నా', 'U'), ('డు', '|'), ('త', 'U'), ('ల్లి', '|'), ('మా', 'U'), ('ట', '|'), ('కు', '|'), ('మే', 'U'), ('ఱ', '|'), ('ద', 'U'), ('ప్పి', '|'), ('నా', 'U'), ('వు', '|'), ('ఆ', 'U'), ('త', 'U'), ('ల్లి', '|'), ('ని', 'U'), ('న్నెం', 'U'), ('తో', 'U'), ('యా', 'U'), ('స', 'U'), ('క్తి', '|'), ('బెం', 'U'), ('ప', '|'), ('గా', 'U'), ('దుం', 'U'), ('దు', '|'), ('డు', '|'), ('కై', 'U'), ('చా', 'U'), ('ల', '|'), ('దూ', 'U'), ('కి', '|'), ('నా', 'U'), ('వు', '|'), ('గ', 'U'), ('ద్ద', '|'), ('ఱీ', 'U'), ('వ', '|'), ('ని', '|'), ('త', 'U'), ('ల్లి', '|'), ('పె', 'U'), ('ద్ద', '|'), ('రో', 'U'), ('ట', '|'), ('ను', '|'), ('గ', 'U'), ('ట్ట', '|'), ('మ', 'U'), ('ద్దు', '|'), ('ల', '|'), ('బ', '|'), ('డ', '|'), ('ద్రో', 'U'), ('సి', '|'), ('మ', 'U'), ('ళ్ళి', '|'), ('నా', 'U'), ('వు', '|'), ('మ', '|'), ('గు', '|'), ('డి', '|'), ('యా', 'U'), ('వెం', 'U'), ('ట', '|'), ('ను', '|'), ('మ', '|'), ('ఱి', '|'), ('బు', 'U'), ('ద్ధ', '|'), ('రూ', 'U'), ('ప', '|'), ('మై', 'U'), ('చె', '|'), ('లు', '|'), ('ల', 'U'), ('వ్ర', '|'), ('తం', 'U'), ('బు', '|'), ('ల', '|'), ('జె', '|'), ('ఱ', '|'), ('చి', '|'), ('నా', 'U'), ('వు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>చెడ్డవాఁడవు నీచెంతఁ జేరరాదు | స్త్రీల నీలాగు సేయుట మేలుగాదుతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>చెడ్డవాఁడవు నీచెంతఁ జేరరాదు | స్త్రీల నీలాగు సేయుట మేలుగాదుతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
           <t>[('చె', 'U'), ('డ్డ', '|'), ('వా', 'U'), ('డ', '|'), ('వు', '|'), ('నీ', 'U'), ('చెం', 'U'), ('త', '|'), ('జే', 'U'), ('ర', '|'), ('రా', 'U'), ('దు', 'U'), ('స్త్రీ', 'U'), ('ల', '|'), ('నీ', 'U'), ('లా', 'U'), ('గు', '|'), ('సే', 'U'), ('యు', '|'), ('ట', '|'), ('మే', 'U'), ('లు', '|'), ('గా', 'U'), ('దు', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('నీ', 'U'), ('వే', 'U'), ('గి', '|'), ('యి', '|'), ('చ', '|'), ('టి', '|'), ('కి', '|'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('లు', '|'), ('దే', 'U'), ('గ', '|'), ('దే', 'U'), ('రా', 'U'), ('జ', '|'), ('వ', '|'), ('ద', '|'), ('న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>చెంగల్వకొలనిలో శృంగారసతులెల్ల జలక్రీడలాడిన జాడ గంటిసిగ్గులేకను బట్టుచీరలన్నియు విప్పిపెట్టిన జాడ నేనట్టె గంటి మగువరోయా చీరమడతలన్నియు గొని చెలియరో యా పొన్నచెట్ల నిడితి భామఅందఱు గూడి బట్టబైలను నిల్చి ముమ్మారు మ్రొక్కిరి ముద్దుగాను</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>చెంగల్వకొలనిలో శృంగారసతులెల్ల జలక్రీడలాడిన జాడ గంటిసిగ్గులేకను బట్టుచీరలన్నియు విప్పిపెట్టిన జాడ నేనట్టె గంటి మగువరోయా చీరమడతలన్నియు గొని చెలియరో యా పొన్నచెట్ల నిడితి భామఅందఱు గూడి బట్టబైలను నిల్చి ముమ్మారు మ్రొక్కిరి ముద్దుగాను</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
           <t>[('చెం', 'U'), ('గ', 'U'), ('ల్వ', '|'), ('కొ', '|'), ('ల', '|'), ('ని', '|'), ('లో', 'U'), ('శృం', 'U'), ('గా', 'U'), ('ర', '|'), ('స', '|'), ('తు', '|'), ('లె', 'U'), ('ల్ల', '|'), ('జ', '|'), ('ల', 'U'), ('క్రీ', 'U'), ('డ', '|'), ('లా', 'U'), ('డి', '|'), ('న', '|'), ('జా', 'U'), ('డ', '|'), ('గం', 'U'), ('టి', '|'), ('సి', 'U'), ('గ్గు', '|'), ('లే', 'U'), ('క', '|'), ('ను', '|'), ('బ', 'U'), ('ట్టు', '|'), ('చీ', 'U'), ('ర', '|'), ('ల', 'U'), ('న్ని', '|'), ('యు', '|'), ('వి', 'U'), ('ప్పి', '|'), ('పె', 'U'), ('ట్టి', '|'), ('న', '|'), ('జా', 'U'), ('డ', '|'), ('నే', 'U'), ('న', 'U'), ('ట్టె', '|'), ('గం', 'U'), ('టి', '|'), ('మ', '|'), ('గు', '|'), ('వ', '|'), ('రో', 'U'), ('యా', 'U'), ('చీ', 'U'), ('ర', '|'), ('మ', '|'), ('డ', '|'), ('త', '|'), ('ల', 'U'), ('న్ని', '|'), ('యు', '|'), ('గొ', '|'), ('ని', '|'), ('చె', '|'), ('లి', '|'), ('య', '|'), ('రో', 'U'), ('యా', 'U'), ('పొ', 'U'), ('న్న', '|'), ('చె', 'U'), ('ట్ల', '|'), ('ని', '|'), ('డి', '|'), ('తి', '|'), ('భా', 'U'), ('మ', '|'), ('అం', 'U'), ('ద', '|'), ('ఱు', '|'), ('గూ', 'U'), ('డి', '|'), ('బ', 'U'), ('ట్ట', '|'), ('బై', 'U'), ('ల', '|'), ('ను', '|'), ('ని', 'U'), ('ల్చి', '|'), ('ము', 'U'), ('మ్మా', 'U'), ('రు', '|'), ('మ్రొ', 'U'), ('క్కి', '|'), ('రి', '|'), ('ము', 'U'), ('ద్దు', '|'), ('గా', 'U'), ('ను', '|')]</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>తగనెఱుంగవె కృష్ణావతార మహిమ | యింతవాడని నా గుణ మెఱుగలేవెతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>తగనెఱుంగవె కృష్ణావతార మహిమ | యింతవాడని నా గుణ మెఱుగలేవెతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('గ', '|'), ('నె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('వె', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('మ', '|'), ('హి', '|'), ('మ', '|'), ('యిం', 'U'), ('త', '|'), ('వా', 'U'), ('డ', '|'), ('ని', '|'), ('నా', 'U'), ('గు', '|'), ('ణ', '|'), ('మె', '|'), ('ఱు', '|'), ('గ', '|'), ('లే', 'U'), ('వె', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('నీ', 'U'), ('వే', 'U'), ('గి', '|'), ('యి', '|'), ('చ', '|'), ('టి', '|'), ('కి', '|'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('లు', '|'), ('దే', 'U'), ('గ', '|'), ('దే', 'U'), ('రా', 'U'), ('జ', '|'), ('వ', '|'), ('ద', '|'), ('న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>ఓలలాడుచునున్న స్త్రీలయొద్దకు బోయి సిగ్గుమాలిన పేర్మి జెప్పవలెనుతప్పక నీ దుష్టతనము నింపాయకాని పాయక యా పనుల్సేయదగునెవావివర్తనలేక వరించుచును నీవు కోరిన మేనత్తను గూడదగునెపాపమౌననకను బడఁతుల వంచించి చెయియూత లొదవింప జేయదగునె</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>ఓలలాడుచునున్న స్త్రీలయొద్దకు బోయి సిగ్గుమాలిన పేర్మి జెప్పవలెనుతప్పక నీ దుష్టతనము నింపాయకాని పాయక యా పనుల్సేయదగునెవావివర్తనలేక వరించుచును నీవు కోరిన మేనత్తను గూడదగునెపాపమౌననకను బడఁతుల వంచించి చెయియూత లొదవింప జేయదగునె</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
           <t>[('ఓ', 'U'), ('ల', '|'), ('లా', 'U'), ('డు', '|'), ('చు', '|'), ('ను', 'U'), ('న్న', 'U'), ('స్త్రీ', 'U'), ('ల', '|'), ('యొ', 'U'), ('ద్ద', '|'), ('కు', '|'), ('బో', 'U'), ('యి', '|'), ('సి', 'U'), ('గ్గు', '|'), ('మా', 'U'), ('లి', '|'), ('న', '|'), ('పే', 'U'), ('ర్మి', '|'), ('జె', 'U'), ('ప్ప', '|'), ('వ', '|'), ('లె', '|'), ('ను', '|'), ('త', 'U'), ('ప్ప', '|'), ('క', '|'), ('నీ', 'U'), ('దు', 'U'), ('ష్ట', '|'), ('త', '|'), ('న', '|'), ('ము', '|'), ('నిం', 'U'), ('పా', 'U'), ('య', '|'), ('కా', 'U'), ('ని', '|'), ('పా', 'U'), ('య', '|'), ('క', '|'), ('యా', 'U'), ('ప', '|'), ('ను', 'U'), ('ల్సే', 'U'), ('య', '|'), ('ద', '|'), ('గు', '|'), ('నె', '|'), ('వా', 'U'), ('వి', '|'), ('వ', 'U'), ('ర్త', '|'), ('న', '|'), ('లే', 'U'), ('క', '|'), ('వ', '|'), ('రిం', 'U'), ('చు', '|'), ('చు', '|'), ('ను', '|'), ('నీ', 'U'), ('వు', '|'), ('కో', 'U'), ('రి', '|'), ('న', '|'), ('మే', 'U'), ('న', 'U'), ('త్త', '|'), ('ను', '|'), ('గూ', 'U'), ('డ', '|'), ('ద', '|'), ('గు', '|'), ('నె', '|'), ('పా', 'U'), ('ప', '|'), ('మౌ', 'U'), ('న', '|'), ('న', '|'), ('క', '|'), ('ను', '|'), ('బ', '|'), ('డ', '|'), ('తు', '|'), ('ల', '|'), ('వం', 'U'), ('చిం', 'U'), ('చి', '|'), ('చె', '|'), ('యి', '|'), ('యూ', 'U'), ('త', '|'), ('లొ', '|'), ('ద', '|'), ('విం', 'U'), ('ప', '|'), ('జే', 'U'), ('య', '|'), ('ద', '|'), ('గు', '|'), ('నె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>మొగ్గలంబాయె నీదగు మగతనంబు | సిగ్గులేకను నాతోడఁ జెప్పినపుడెతగవులున్నది మనమధ్య తాడిమళ్ళ | రాజగోపాల రావయ్య తేజముగను.</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>మొగ్గలంబాయె నీదగు మగతనంబు | సిగ్గులేకను నాతోడఁ జెప్పినపుడెతగవులున్నది మనమధ్య తాడిమళ్ళ | రాజగోపాల రావయ్య తేజముగను.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
           <t>[('మొ', 'U'), ('గ్గ', '|'), ('లం', 'U'), ('బా', 'U'), ('యె', '|'), ('నీ', 'U'), ('ద', '|'), ('గు', '|'), ('మ', '|'), ('గ', '|'), ('త', '|'), ('నం', 'U'), ('బు', '|'), ('సి', 'U'), ('గ్గు', '|'), ('లే', 'U'), ('క', '|'), ('ను', '|'), ('నా', 'U'), ('తో', 'U'), ('డ', '|'), ('జె', 'U'), ('ప్పి', '|'), ('న', '|'), ('పు', '|'), ('డె', '|'), ('త', '|'), ('గ', '|'), ('వు', '|'), ('లు', 'U'), ('న్న', '|'), ('ది', '|'), ('మ', '|'), ('న', '|'), ('మ', 'U'), ('ధ్య', '|'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('రా', 'U'), ('వ', 'U'), ('య్య', '|'), ('తే', 'U'), ('జ', '|'), ('ము', '|'), ('గ', '|'), ('ను', '|')]</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>ఘనుడు సత్రాజిత్తుకన్య వేడుకతోను బెండ్లాడివచ్చిన బిరుదు వినవెనీలాపనిందలు నిశ్చయంబుగఁ గొంత నా మీదఁ బల్క నే నాతియుతుఁడగానఁ జంద్రుడు పాలలో గనపడినట్లు జాడ కొంచముగంటి జాములోనబడతి నేనొక భాద్రపదశుద్ధచౌతిని దనరంగ శశిబింబదర్శనంబు</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>ఘనుడు సత్రాజిత్తుకన్య వేడుకతోను బెండ్లాడివచ్చిన బిరుదు వినవెనీలాపనిందలు నిశ్చయంబుగఁ గొంత నా మీదఁ బల్క నే నాతియుతుఁడగానఁ జంద్రుడు పాలలో గనపడినట్లు జాడ కొంచముగంటి జాములోనబడతి నేనొక భాద్రపదశుద్ధచౌతిని దనరంగ శశిబింబదర్శనంబు</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
           <t>[('ఘ', '|'), ('ను', '|'), ('డు', '|'), ('స', 'U'), ('త్రా', 'U'), ('జి', 'U'), ('త్తు', '|'), ('క', 'U'), ('న్య', '|'), ('వే', 'U'), ('డు', '|'), ('క', '|'), ('తో', 'U'), ('ను', '|'), ('బెం', 'U'), ('డ్లా', 'U'), ('డి', '|'), ('వ', 'U'), ('చ్చి', '|'), ('న', '|'), ('బి', '|'), ('రు', '|'), ('దు', '|'), ('వి', '|'), ('న', '|'), ('వె', '|'), ('నీ', 'U'), ('లా', 'U'), ('ప', '|'), ('నిం', 'U'), ('ద', '|'), ('లు', '|'), ('ని', 'U'), ('శ్చ', '|'), ('యం', 'U'), ('బు', '|'), ('గ', '|'), ('గొం', 'U'), ('త', '|'), ('నా', 'U'), ('మీ', 'U'), ('ద', '|'), ('బ', 'U'), ('ల్క', '|'), ('నే', 'U'), ('నా', 'U'), ('తి', '|'), ('యు', '|'), ('తు', '|'), ('డ', '|'), ('గా', 'U'), ('న', '|'), ('జం', 'U'), ('ద్రు', '|'), ('డు', '|'), ('పా', 'U'), ('ల', '|'), ('లో', 'U'), ('గ', '|'), ('న', '|'), ('ప', '|'), ('డి', '|'), ('న', 'U'), ('ట్లు', '|'), ('జా', 'U'), ('డ', '|'), ('కొం', 'U'), ('చ', '|'), ('ము', '|'), ('గం', 'U'), ('టి', '|'), ('జా', 'U'), ('ము', '|'), ('లో', 'U'), ('న', '|'), ('బ', '|'), ('డ', '|'), ('తి', '|'), ('నే', 'U'), ('నొ', '|'), ('క', '|'), ('భా', 'U'), ('ద్ర', '|'), ('ప', '|'), ('ద', '|'), ('శు', 'U'), ('ద్ధ', '|'), ('చౌ', 'U'), ('తి', '|'), ('ని', '|'), ('ద', '|'), ('న', '|'), ('రం', 'U'), ('గ', '|'), ('శ', '|'), ('శి', '|'), ('బిం', 'U'), ('బ', '|'), ('ద', 'U'), ('ర్శ', '|'), ('నం', 'U'), ('బు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>గాగ నా మార్గమున వచ్చి కలసి నాతో | సంపదల బొందియుండవె సత్యభామతరుణ నా యూరి పేర్విను తాడిమళ్ల | రాజగోపాలు డందురే రమణి నన్ను.</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>గాగ నా మార్గమున వచ్చి కలసి నాతో | సంపదల బొందియుండవె సత్యభామతరుణ నా యూరి పేర్విను తాడిమళ్ల | రాజగోపాలు డందురే రమణి నన్ను.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
           <t>[('గా', 'U'), ('గ', '|'), ('నా', 'U'), ('మా', 'U'), ('ర్గ', '|'), ('ము', '|'), ('న', '|'), ('వ', 'U'), ('చ్చి', '|'), ('క', '|'), ('ల', '|'), ('సి', '|'), ('నా', 'U'), ('తో', 'U'), ('సం', 'U'), ('ప', '|'), ('ద', '|'), ('ల', '|'), ('బొం', 'U'), ('ది', '|'), ('యుం', 'U'), ('డ', '|'), ('వె', '|'), ('స', 'U'), ('త్య', '|'), ('భా', 'U'), ('మ', '|'), ('త', '|'), ('రు', '|'), ('ణ', '|'), ('నా', 'U'), ('యూ', 'U'), ('రి', '|'), ('పే', 'U'), ('ర్వి', '|'), ('ను', '|'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ల', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('లు', '|'), ('డం', 'U'), ('దు', '|'), ('రే', 'U'), ('ర', '|'), ('మ', '|'), ('ణి', '|'), ('న', 'U'), ('న్ను', '|')]</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>జగడ మన్యాయమై జాంబవంతుని గెల్చె కానుక దెచ్చిచ్చిగాదు బిరుదుఎంతమాత్రంబైన నీ యతిశయముచే మిక్కిలి మఱియేమి మేలులేదుబాల్యమందున రామభద్రుండవై యుండి వెలయ వనమునకు వెళ్ళినావుపదునాలుగేడులు పరగ దమ్ముడు నీవు నెలమి సీతతోఁ జరియించినావు</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>జగడ మన్యాయమై జాంబవంతుని గెల్చె కానుక దెచ్చిచ్చిగాదు బిరుదుఎంతమాత్రంబైన నీ యతిశయముచే మిక్కిలి మఱియేమి మేలులేదుబాల్యమందున రామభద్రుండవై యుండి వెలయ వనమునకు వెళ్ళినావుపదునాలుగేడులు పరగ దమ్ముడు నీవు నెలమి సీతతోఁ జరియించినావు</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
           <t>[('జ', '|'), ('గ', '|'), ('డ', '|'), ('మ', 'U'), ('న్యా', 'U'), ('య', '|'), ('మై', 'U'), ('జాం', 'U'), ('బ', '|'), ('వం', 'U'), ('తు', '|'), ('ని', '|'), ('గె', 'U'), ('ల్చె', '|'), ('కా', 'U'), ('ను', '|'), ('క', '|'), ('దె', 'U'), ('చ్చి', 'U'), ('చ్చి', '|'), ('గా', 'U'), ('దు', '|'), ('బి', '|'), ('రు', '|'), ('దు', '|'), ('ఎం', 'U'), ('త', '|'), ('మా', 'U'), ('త్రం', 'U'), ('బై', 'U'), ('న', '|'), ('నీ', 'U'), ('య', '|'), ('తి', '|'), ('శ', '|'), ('య', '|'), ('ము', '|'), ('చే', 'U'), ('మి', 'U'), ('క్కి', '|'), ('లి', '|'), ('మ', '|'), ('ఱి', '|'), ('యే', 'U'), ('మి', '|'), ('మే', 'U'), ('లు', '|'), ('లే', 'U'), ('దు', '|'), ('బా', 'U'), ('ల్య', '|'), ('మం', 'U'), ('దు', '|'), ('న', '|'), ('రా', 'U'), ('మ', '|'), ('భ', '|'), ('ద్రుం', 'U'), ('డ', '|'), ('వై', 'U'), ('యుం', 'U'), ('డి', '|'), ('వె', '|'), ('ల', '|'), ('య', '|'), ('వ', '|'), ('న', '|'), ('ము', '|'), ('న', '|'), ('కు', '|'), ('వె', 'U'), ('ళ్ళి', '|'), ('నా', 'U'), ('వు', '|'), ('ప', '|'), ('దు', '|'), ('నా', 'U'), ('లు', '|'), ('గే', 'U'), ('డు', '|'), ('లు', '|'), ('ప', '|'), ('ర', '|'), ('గ', '|'), ('ద', 'U'), ('మ్ము', '|'), ('డు', '|'), ('నీ', 'U'), ('వు', '|'), ('నె', '|'), ('ల', '|'), ('మి', '|'), ('సీ', 'U'), ('త', '|'), ('తో', 'U'), ('జ', '|'), ('రి', '|'), ('యిం', 'U'), ('చి', '|'), ('నా', 'U'), ('వు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>గాన నీదు ప్రభావముఁ గానఁబడియె | మర్మమెఱిగితి నీ కీర్తిమహిమఁ గంటితగవులన్నియు మనమధ్య తాడిమళ్ళ | రాజగోపాల రావయ్య రమణి గూడ.</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>గాన నీదు ప్రభావముఁ గానఁబడియె | మర్మమెఱిగితి నీ కీర్తిమహిమఁ గంటితగవులన్నియు మనమధ్య తాడిమళ్ళ | రాజగోపాల రావయ్య రమణి గూడ.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
           <t>[('గా', 'U'), ('న', '|'), ('నీ', 'U'), ('దు', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('ము', '|'), ('గా', 'U'), ('న', '|'), ('బ', '|'), ('డి', '|'), ('యె', '|'), ('మ', '|'), ('ర్మ', '|'), ('మె', '|'), ('ఱి', '|'), ('గి', '|'), ('తి', '|'), ('నీ', 'U'), ('కీ', 'U'), ('ర్తి', '|'), ('మ', '|'), ('హి', '|'), ('మ', '|'), ('గం', 'U'), ('టి', '|'), ('త', '|'), ('గ', '|'), ('వు', '|'), ('ల', 'U'), ('న్ని', '|'), ('యు', '|'), ('మ', '|'), ('న', '|'), ('మ', 'U'), ('ధ్య', '|'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('రా', 'U'), ('వ', 'U'), ('య్య', '|'), ('ర', '|'), ('మ', '|'), ('ణి', '|'), ('గూ', 'U'), ('డ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>సుప్రసేనుఁడు మణి సూటిగా దాల్చుక వేటాడ నడవికి వెడలివచ్చి-నంతట నొకసింహ మాతని వధియించి మణి గొంచుబోవ నమ్మార్గముననుగని జాంబవంతుండు ఖండించి దానిని దనచేత బట్టుక దర్లిపోయె-నంత సత్రాజిత్తు డనుజుఁడు రాకున్న శ్రీకృష్ణుండీ మాయ చేసెననుచు</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>సుప్రసేనుఁడు మణి సూటిగా దాల్చుక వేటాడ నడవికి వెడలివచ్చి-నంతట నొకసింహ మాతని వధియించి మణి గొంచుబోవ నమ్మార్గముననుగని జాంబవంతుండు ఖండించి దానిని దనచేత బట్టుక దర్లిపోయె-నంత సత్రాజిత్తు డనుజుఁడు రాకున్న శ్రీకృష్ణుండీ మాయ చేసెననుచు</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
           <t>[('సు', 'U'), ('ప్ర', '|'), ('సే', 'U'), ('ను', '|'), ('డు', '|'), ('మ', '|'), ('ణి', '|'), ('సూ', 'U'), ('టి', '|'), ('గా', 'U'), ('దా', 'U'), ('ల్చు', '|'), ('క', '|'), ('వే', 'U'), ('టా', 'U'), ('డ', '|'), ('న', '|'), ('డ', '|'), ('వి', '|'), ('కి', '|'), ('వె', '|'), ('డ', '|'), ('లి', '|'), ('వ', 'U'), ('చ్చి', '|'), ('నం', 'U'), ('త', '|'), ('ట', '|'), ('నొ', '|'), ('క', '|'), ('సిం', 'U'), ('హ', '|'), ('మా', 'U'), ('త', '|'), ('ని', '|'), ('వ', '|'), ('ధి', '|'), ('యిం', 'U'), ('చి', '|'), ('మ', '|'), ('ణి', '|'), ('గొం', 'U'), ('చు', '|'), ('బో', 'U'), ('వ', '|'), ('న', 'U'), ('మ్మా', 'U'), ('ర్గ', '|'), ('ము', '|'), ('న', '|'), ('ను', '|'), ('గ', '|'), ('ని', '|'), ('జాం', 'U'), ('బ', '|'), ('వం', 'U'), ('తుం', 'U'), ('డు', '|'), ('ఖం', 'U'), ('డిం', 'U'), ('చి', '|'), ('దా', 'U'), ('ని', '|'), ('ని', '|'), ('ద', '|'), ('న', '|'), ('చే', 'U'), ('త', '|'), ('బ', 'U'), ('ట్టు', '|'), ('క', '|'), ('ద', 'U'), ('ర్లి', '|'), ('పో', 'U'), ('యె', '|'), ('నం', 'U'), ('త', '|'), ('స', 'U'), ('త్రా', 'U'), ('జి', 'U'), ('త్తు', '|'), ('డ', '|'), ('ను', '|'), ('జు', '|'), ('డు', '|'), ('రా', 'U'), ('కు', 'U'), ('న్న', 'U'), ('శ్రీ', 'U'), ('కృ', 'U'), ('ష్ణుం', 'U'), ('డీ', 'U'), ('మా', 'U'), ('య', '|'), ('చే', 'U'), ('సె', '|'), ('న', '|'), ('ను', '|'), ('చు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>వనిత నామీద గట్టితే వట్టినింద | దెలిసి యావెన్క నామణి దెచ్చినానెమా యూరి పేర్విను తాడిమళ్ళ | రాజగోపాలుడందురే రమణి నన్ను.</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>వనిత నామీద గట్టితే వట్టినింద | దెలిసి యావెన్క నామణి దెచ్చినానెమా యూరి పేర్విను తాడిమళ్ళ | రాజగోపాలుడందురే రమణి నన్ను.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
           <t>[('వ', '|'), ('ని', '|'), ('త', '|'), ('నా', 'U'), ('మీ', 'U'), ('ద', '|'), ('గ', 'U'), ('ట్టి', '|'), ('తే', 'U'), ('వ', 'U'), ('ట్టి', '|'), ('నిం', 'U'), ('ద', '|'), ('దె', '|'), ('లి', '|'), ('సి', '|'), ('యా', 'U'), ('వె', 'U'), ('న్క', '|'), ('నా', 'U'), ('మ', '|'), ('ణి', '|'), ('దె', 'U'), ('చ్చి', '|'), ('నా', 'U'), ('నె', '|'), ('మా', 'U'), ('యూ', 'U'), ('రి', '|'), ('పే', 'U'), ('ర్వి', '|'), ('ను', '|'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('లు', '|'), ('డం', 'U'), ('దు', '|'), ('రే', 'U'), ('ర', '|'), ('మ', '|'), ('ణి', '|'), ('న', 'U'), ('న్ను', '|')]</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>శ్యామలవర్ణ నీకేమని యిచ్చునో జాంబవతిని నీకె జాగులేక నీ శాంతవంతంబు నీ గుణంబెఱుగక పడతిని నీవెంట బంపినాడుపేరిమి నిను తల్లి పెంచిన మొదలుగా నుగ్గుపాలు నెఱుంగ వొక్కనాడుతలిదండ్రులొకచోట తపియించుచుండగా పెఱిగిన వెఱుగవు వెఱపులేక</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>శ్యామలవర్ణ నీకేమని యిచ్చునో జాంబవతిని నీకె జాగులేక నీ శాంతవంతంబు నీ గుణంబెఱుగక పడతిని నీవెంట బంపినాడుపేరిమి నిను తల్లి పెంచిన మొదలుగా నుగ్గుపాలు నెఱుంగ వొక్కనాడుతలిదండ్రులొకచోట తపియించుచుండగా పెఱిగిన వెఱుగవు వెఱపులేక</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
           <t>[('శ్యా', 'U'), ('మ', '|'), ('ల', '|'), ('వ', 'U'), ('ర్ణ', '|'), ('నీ', 'U'), ('కే', 'U'), ('మ', '|'), ('ని', '|'), ('యి', 'U'), ('చ్చు', '|'), ('నో', 'U'), ('జాం', 'U'), ('బ', '|'), ('వ', '|'), ('తి', '|'), ('ని', '|'), ('నీ', 'U'), ('కె', '|'), ('జా', 'U'), ('గు', '|'), ('లే', 'U'), ('క', '|'), ('నీ', 'U'), ('శాం', 'U'), ('త', '|'), ('వం', 'U'), ('తం', 'U'), ('బు', '|'), ('నీ', 'U'), ('గు', '|'), ('ణం', 'U'), ('బె', '|'), ('ఱు', '|'), ('గ', '|'), ('క', '|'), ('ప', '|'), ('డ', '|'), ('తి', '|'), ('ని', '|'), ('నీ', 'U'), ('వెం', 'U'), ('ట', '|'), ('బం', 'U'), ('పి', '|'), ('నా', 'U'), ('డు', '|'), ('పే', 'U'), ('రి', '|'), ('మి', '|'), ('ని', '|'), ('ను', '|'), ('త', 'U'), ('ల్లి', '|'), ('పెం', 'U'), ('చి', '|'), ('న', '|'), ('మొ', '|'), ('ద', '|'), ('లు', '|'), ('గా', 'U'), ('ను', 'U'), ('గ్గు', '|'), ('పా', 'U'), ('లు', '|'), ('నె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('వొ', 'U'), ('క్క', '|'), ('నా', 'U'), ('డు', '|'), ('త', '|'), ('లి', '|'), ('దం', 'U'), ('డ్రు', '|'), ('లొ', '|'), ('క', '|'), ('చో', 'U'), ('ట', '|'), ('త', '|'), ('పి', '|'), ('యిం', 'U'), ('చు', '|'), ('చుం', 'U'), ('డ', '|'), ('గా', 'U'), ('పె', '|'), ('ఱి', '|'), ('గి', '|'), ('న', '|'), ('వె', '|'), ('ఱు', '|'), ('గ', '|'), ('వు', '|'), ('వె', '|'), ('ఱ', '|'), ('పు', '|'), ('లే', 'U'), ('క', '|')]</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>ఆతతాయివి నీవిటు లవతరించి | పూతనాయంతకుడవగు పుణ్యమూర్తిదగవులున్నది మనమధ్య తాడిమళ్ళ | రాజగోపాల రావయ్య రమణి గూడ.</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>ఆతతాయివి నీవిటు లవతరించి | పూతనాయంతకుడవగు పుణ్యమూర్తిదగవులున్నది మనమధ్య తాడిమళ్ళ | రాజగోపాల రావయ్య రమణి గూడ.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
           <t>[('ఆ', 'U'), ('త', '|'), ('తా', 'U'), ('యి', '|'), ('వి', '|'), ('నీ', 'U'), ('వి', '|'), ('టు', '|'), ('ల', '|'), ('వ', '|'), ('త', '|'), ('రిం', 'U'), ('చి', '|'), ('పూ', 'U'), ('త', '|'), ('నా', 'U'), ('యం', 'U'), ('త', '|'), ('కు', '|'), ('డ', '|'), ('వ', '|'), ('గు', '|'), ('పు', 'U'), ('ణ్య', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('ద', '|'), ('గ', '|'), ('వు', '|'), ('లు', 'U'), ('న్న', '|'), ('ది', '|'), ('మ', '|'), ('న', '|'), ('మ', 'U'), ('ధ్య', '|'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('రా', 'U'), ('వ', 'U'), ('య్య', '|'), ('ర', '|'), ('మ', '|'), ('ణి', '|'), ('గూ', 'U'), ('డ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>మా తండ్రి దశరథమహరాజుగారికి భార్యలు ముగ్గురు పడతి వినవెమువురిలో కైక యన్యాయమ్ముగ నను బరగ వనమునకును బంపదలచెరథమెక్కి దశరథరాజుతో నా కైక వనములో మును రెండువరములడిగెభరతుని సామాజ్యపట్టాభిషిక్తుగా నడవి శ్రీరాముల ననుపుటయును</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>మా తండ్రి దశరథమహరాజుగారికి భార్యలు ముగ్గురు పడతి వినవెమువురిలో కైక యన్యాయమ్ముగ నను బరగ వనమునకును బంపదలచెరథమెక్కి దశరథరాజుతో నా కైక వనములో మును రెండువరములడిగెభరతుని సామాజ్యపట్టాభిషిక్తుగా నడవి శ్రీరాముల ననుపుటయును</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
           <t>[('మా', 'U'), ('తం', 'U'), ('డ్రి', '|'), ('ద', '|'), ('శ', '|'), ('ర', '|'), ('థ', '|'), ('మ', '|'), ('హ', '|'), ('రా', 'U'), ('జు', '|'), ('గా', 'U'), ('రి', '|'), ('కి', '|'), ('భా', 'U'), ('ర్య', '|'), ('లు', '|'), ('ము', 'U'), ('గ్గు', '|'), ('రు', '|'), ('ప', '|'), ('డ', '|'), ('తి', '|'), ('వి', '|'), ('న', '|'), ('వె', '|'), ('ము', '|'), ('వు', '|'), ('రి', '|'), ('లో', 'U'), ('కై', 'U'), ('క', '|'), ('య', 'U'), ('న్యా', 'U'), ('య', 'U'), ('మ్ము', '|'), ('గ', '|'), ('న', '|'), ('ను', '|'), ('బ', '|'), ('ర', '|'), ('గ', '|'), ('వ', '|'), ('న', '|'), ('ము', '|'), ('న', '|'), ('కు', '|'), ('ను', '|'), ('బం', 'U'), ('ప', '|'), ('ద', '|'), ('ల', '|'), ('చె', '|'), ('ర', '|'), ('థ', '|'), ('మె', 'U'), ('క్కి', '|'), ('ద', '|'), ('శ', '|'), ('ర', '|'), ('థ', '|'), ('రా', 'U'), ('జు', '|'), ('తో', 'U'), ('నా', 'U'), ('కై', 'U'), ('క', '|'), ('వ', '|'), ('న', '|'), ('ము', '|'), ('లో', 'U'), ('ము', '|'), ('ను', '|'), ('రెం', 'U'), ('డు', '|'), ('వ', '|'), ('ర', '|'), ('ము', '|'), ('ల', '|'), ('డి', '|'), ('గె', '|'), ('భ', '|'), ('ర', '|'), ('తు', '|'), ('ని', '|'), ('సా', 'U'), ('మా', 'U'), ('జ్య', '|'), ('ప', 'U'), ('ట్టా', 'U'), ('భి', '|'), ('షి', 'U'), ('క్తు', '|'), ('గా', 'U'), ('న', '|'), ('డ', '|'), ('వి', 'U'), ('శ్రీ', 'U'), ('రా', 'U'), ('ము', '|'), ('ల', '|'), ('న', '|'), ('ను', '|'), ('పు', '|'), ('ట', '|'), ('యు', '|'), ('ను', '|')]</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నిట్టి రెండువరమ్ములు బట్టియపుడు | వెలదిగోనన్ను నడవికి వెడలుమనిరినా యూరి పేర్విను తాడిమళ్ళ | రాజగోపాలుడందురే రమణి నన్ను.</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>నిట్టి రెండువరమ్ములు బట్టియపుడు | వెలదిగోనన్ను నడవికి వెడలుమనిరినా యూరి పేర్విను తాడిమళ్ళ | రాజగోపాలుడందురే రమణి నన్ను.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
           <t>[('ని', 'U'), ('ట్టి', '|'), ('రెం', 'U'), ('డు', '|'), ('వ', '|'), ('ర', 'U'), ('మ్ము', '|'), ('లు', '|'), ('బ', 'U'), ('ట్టి', '|'), ('య', '|'), ('పు', '|'), ('డు', '|'), ('వె', '|'), ('ల', '|'), ('ది', '|'), ('గో', 'U'), ('న', 'U'), ('న్ను', '|'), ('న', '|'), ('డ', '|'), ('వి', '|'), ('కి', '|'), ('వె', '|'), ('డ', '|'), ('లు', '|'), ('మ', '|'), ('ని', '|'), ('రి', '|'), ('నా', 'U'), ('యూ', 'U'), ('రి', '|'), ('పే', 'U'), ('ర్వి', '|'), ('ను', '|'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('లు', '|'), ('డం', 'U'), ('దు', '|'), ('రే', 'U'), ('ర', '|'), ('మ', '|'), ('ణి', '|'), ('న', 'U'), ('న్ను', '|')]</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>తండ్రిపంపున నీవు తగ వనంబున కేగి చేడెకైనను గల్లలాడదగునెవనితతో వనవాసమొనరింప నత్తఱి చుప్పనాతికి ముక్కుచక్కజేయనా చుప్పనాతియు నన్నతో బోరాడి మారీచు బంపెను మాయజేసిమారీచు మాయలు మది నెఱుంగక నీవు విల్లుచేతను బట్టి వెళ్ళినావు</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>తండ్రిపంపున నీవు తగ వనంబున కేగి చేడెకైనను గల్లలాడదగునెవనితతో వనవాసమొనరింప నత్తఱి చుప్పనాతికి ముక్కుచక్కజేయనా చుప్పనాతియు నన్నతో బోరాడి మారీచు బంపెను మాయజేసిమారీచు మాయలు మది నెఱుంగక నీవు విల్లుచేతను బట్టి వెళ్ళినావు</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
           <t>[('తం', 'U'), ('డ్రి', '|'), ('పం', 'U'), ('పు', '|'), ('న', '|'), ('నీ', 'U'), ('వు', '|'), ('త', '|'), ('గ', '|'), ('వ', '|'), ('నం', 'U'), ('బు', '|'), ('న', '|'), ('కే', 'U'), ('గి', '|'), ('చే', 'U'), ('డె', '|'), ('కై', 'U'), ('న', '|'), ('ను', '|'), ('గ', 'U'), ('ల్ల', '|'), ('లా', 'U'), ('డ', '|'), ('ద', '|'), ('గు', '|'), ('నె', '|'), ('వ', '|'), ('ని', '|'), ('త', '|'), ('తో', 'U'), ('వ', '|'), ('న', '|'), ('వా', 'U'), ('స', '|'), ('మొ', '|'), ('న', '|'), ('రిం', 'U'), ('ప', '|'), ('న', 'U'), ('త్త', '|'), ('ఱి', '|'), ('చు', 'U'), ('ప్ప', '|'), ('నా', 'U'), ('తి', '|'), ('కి', '|'), ('ము', 'U'), ('క్కు', '|'), ('చ', 'U'), ('క్క', '|'), ('జే', 'U'), ('య', '|'), ('నా', 'U'), ('చు', 'U'), ('ప్ప', '|'), ('నా', 'U'), ('తి', '|'), ('యు', '|'), ('న', 'U'), ('న్న', '|'), ('తో', 'U'), ('బో', 'U'), ('రా', 'U'), ('డి', '|'), ('మా', 'U'), ('రీ', 'U'), ('చు', '|'), ('బం', 'U'), ('పె', '|'), ('ను', '|'), ('మా', 'U'), ('య', '|'), ('జే', 'U'), ('సి', '|'), ('మా', 'U'), ('రీ', 'U'), ('చు', '|'), ('మా', 'U'), ('య', '|'), ('లు', '|'), ('మ', '|'), ('ది', '|'), ('నె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('క', '|'), ('నీ', 'U'), ('వు', '|'), ('వి', 'U'), ('ల్లు', '|'), ('చే', 'U'), ('త', '|'), ('ను', '|'), ('బ', 'U'), ('ట్టి', '|'), ('వె', 'U'), ('ళ్ళి', '|'), ('నా', 'U'), ('వు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>దనుజు దునుమాడి వచ్చుచో వనమునందు | సీత గానక మనలోన చింతపడేవెతగవులున్నది మనమధ్య తాడిమళ్ళ | రాజగోపాల రావయ్య రమణి గూడ.</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>దనుజు దునుమాడి వచ్చుచో వనమునందు | సీత గానక మనలోన చింతపడేవెతగవులున్నది మనమధ్య తాడిమళ్ళ | రాజగోపాల రావయ్య రమణి గూడ.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
           <t>[('ద', '|'), ('ను', '|'), ('జు', '|'), ('దు', '|'), ('ను', '|'), ('మా', 'U'), ('డి', '|'), ('వ', 'U'), ('చ్చు', '|'), ('చో', 'U'), ('వ', '|'), ('న', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('సీ', 'U'), ('త', '|'), ('గా', 'U'), ('న', '|'), ('క', '|'), ('మ', '|'), ('న', '|'), ('లో', 'U'), ('న', '|'), ('చిం', 'U'), ('త', '|'), ('ప', '|'), ('డే', 'U'), ('వె', '|'), ('త', '|'), ('గ', '|'), ('వు', '|'), ('లు', 'U'), ('న్న', '|'), ('ది', '|'), ('మ', '|'), ('న', '|'), ('మ', 'U'), ('ధ్య', '|'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('రా', 'U'), ('వ', 'U'), ('య్య', '|'), ('ర', '|'), ('మ', '|'), ('ణి', '|'), ('గూ', 'U'), ('డ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>లక్షశత్రులుగల లంకేశ్వరునితోడ జగడాని కెవ్వరు చాలగలరె నెలతరో మఱి యారునెలలకు లేచెడి కుంభకర్ణు నెవరు గూల్పగలరె మిన్నుననున్నట్టి యా మేఘనాథుని బట్టి యతివ యెవ్వరణచగలరెజలధిలోపలను శిల్వల నొప్ప దేలించి వారిధిఁ గట్టించువారు గలరె</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>లక్షశత్రులుగల లంకేశ్వరునితోడ జగడాని కెవ్వరు చాలగలరె నెలతరో మఱి యారునెలలకు లేచెడి కుంభకర్ణు నెవరు గూల్పగలరె మిన్నుననున్నట్టి యా మేఘనాథుని బట్టి యతివ యెవ్వరణచగలరెజలధిలోపలను శిల్వల నొప్ప దేలించి వారిధిఁ గట్టించువారు గలరె</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
           <t>[('ల', 'U'), ('క్ష', '|'), ('శ', 'U'), ('త్రు', '|'), ('లు', '|'), ('గ', '|'), ('ల', '|'), ('లం', 'U'), ('కే', 'U'), ('శ్వ', '|'), ('రు', '|'), ('ని', '|'), ('తో', 'U'), ('డ', '|'), ('జ', '|'), ('గ', '|'), ('డా', 'U'), ('ని', '|'), ('కె', 'U'), ('వ్వ', '|'), ('రు', '|'), ('చా', 'U'), ('ల', '|'), ('గ', '|'), ('ల', '|'), ('రె', '|'), ('నె', '|'), ('ల', '|'), ('త', '|'), ('రో', 'U'), ('మ', '|'), ('ఱి', '|'), ('యా', 'U'), ('రు', '|'), ('నె', '|'), ('ల', '|'), ('ల', '|'), ('కు', '|'), ('లే', 'U'), ('చె', '|'), ('డి', '|'), ('కుం', 'U'), ('భ', '|'), ('క', 'U'), ('ర్ణు', '|'), ('నె', '|'), ('వ', '|'), ('రు', '|'), ('గూ', 'U'), ('ల్ప', '|'), ('గ', '|'), ('ల', '|'), ('రె', '|'), ('మి', 'U'), ('న్ను', '|'), ('న', '|'), ('ను', 'U'), ('న్న', 'U'), ('ట్టి', '|'), ('యా', 'U'), ('మే', 'U'), ('ఘ', '|'), ('నా', 'U'), ('థు', '|'), ('ని', '|'), ('బ', 'U'), ('ట్టి', '|'), ('య', '|'), ('తి', '|'), ('వ', '|'), ('యె', 'U'), ('వ్వ', '|'), ('ర', '|'), ('ణ', '|'), ('చ', '|'), ('గ', '|'), ('ల', '|'), ('రె', '|'), ('జ', '|'), ('ల', '|'), ('ధి', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('ను', '|'), ('శి', 'U'), ('ల్వ', '|'), ('ల', '|'), ('నొ', 'U'), ('ప్ప', '|'), ('దే', 'U'), ('లిం', 'U'), ('చి', '|'), ('వా', 'U'), ('రి', '|'), ('ధి', '|'), ('గ', 'U'), ('ట్టిం', 'U'), ('చు', '|'), ('వా', 'U'), ('రు', '|'), ('గ', '|'), ('ల', '|'), ('రె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నారి యెరుఁగవు రామావతార మహిమ | యింతవాడని నా గుణమెంచనేలనా యూరి పేర్విను తాడిమళ్ళ | రాజగోపాలుడందురే రమణి నన్ను.</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>నారి యెరుఁగవు రామావతార మహిమ | యింతవాడని నా గుణమెంచనేలనా యూరి పేర్విను తాడిమళ్ళ | రాజగోపాలుడందురే రమణి నన్ను.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
           <t>[('నా', 'U'), ('రి', '|'), ('యె', '|'), ('రు', '|'), ('గ', '|'), ('వు', '|'), ('రా', 'U'), ('మా', 'U'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('మ', '|'), ('హి', '|'), ('మ', '|'), ('యిం', 'U'), ('త', '|'), ('వా', 'U'), ('డ', '|'), ('ని', '|'), ('నా', 'U'), ('గు', '|'), ('ణ', '|'), ('మెం', 'U'), ('చ', '|'), ('నే', 'U'), ('ల', '|'), ('నా', 'U'), ('యూ', 'U'), ('రి', '|'), ('పే', 'U'), ('ర్వి', '|'), ('ను', '|'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('లు', '|'), ('డం', 'U'), ('దు', '|'), ('రే', 'U'), ('ర', '|'), ('మ', '|'), ('ణి', '|'), ('న', 'U'), ('న్ను', '|')]</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>నిర్మింపగలవాడు నీలుఁడుండఁగ గదా వారిధి బంధించి వచ్చినావుబడలికచే నిద్ర భ్రమసియుండఁగ గదా కుంభకర్ణుని నేల గూల్చినావుదైవగతికి దప్పు దనుజులనందఱ సంహరించను నీవు చాలినావుయింతటివాఁడవై యింద్రజిత్తుని నాగపాశముచే జిక్కి బడలినావు</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>నిర్మింపగలవాడు నీలుఁడుండఁగ గదా వారిధి బంధించి వచ్చినావుబడలికచే నిద్ర భ్రమసియుండఁగ గదా కుంభకర్ణుని నేల గూల్చినావుదైవగతికి దప్పు దనుజులనందఱ సంహరించను నీవు చాలినావుయింతటివాఁడవై యింద్రజిత్తుని నాగపాశముచే జిక్కి బడలినావు</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
           <t>[('ని', '|'), ('ర్మిం', 'U'), ('ప', '|'), ('గ', '|'), ('ల', '|'), ('వా', 'U'), ('డు', '|'), ('నీ', 'U'), ('లు', '|'), ('డుం', 'U'), ('డ', '|'), ('గ', '|'), ('గ', '|'), ('దా', 'U'), ('వా', 'U'), ('రి', '|'), ('ధి', '|'), ('బం', 'U'), ('ధిం', 'U'), ('చి', '|'), ('వ', 'U'), ('చ్చి', '|'), ('నా', 'U'), ('వు', '|'), ('బ', '|'), ('డ', '|'), ('లి', '|'), ('క', '|'), ('చే', 'U'), ('ని', '|'), ('ద్ర', 'U'), ('భ్ర', '|'), ('మ', '|'), ('సి', '|'), ('యుం', 'U'), ('డ', '|'), ('గ', '|'), ('గ', '|'), ('దా', 'U'), ('కుం', 'U'), ('భ', '|'), ('క', 'U'), ('ర్ణు', '|'), ('ని', '|'), ('నే', 'U'), ('ల', '|'), ('గూ', 'U'), ('ల్చి', '|'), ('నా', 'U'), ('వు', '|'), ('దై', 'U'), ('వ', '|'), ('గ', '|'), ('తి', '|'), ('కి', '|'), ('ద', 'U'), ('ప్పు', '|'), ('ద', '|'), ('ను', '|'), ('జు', '|'), ('ల', '|'), ('నం', 'U'), ('ద', '|'), ('ఱ', '|'), ('సం', 'U'), ('హ', '|'), ('రిం', 'U'), ('చ', '|'), ('ను', '|'), ('నీ', 'U'), ('వు', '|'), ('చా', 'U'), ('లి', '|'), ('నా', 'U'), ('వు', '|'), ('యిం', 'U'), ('త', '|'), ('టి', '|'), ('వా', 'U'), ('డ', '|'), ('వై', 'U'), ('యిం', 'U'), ('ద్ర', '|'), ('జి', 'U'), ('త్తు', '|'), ('ని', '|'), ('నా', 'U'), ('గ', '|'), ('పా', 'U'), ('శ', '|'), ('ము', '|'), ('చే', 'U'), ('జి', 'U'), ('క్కి', '|'), ('బ', '|'), ('డ', '|'), ('లి', '|'), ('నా', 'U'), ('వు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నేనెరుఁగుదు నీదు మహాత్మ్యమిపుడు | నవ్వరే నిన్ను విన్నవారెవ్వరయినదగవులున్నది మనమధ్య తాడిమళ్ళ | రాజగోపాల రావయ్య రమణి గూడ.</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>నేనెరుఁగుదు నీదు మహాత్మ్యమిపుడు | నవ్వరే నిన్ను విన్నవారెవ్వరయినదగవులున్నది మనమధ్య తాడిమళ్ళ | రాజగోపాల రావయ్య రమణి గూడ.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
           <t>[('నే', 'U'), ('నె', '|'), ('రు', '|'), ('గు', '|'), ('దు', '|'), ('నీ', 'U'), ('దు', '|'), ('మ', '|'), ('హా', 'U'), ('త్మ్య', '|'), ('మి', '|'), ('పు', '|'), ('డు', '|'), ('న', 'U'), ('వ్వ', '|'), ('రే', 'U'), ('ని', 'U'), ('న్ను', '|'), ('వి', 'U'), ('న్న', '|'), ('వా', 'U'), ('రె', 'U'), ('వ్వ', '|'), ('ర', '|'), ('యి', '|'), ('న', '|'), ('ద', '|'), ('గ', '|'), ('వు', '|'), ('లు', 'U'), ('న్న', '|'), ('ది', '|'), ('మ', '|'), ('న', '|'), ('మ', 'U'), ('ధ్య', '|'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('రా', 'U'), ('వ', 'U'), ('య్య', '|'), ('ర', '|'), ('మ', '|'), ('ణి', '|'), ('గూ', 'U'), ('డ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>మగువరో కాళిందిమడువులోపల గ్రుంకి ఫణిగర్వ మే నెడబాపినానువనిత నరయబోయి వాలి నా క్షణమందు గురిబెట్టి దెబ్బను గూల్చినానువనజాక్షిరో ఱాళ్ళవానలు గురియగా బలుకొండ గొడుగుగా బట్టినానుపశువులతో చిన్నిబాలుఁడనయియుండి గోవుల పాల్వెన్న గ్రోలినాను</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>మగువరో కాళిందిమడువులోపల గ్రుంకి ఫణిగర్వ మే నెడబాపినానువనిత నరయబోయి వాలి నా క్షణమందు గురిబెట్టి దెబ్బను గూల్చినానువనజాక్షిరో ఱాళ్ళవానలు గురియగా బలుకొండ గొడుగుగా బట్టినానుపశువులతో చిన్నిబాలుఁడనయియుండి గోవుల పాల్వెన్న గ్రోలినాను</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('గు', '|'), ('వ', '|'), ('రో', 'U'), ('కా', 'U'), ('ళిం', 'U'), ('ది', '|'), ('మ', '|'), ('డు', '|'), ('వు', '|'), ('లో', 'U'), ('ప', '|'), ('ల', 'U'), ('గ్రుం', 'U'), ('కి', '|'), ('ఫ', '|'), ('ణి', '|'), ('గ', 'U'), ('ర్వ', '|'), ('మే', 'U'), ('నె', '|'), ('డ', '|'), ('బా', 'U'), ('పి', '|'), ('నా', 'U'), ('ను', '|'), ('వ', '|'), ('ని', '|'), ('త', '|'), ('న', '|'), ('ర', '|'), ('య', '|'), ('బో', 'U'), ('యి', '|'), ('వా', 'U'), ('లి', '|'), ('నా', 'U'), ('క్ష', '|'), ('ణ', '|'), ('మం', 'U'), ('దు', '|'), ('గు', '|'), ('రి', '|'), ('బె', 'U'), ('ట్టి', '|'), ('దె', 'U'), ('బ్బ', '|'), ('ను', '|'), ('గూ', 'U'), ('ల్చి', '|'), ('నా', 'U'), ('ను', '|'), ('వ', '|'), ('న', '|'), ('జా', 'U'), ('క్షి', '|'), ('రో', 'U'), ('ఱా', 'U'), ('ళ్ళ', '|'), ('వా', 'U'), ('న', '|'), ('లు', '|'), ('గు', '|'), ('రి', '|'), ('య', '|'), ('గా', 'U'), ('బ', '|'), ('లు', '|'), ('కొం', 'U'), ('డ', '|'), ('గొ', '|'), ('డు', '|'), ('గు', '|'), ('గా', 'U'), ('బ', 'U'), ('ట్టి', '|'), ('నా', 'U'), ('ను', '|'), ('ప', '|'), ('శు', '|'), ('వు', '|'), ('ల', '|'), ('తో', 'U'), ('చి', 'U'), ('న్ని', '|'), ('బా', 'U'), ('లు', '|'), ('డ', '|'), ('న', '|'), ('యి', '|'), ('యుం', 'U'), ('డి', '|'), ('గో', 'U'), ('వు', '|'), ('ల', '|'), ('పా', 'U'), ('ల్వె', 'U'), ('న్న', 'U'), ('గ్రో', 'U'), ('లి', '|'), ('నా', 'U'), ('ను', '|')]</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>ముదితరో యిట్టి యవతారమూర్తినైన | నన్ను దూషింప నిది నీకు న్యాయమటనెనా యూరి పేర్విను తాడిమళ్ల | రాజగోపాలుఁడందురే రమణి నన్ను.</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>ముదితరో యిట్టి యవతారమూర్తినైన | నన్ను దూషింప నిది నీకు న్యాయమటనెనా యూరి పేర్విను తాడిమళ్ల | రాజగోపాలుఁడందురే రమణి నన్ను.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
           <t>[('ము', '|'), ('ది', '|'), ('త', '|'), ('రో', 'U'), ('యి', 'U'), ('ట్టి', '|'), ('య', '|'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('నై', 'U'), ('న', '|'), ('న', 'U'), ('న్ను', '|'), ('దూ', 'U'), ('షిం', 'U'), ('ప', '|'), ('ని', '|'), ('ది', '|'), ('నీ', 'U'), ('కు', 'U'), ('న్యా', 'U'), ('య', '|'), ('మ', '|'), ('ట', '|'), ('నె', '|'), ('నా', 'U'), ('యూ', 'U'), ('రి', '|'), ('పే', 'U'), ('ర్వి', '|'), ('ను', '|'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ల', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('లు', '|'), ('డం', 'U'), ('దు', '|'), ('రే', 'U'), ('ర', '|'), ('మ', '|'), ('ణి', '|'), ('న', 'U'), ('న్ను', '|')]</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>చెలగుచు నీ వొక్క చెట్టుచాటుననుండి వాలిని నేయుట వరుస గాదుఊరక పడియున్న యురగంబుపై నీవు పాదంబు మోపుట ప్రజ్ఞ గాదువానకోసము నీవు వలి బట్టియుండగా బర్వతమెత్తుట బరువు గాదుమందగొల్లలతోన బొందుగా మెలఁగుచు బాలన్ని గ్రోలుట లీల గాదు</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>చెలగుచు నీ వొక్క చెట్టుచాటుననుండి వాలిని నేయుట వరుస గాదుఊరక పడియున్న యురగంబుపై నీవు పాదంబు మోపుట ప్రజ్ఞ గాదువానకోసము నీవు వలి బట్టియుండగా బర్వతమెత్తుట బరువు గాదుమందగొల్లలతోన బొందుగా మెలఁగుచు బాలన్ని గ్రోలుట లీల గాదు</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
           <t>[('చె', '|'), ('ల', '|'), ('గు', '|'), ('చు', '|'), ('నీ', 'U'), ('వొ', 'U'), ('క్క', '|'), ('చె', 'U'), ('ట్టు', '|'), ('చా', 'U'), ('టు', '|'), ('న', '|'), ('నుం', 'U'), ('డి', '|'), ('వా', 'U'), ('లి', '|'), ('ని', '|'), ('నే', 'U'), ('యు', '|'), ('ట', '|'), ('వ', '|'), ('రు', '|'), ('స', '|'), ('గా', 'U'), ('దు', '|'), ('ఊ', 'U'), ('ర', '|'), ('క', '|'), ('ప', '|'), ('డి', '|'), ('యు', 'U'), ('న్న', '|'), ('యు', '|'), ('ర', '|'), ('గం', 'U'), ('బు', '|'), ('పై', 'U'), ('నీ', 'U'), ('వు', '|'), ('పా', 'U'), ('దం', 'U'), ('బు', '|'), ('మో', 'U'), ('పు', '|'), ('ట', 'U'), ('ప్ర', 'U'), ('జ్ఞ', '|'), ('గా', 'U'), ('దు', '|'), ('వా', 'U'), ('న', '|'), ('కో', 'U'), ('స', '|'), ('ము', '|'), ('నీ', 'U'), ('వు', '|'), ('వ', '|'), ('లి', '|'), ('బ', 'U'), ('ట్టి', '|'), ('యుం', 'U'), ('డ', '|'), ('గా', 'U'), ('బ', 'U'), ('ర్వ', '|'), ('త', '|'), ('మె', 'U'), ('త్తు', '|'), ('ట', '|'), ('బ', '|'), ('రు', '|'), ('వు', '|'), ('గా', 'U'), ('దు', '|'), ('మం', 'U'), ('ద', '|'), ('గొ', 'U'), ('ల్ల', '|'), ('ల', '|'), ('తో', 'U'), ('న', '|'), ('బొం', 'U'), ('దు', '|'), ('గా', 'U'), ('మె', '|'), ('ల', '|'), ('గు', '|'), ('చు', '|'), ('బా', 'U'), ('ల', 'U'), ('న్ని', 'U'), ('గ్రో', 'U'), ('లు', '|'), ('ట', '|'), ('లీ', 'U'), ('ల', '|'), ('గా', 'U'), ('దు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>గాన నీయొక్క ప్రజ్ఞలు గట్టిపెట్టి | రాజసముతోడ నుండుడు తేజమలరతగవులున్నది మనమధ్య తాడిమళ్ళ | రాజగోపాల రావయ్య రమణి గూడ.</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>గాన నీయొక్క ప్రజ్ఞలు గట్టిపెట్టి | రాజసముతోడ నుండుడు తేజమలరతగవులున్నది మనమధ్య తాడిమళ్ళ | రాజగోపాల రావయ్య రమణి గూడ.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
           <t>[('గా', 'U'), ('న', '|'), ('నీ', 'U'), ('యొ', 'U'), ('క్క', 'U'), ('ప్ర', 'U'), ('జ్ఞ', '|'), ('లు', '|'), ('గ', 'U'), ('ట్టి', '|'), ('పె', 'U'), ('ట్టి', '|'), ('రా', 'U'), ('జ', '|'), ('స', '|'), ('ము', '|'), ('తో', 'U'), ('డ', '|'), ('నుం', 'U'), ('డు', '|'), ('డు', '|'), ('తే', 'U'), ('జ', '|'), ('మ', '|'), ('ల', '|'), ('ర', '|'), ('త', '|'), ('గ', '|'), ('వు', '|'), ('లు', 'U'), ('న్న', '|'), ('ది', '|'), ('మ', '|'), ('న', '|'), ('మ', 'U'), ('ధ్య', '|'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('రా', 'U'), ('వ', 'U'), ('య్య', '|'), ('ర', '|'), ('మ', '|'), ('ణి', '|'), ('గూ', 'U'), ('డ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>రాచకులముఁ బుట్టి రాజునై యుండగా రాజసముండదే రమణి నాకునతివరో యటుగాక యన్యులకెందైన రాజసంబబ్బునే రమణి వినవెనాతిరో విను పదునాలులోకంబులు నోరన నా కుక్షి నుంచికొనుచుజిన్నతనమ్మునఁ జిన్నెలుజూపిన నింతిరో నీవది యెఱుఁగవటవె</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>రాచకులముఁ బుట్టి రాజునై యుండగా రాజసముండదే రమణి నాకునతివరో యటుగాక యన్యులకెందైన రాజసంబబ్బునే రమణి వినవెనాతిరో విను పదునాలులోకంబులు నోరన నా కుక్షి నుంచికొనుచుజిన్నతనమ్మునఁ జిన్నెలుజూపిన నింతిరో నీవది యెఱుఁగవటవె</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
           <t>[('రా', 'U'), ('చ', '|'), ('కు', '|'), ('ల', '|'), ('ము', '|'), ('బు', 'U'), ('ట్టి', '|'), ('రా', 'U'), ('జు', '|'), ('నై', 'U'), ('యుం', 'U'), ('డ', '|'), ('గా', 'U'), ('రా', 'U'), ('జ', '|'), ('స', '|'), ('ముం', 'U'), ('డ', '|'), ('దే', 'U'), ('ర', '|'), ('మ', '|'), ('ణి', '|'), ('నా', 'U'), ('కు', '|'), ('న', '|'), ('తి', '|'), ('వ', '|'), ('రో', 'U'), ('య', '|'), ('టు', '|'), ('గా', 'U'), ('క', '|'), ('య', 'U'), ('న్యు', '|'), ('ల', '|'), ('కెం', 'U'), ('దై', 'U'), ('న', '|'), ('రా', 'U'), ('జ', '|'), ('సం', 'U'), ('బ', 'U'), ('బ్బు', '|'), ('నే', 'U'), ('ర', '|'), ('మ', '|'), ('ణి', '|'), ('వి', '|'), ('న', '|'), ('వె', '|'), ('నా', 'U'), ('తి', '|'), ('రో', 'U'), ('వి', '|'), ('ను', '|'), ('ప', '|'), ('దు', '|'), ('నా', 'U'), ('లు', '|'), ('లో', 'U'), ('కం', 'U'), ('బు', '|'), ('లు', '|'), ('నో', 'U'), ('ర', '|'), ('న', '|'), ('నా', 'U'), ('కు', 'U'), ('క్షి', '|'), ('నుం', 'U'), ('చి', '|'), ('కొ', '|'), ('ను', '|'), ('చు', '|'), ('జి', 'U'), ('న్న', '|'), ('త', '|'), ('న', 'U'), ('మ్ము', '|'), ('న', '|'), ('జి', 'U'), ('న్నె', '|'), ('లు', '|'), ('జూ', 'U'), ('పి', '|'), ('న', '|'), ('నిం', 'U'), ('తి', '|'), ('రో', 'U'), ('నీ', 'U'), ('వ', '|'), ('ది', '|'), ('యె', '|'), ('ఱు', '|'), ('గ', '|'), ('వ', '|'), ('ట', '|'), ('వె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>యాడుదానవు గనుక నీ యర్థమెల్ల | దెలిసి తెలియనితనమెల్ల దేటపడియెనా యూరి పేర్విను తాడిమళ్ళ | రాజగోపాలుడందురే రమణి నన్ను.</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>యాడుదానవు గనుక నీ యర్థమెల్ల | దెలిసి తెలియనితనమెల్ల దేటపడియెనా యూరి పేర్విను తాడిమళ్ళ | రాజగోపాలుడందురే రమణి నన్ను.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
           <t>[('యా', 'U'), ('డు', '|'), ('దా', 'U'), ('న', '|'), ('వు', '|'), ('గ', '|'), ('ను', '|'), ('క', '|'), ('నీ', 'U'), ('య', 'U'), ('ర్థ', '|'), ('మె', 'U'), ('ల్ల', '|'), ('దె', '|'), ('లి', '|'), ('సి', '|'), ('తె', '|'), ('లి', '|'), ('య', '|'), ('ని', '|'), ('త', '|'), ('న', '|'), ('మె', 'U'), ('ల్ల', '|'), ('దే', 'U'), ('ట', '|'), ('ప', '|'), ('డి', '|'), ('యె', '|'), ('నా', 'U'), ('యూ', 'U'), ('రి', '|'), ('పే', 'U'), ('ర్వి', '|'), ('ను', '|'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('లు', '|'), ('డం', 'U'), ('దు', '|'), ('రే', 'U'), ('ర', '|'), ('మ', '|'), ('ణి', '|'), ('న', 'U'), ('న్ను', '|')]</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>చిన్నతనమ్మున జిన్నవాండ్రను గూడి బాగుగానుందువే పరమపురుషయవతారమూర్తివం చలివేణులందరున్ భ్రాంతిచేతను నిన్ను బ్రస్తుతింపనా లక్ష్మితోడుత నానందముగ గూడి పొందుగా నుంటివే సుందరాంగరమణులందఱు గూడి రవ్వలు బెట్టిన చెట్ల నెక్కుట నీకు చెల్లమగునె</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>చిన్నతనమ్మున జిన్నవాండ్రను గూడి బాగుగానుందువే పరమపురుషయవతారమూర్తివం చలివేణులందరున్ భ్రాంతిచేతను నిన్ను బ్రస్తుతింపనా లక్ష్మితోడుత నానందముగ గూడి పొందుగా నుంటివే సుందరాంగరమణులందఱు గూడి రవ్వలు బెట్టిన చెట్ల నెక్కుట నీకు చెల్లమగునె</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
           <t>[('చి', 'U'), ('న్న', '|'), ('త', '|'), ('న', 'U'), ('మ్ము', '|'), ('న', '|'), ('జి', 'U'), ('న్న', '|'), ('వాం', 'U'), ('డ్ర', '|'), ('ను', '|'), ('గూ', 'U'), ('డి', '|'), ('బా', 'U'), ('గు', '|'), ('గా', 'U'), ('నుం', 'U'), ('దు', '|'), ('వే', 'U'), ('ప', '|'), ('ర', '|'), ('మ', '|'), ('పు', '|'), ('రు', '|'), ('ష', '|'), ('య', '|'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('వం', 'U'), ('చ', '|'), ('లి', '|'), ('వే', 'U'), ('ణు', '|'), ('లం', 'U'), ('ద', '|'), ('రున్', 'U'), ('భ్రాం', 'U'), ('తి', '|'), ('చే', 'U'), ('త', '|'), ('ను', '|'), ('ని', 'U'), ('న్ను', 'U'), ('బ్ర', 'U'), ('స్తు', '|'), ('తిం', 'U'), ('ప', '|'), ('నా', 'U'), ('ల', 'U'), ('క్ష్మి', '|'), ('తో', 'U'), ('డు', '|'), ('త', '|'), ('నా', 'U'), ('నం', 'U'), ('ద', '|'), ('ము', '|'), ('గ', '|'), ('గూ', 'U'), ('డి', '|'), ('పొం', 'U'), ('దు', '|'), ('గా', 'U'), ('నుం', 'U'), ('టి', '|'), ('వే', 'U'), ('సుం', 'U'), ('ద', '|'), ('రాం', 'U'), ('గ', '|'), ('ర', '|'), ('మ', '|'), ('ణు', '|'), ('లం', 'U'), ('ద', '|'), ('ఱు', '|'), ('గూ', 'U'), ('డి', '|'), ('ర', 'U'), ('వ్వ', '|'), ('లు', '|'), ('బె', 'U'), ('ట్టి', '|'), ('న', '|'), ('చె', 'U'), ('ట్ల', '|'), ('నె', 'U'), ('క్కు', '|'), ('ట', '|'), ('నీ', 'U'), ('కు', '|'), ('చె', 'U'), ('ల్ల', '|'), ('మ', '|'), ('గు', '|'), ('నె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>యౌర కృష్ణావతారము నతిశయంబు- | లింతయేకాని మఱి మిక్కిలి లేమిలేదుతగవులున్నది మనమధ్య తాడిమళ్ళ | రాజగోపాల రావయ్య రమణి గూడ.</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>యౌర కృష్ణావతారము నతిశయంబు- | లింతయేకాని మఱి మిక్కిలి లేమిలేదుతగవులున్నది మనమధ్య తాడిమళ్ళ | రాజగోపాల రావయ్య రమణి గూడ.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
           <t>[('యౌ', 'U'), ('ర', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('తి', '|'), ('శ', '|'), ('యం', 'U'), ('బు', '|'), ('లిం', 'U'), ('త', '|'), ('యే', 'U'), ('కా', 'U'), ('ని', '|'), ('మ', '|'), ('ఱి', '|'), ('మి', 'U'), ('క్కి', '|'), ('లి', '|'), ('లే', 'U'), ('మి', '|'), ('లే', 'U'), ('దు', '|'), ('త', '|'), ('గ', '|'), ('వు', '|'), ('లు', 'U'), ('న్న', '|'), ('ది', '|'), ('మ', '|'), ('న', '|'), ('మ', 'U'), ('ధ్య', '|'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('రా', 'U'), ('వ', 'U'), ('య్య', '|'), ('ర', '|'), ('మ', '|'), ('ణి', '|'), ('గూ', 'U'), ('డ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>కృష్ణావతారము గుణము నెంచగనేల మగువ నా యవతారమహిమ వినవెరమణిరో మునులెల్ల రామావతారమం దాలింగనము సేయ నలరుచుండకోరిన వరములు కృష్ణావతారమునందు మీకబ్బెడునంచు బలుకనా వరమునులు కృష్ణావతారంబున రమణులై కలసిరి క్రమముతోడ</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>కృష్ణావతారము గుణము నెంచగనేల మగువ నా యవతారమహిమ వినవెరమణిరో మునులెల్ల రామావతారమం దాలింగనము సేయ నలరుచుండకోరిన వరములు కృష్ణావతారమునందు మీకబ్బెడునంచు బలుకనా వరమునులు కృష్ణావతారంబున రమణులై కలసిరి క్రమముతోడ</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
           <t>[('కృ', 'U'), ('ష్ణా', 'U'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('ము', '|'), ('గు', '|'), ('ణ', '|'), ('ము', '|'), ('నెం', 'U'), ('చ', '|'), ('గ', '|'), ('నే', 'U'), ('ల', '|'), ('మ', '|'), ('గు', '|'), ('వ', '|'), ('నా', 'U'), ('య', '|'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('మ', '|'), ('హి', '|'), ('మ', '|'), ('వి', '|'), ('న', '|'), ('వె', '|'), ('ర', '|'), ('మ', '|'), ('ణి', '|'), ('రో', 'U'), ('ము', '|'), ('ను', '|'), ('లె', 'U'), ('ల్ల', '|'), ('రా', 'U'), ('మా', 'U'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('మం', 'U'), ('దా', 'U'), ('లిం', 'U'), ('గ', '|'), ('న', '|'), ('ము', '|'), ('సే', 'U'), ('య', '|'), ('న', '|'), ('ల', '|'), ('రు', '|'), ('చుం', 'U'), ('డ', '|'), ('కో', 'U'), ('రి', '|'), ('న', '|'), ('వ', '|'), ('ర', '|'), ('ము', '|'), ('లు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('మీ', 'U'), ('క', 'U'), ('బ్బె', '|'), ('డు', '|'), ('నం', 'U'), ('చు', '|'), ('బ', '|'), ('లు', '|'), ('క', '|'), ('నా', 'U'), ('వ', '|'), ('ర', '|'), ('ము', '|'), ('ను', '|'), ('లు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('వ', '|'), ('తా', 'U'), ('రం', 'U'), ('బు', '|'), ('న', '|'), ('ర', '|'), ('మ', '|'), ('ణు', '|'), ('లై', 'U'), ('క', '|'), ('ల', '|'), ('సి', '|'), ('రి', 'U'), ('క్ర', '|'), ('మ', '|'), ('ము', '|'), ('తో', 'U'), ('డ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>మగువరో నాదు అవతారమహిమలెల్ల | దెలియజెప్పితి నీకునుఁ దేటపడగనా యూరి పేర్విను తాడిమళ్ళ | రాజగోపాలుడందురే రమణి నన్ను.</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>మగువరో నాదు అవతారమహిమలెల్ల | దెలియజెప్పితి నీకునుఁ దేటపడగనా యూరి పేర్విను తాడిమళ్ళ | రాజగోపాలుడందురే రమణి నన్ను.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('గు', '|'), ('వ', '|'), ('రో', 'U'), ('నా', 'U'), ('దు', '|'), ('అ', '|'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('మ', '|'), ('హి', '|'), ('మ', '|'), ('లె', 'U'), ('ల్ల', '|'), ('దె', '|'), ('లి', '|'), ('య', '|'), ('జె', 'U'), ('ప్పి', '|'), ('తి', '|'), ('నీ', 'U'), ('కు', '|'), ('ను', '|'), ('దే', 'U'), ('ట', '|'), ('ప', '|'), ('డ', '|'), ('గ', '|'), ('నా', 'U'), ('యూ', 'U'), ('రి', '|'), ('పే', 'U'), ('ర్వి', '|'), ('ను', '|'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('లు', '|'), ('డం', 'U'), ('దు', '|'), ('రే', 'U'), ('ర', '|'), ('మ', '|'), ('ణి', '|'), ('న', 'U'), ('న్ను', '|')]</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>పాముమీఁదను జేరి సాము జేసినవాఁడవగుట సద్గుణమెట్లు వచ్చు నీకుపాలీయవచ్చిన పడతి జంపినవాఁడ చెలులపై నెనరేల గలుగు నీకుమేనమామను గంసు మీఱి త్రుంచినవాడ నెనరుమాటల నేమి నీకు ఘనతపసులగాపరివాండ్ర పలుకులు వినువాడ భావజు రతి నేమి భ్రాంతి నీకు</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>పాముమీఁదను జేరి సాము జేసినవాఁడవగుట సద్గుణమెట్లు వచ్చు నీకుపాలీయవచ్చిన పడతి జంపినవాఁడ చెలులపై నెనరేల గలుగు నీకుమేనమామను గంసు మీఱి త్రుంచినవాడ నెనరుమాటల నేమి నీకు ఘనతపసులగాపరివాండ్ర పలుకులు వినువాడ భావజు రతి నేమి భ్రాంతి నీకు</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
           <t>[('పా', 'U'), ('ము', '|'), ('మీ', 'U'), ('ద', '|'), ('ను', '|'), ('జే', 'U'), ('రి', '|'), ('సా', 'U'), ('ము', '|'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('వా', 'U'), ('డ', '|'), ('వ', '|'), ('గు', '|'), ('ట', '|'), ('స', 'U'), ('ద్గు', '|'), ('ణ', '|'), ('మె', 'U'), ('ట్లు', '|'), ('వ', 'U'), ('చ్చు', '|'), ('నీ', 'U'), ('కు', '|'), ('పా', 'U'), ('లీ', 'U'), ('య', '|'), ('వ', 'U'), ('చ్చి', '|'), ('న', '|'), ('ప', '|'), ('డ', '|'), ('తి', '|'), ('జం', 'U'), ('పి', '|'), ('న', '|'), ('వా', 'U'), ('డ', '|'), ('చె', '|'), ('లు', '|'), ('ల', '|'), ('పై', 'U'), ('నె', '|'), ('న', '|'), ('రే', 'U'), ('ల', '|'), ('గ', '|'), ('లు', '|'), ('గు', '|'), ('నీ', 'U'), ('కు', '|'), ('మే', 'U'), ('న', '|'), ('మా', 'U'), ('మ', '|'), ('ను', '|'), ('గం', 'U'), ('సు', '|'), ('మీ', 'U'), ('ఱి', 'U'), ('త్రుం', 'U'), ('చి', '|'), ('న', '|'), ('వా', 'U'), ('డ', '|'), ('నె', '|'), ('న', '|'), ('రు', '|'), ('మా', 'U'), ('ట', '|'), ('ల', '|'), ('నే', 'U'), ('మి', '|'), ('నీ', 'U'), ('కు', '|'), ('ఘ', '|'), ('న', '|'), ('త', '|'), ('ప', '|'), ('సు', '|'), ('ల', '|'), ('గా', 'U'), ('ప', '|'), ('రి', '|'), ('వాం', 'U'), ('డ్ర', '|'), ('ప', '|'), ('లు', '|'), ('కు', '|'), ('లు', '|'), ('వి', '|'), ('ను', '|'), ('వా', 'U'), ('డ', '|'), ('భా', 'U'), ('వ', '|'), ('జు', '|'), ('ర', '|'), ('తి', '|'), ('నే', 'U'), ('మి', 'U'), ('భ్రాం', 'U'), ('తి', '|'), ('నీ', 'U'), ('కు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>జూడు నీ మర్మమెన్నెద సొగసుగాను వాడవాడల నీ సాటివారిలోనతగవులున్నది మనమధ్య తాడిమళ్ళ | రాజగోపాల రావయ్య రమణి గూడ.</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>జూడు నీ మర్మమెన్నెద సొగసుగాను వాడవాడల నీ సాటివారిలోనతగవులున్నది మనమధ్య తాడిమళ్ళ | రాజగోపాల రావయ్య రమణి గూడ.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
           <t>[('జూ', 'U'), ('డు', '|'), ('నీ', 'U'), ('మ', '|'), ('ర్మ', '|'), ('మె', 'U'), ('న్నె', '|'), ('ద', '|'), ('సొ', '|'), ('గ', '|'), ('సు', '|'), ('గా', 'U'), ('ను', '|'), ('వా', 'U'), ('డ', '|'), ('వా', 'U'), ('డ', '|'), ('ల', '|'), ('నీ', 'U'), ('సా', 'U'), ('టి', '|'), ('వా', 'U'), ('రి', '|'), ('లో', 'U'), ('న', '|'), ('త', '|'), ('గ', '|'), ('వు', '|'), ('లు', 'U'), ('న్న', '|'), ('ది', '|'), ('మ', '|'), ('న', '|'), ('మ', 'U'), ('ధ్య', '|'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('రా', 'U'), ('వ', 'U'), ('య్య', '|'), ('ర', '|'), ('మ', '|'), ('ణి', '|'), ('గూ', 'U'), ('డ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>పాముమీఁదను జేరి సాము జేసితివంటె విషమైన జంతువు విడువనగునెపాలీయవచ్చిన పడతి జంపితివంటె దగవుమాలినయట్టి ధర్మమగునెమేనమామను గంసు మీఱి ద్రుంచితివంటె దుష్టనిగ్రహము నదోషమగునుపసులగాపరివాండ్ర పలుకులు వినకుంటె లీలావినోదంపు కేళియగునె</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>పాముమీఁదను జేరి సాము జేసితివంటె విషమైన జంతువు విడువనగునెపాలీయవచ్చిన పడతి జంపితివంటె దగవుమాలినయట్టి ధర్మమగునెమేనమామను గంసు మీఱి ద్రుంచితివంటె దుష్టనిగ్రహము నదోషమగునుపసులగాపరివాండ్ర పలుకులు వినకుంటె లీలావినోదంపు కేళియగునె</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
           <t>[('పా', 'U'), ('ము', '|'), ('మీ', 'U'), ('ద', '|'), ('ను', '|'), ('జే', 'U'), ('రి', '|'), ('సా', 'U'), ('ము', '|'), ('జే', 'U'), ('సి', '|'), ('తి', '|'), ('వం', 'U'), ('టె', '|'), ('వి', '|'), ('ష', '|'), ('మై', 'U'), ('న', '|'), ('జం', 'U'), ('తు', '|'), ('వు', '|'), ('వి', '|'), ('డు', '|'), ('వ', '|'), ('న', '|'), ('గు', '|'), ('నె', '|'), ('పా', 'U'), ('లీ', 'U'), ('య', '|'), ('వ', 'U'), ('చ్చి', '|'), ('న', '|'), ('ప', '|'), ('డ', '|'), ('తి', '|'), ('జం', 'U'), ('పి', '|'), ('తి', '|'), ('వం', 'U'), ('టె', '|'), ('ద', '|'), ('గ', '|'), ('వు', '|'), ('మా', 'U'), ('లి', '|'), ('న', '|'), ('య', 'U'), ('ట్టి', '|'), ('ధ', '|'), ('ర్మ', '|'), ('మ', '|'), ('గు', '|'), ('నె', '|'), ('మే', 'U'), ('న', '|'), ('మా', 'U'), ('మ', '|'), ('ను', '|'), ('గం', 'U'), ('సు', '|'), ('మీ', 'U'), ('ఱి', '|'), ('ద్రుం', 'U'), ('చి', '|'), ('తి', '|'), ('వం', 'U'), ('టె', '|'), ('దు', 'U'), ('ష్ట', '|'), ('ని', 'U'), ('గ్ర', '|'), ('హ', '|'), ('ము', '|'), ('న', '|'), ('దో', 'U'), ('ష', '|'), ('మ', '|'), ('గు', '|'), ('ను', '|'), ('ప', '|'), ('సు', '|'), ('ల', '|'), ('గా', 'U'), ('ప', '|'), ('రి', '|'), ('వాం', 'U'), ('డ్ర', '|'), ('ప', '|'), ('లు', '|'), ('కు', '|'), ('లు', '|'), ('వి', '|'), ('న', '|'), ('కుం', 'U'), ('టె', '|'), ('లీ', 'U'), ('లా', 'U'), ('వి', '|'), ('నో', 'U'), ('దం', 'U'), ('పు', '|'), ('కే', 'U'), ('ళి', '|'), ('య', '|'), ('గు', '|'), ('నె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>మిగుల తలపులు సేతురే మగువలెల్ల | గుట్టు బైటను వేసిన కొదవ కాదేనా యూరి పేర్విను తాడిమళ్ళ | రాజగోపాలుడందురే రమణి నన్ను.</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>మిగుల తలపులు సేతురే మగువలెల్ల | గుట్టు బైటను వేసిన కొదవ కాదేనా యూరి పేర్విను తాడిమళ్ళ | రాజగోపాలుడందురే రమణి నన్ను.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
           <t>[('మి', '|'), ('గు', '|'), ('ల', '|'), ('త', '|'), ('ల', '|'), ('పు', '|'), ('లు', '|'), ('సే', 'U'), ('తు', '|'), ('రే', 'U'), ('మ', '|'), ('గు', '|'), ('వ', '|'), ('లె', 'U'), ('ల్ల', '|'), ('గు', 'U'), ('ట్టు', '|'), ('బై', 'U'), ('ట', '|'), ('ను', '|'), ('వే', 'U'), ('సి', '|'), ('న', '|'), ('కొ', '|'), ('ద', '|'), ('వ', '|'), ('కా', 'U'), ('దే', 'U'), ('నా', 'U'), ('యూ', 'U'), ('రి', '|'), ('పే', 'U'), ('ర్వి', '|'), ('ను', '|'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('లు', '|'), ('డం', 'U'), ('దు', '|'), ('రే', 'U'), ('ర', '|'), ('మ', '|'), ('ణి', '|'), ('న', 'U'), ('న్ను', '|')]</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>నాదు మేలెఱింగించి నా ప్రాణవల్లభుఁ గూర్చి రక్షింపరే కొమ్మలారననువొందగా వాని న్యాయంపుపూటల దయబుట్ట నాడరే తరుణులారకలికిపల్కుల వాని కాఠిన్యహృదయంబు గరుగంగ జేయరే కాంతలారదయగల చెలులైన తఱిదీపు పుట్టించి వేగమాతని దేరె వెలదులార</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>నాదు మేలెఱింగించి నా ప్రాణవల్లభుఁ గూర్చి రక్షింపరే కొమ్మలారననువొందగా వాని న్యాయంపుపూటల దయబుట్ట నాడరే తరుణులారకలికిపల్కుల వాని కాఠిన్యహృదయంబు గరుగంగ జేయరే కాంతలారదయగల చెలులైన తఱిదీపు పుట్టించి వేగమాతని దేరె వెలదులార</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
           <t>[('నా', 'U'), ('దు', '|'), ('మే', 'U'), ('లె', '|'), ('ఱిం', 'U'), ('గిం', 'U'), ('చి', '|'), ('నా', 'U'), ('ప్రా', 'U'), ('ణ', '|'), ('వ', 'U'), ('ల్ల', '|'), ('భు', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('రే', 'U'), ('కొ', 'U'), ('మ్మ', '|'), ('లా', 'U'), ('ర', '|'), ('న', '|'), ('ను', '|'), ('వొం', 'U'), ('ద', '|'), ('గా', 'U'), ('వా', 'U'), ('ని', 'U'), ('న్యా', 'U'), ('యం', 'U'), ('పు', '|'), ('పూ', 'U'), ('ట', '|'), ('ల', '|'), ('ద', '|'), ('య', '|'), ('బు', 'U'), ('ట్ట', '|'), ('నా', 'U'), ('డ', '|'), ('రే', 'U'), ('త', '|'), ('రు', '|'), ('ణు', '|'), ('లా', 'U'), ('ర', '|'), ('క', '|'), ('లి', '|'), ('కి', '|'), ('ప', 'U'), ('ల్కు', '|'), ('ల', '|'), ('వా', 'U'), ('ని', '|'), ('కా', 'U'), ('ఠి', 'U'), ('న్య', '|'), ('హృ', '|'), ('ద', '|'), ('యం', 'U'), ('బు', '|'), ('గ', '|'), ('రు', '|'), ('గం', 'U'), ('గ', '|'), ('జే', 'U'), ('య', '|'), ('రే', 'U'), ('కాం', 'U'), ('త', '|'), ('లా', 'U'), ('ర', '|'), ('ద', '|'), ('య', '|'), ('గ', '|'), ('ల', '|'), ('చె', '|'), ('లు', '|'), ('లై', 'U'), ('న', '|'), ('త', '|'), ('ఱి', '|'), ('దీ', 'U'), ('పు', '|'), ('పు', 'U'), ('ట్టిం', 'U'), ('చి', '|'), ('వే', 'U'), ('గ', '|'), ('మా', 'U'), ('త', '|'), ('ని', '|'), ('దే', 'U'), ('రె', '|'), ('వె', '|'), ('ల', '|'), ('దు', '|'), ('లా', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>వేసరక మీరు నా మాట విన్నవించి | యబల తన నేమిజేసె నింకనుచు బలికివెలదు లెవ్వరైన ద్వారకానిలయుడైన | చిన్నికృష్ణుని దేరమ్మ చెలియలార.</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>వేసరక మీరు నా మాట విన్నవించి | యబల తన నేమిజేసె నింకనుచు బలికివెలదు లెవ్వరైన ద్వారకానిలయుడైన | చిన్నికృష్ణుని దేరమ్మ చెలియలార.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
           <t>[('వే', 'U'), ('స', '|'), ('ర', '|'), ('క', '|'), ('మీ', 'U'), ('రు', '|'), ('నా', 'U'), ('మా', 'U'), ('ట', '|'), ('వి', 'U'), ('న్న', '|'), ('విం', 'U'), ('చి', '|'), ('య', '|'), ('బ', '|'), ('ల', '|'), ('త', '|'), ('న', '|'), ('నే', 'U'), ('మి', '|'), ('జే', 'U'), ('సె', '|'), ('నిం', 'U'), ('క', '|'), ('ను', '|'), ('చు', '|'), ('బ', '|'), ('లి', '|'), ('కి', '|'), ('వె', '|'), ('ల', '|'), ('దు', '|'), ('లె', 'U'), ('వ్వ', '|'), ('రై', 'U'), ('న', 'U'), ('ద్వా', 'U'), ('ర', '|'), ('కా', 'U'), ('ని', '|'), ('ల', '|'), ('యు', '|'), ('డై', 'U'), ('న', '|'), ('చి', 'U'), ('న్ని', '|'), ('కృ', 'U'), ('ష్ణు', '|'), ('ని', '|'), ('దే', 'U'), ('ర', 'U'), ('మ్మ', '|'), ('చె', '|'), ('లి', '|'), ('య', '|'), ('లా', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>పతి నన్ను గూర్చరే రతికరువు దీర్చరే మదితాప మార్చరే మగువలారచాన మేలెంచరే జాగు చాలించరే నన్ను లాలించరే కన్యలారకపటంబు వీడరే కరుణతో జూడరే కోరికల దీర్చరే కొమ్మలారవిభు దార్చి గావరే వేడుకల్ సేయరే యిదివేళ బ్రోవరే యింతులార</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>పతి నన్ను గూర్చరే రతికరువు దీర్చరే మదితాప మార్చరే మగువలారచాన మేలెంచరే జాగు చాలించరే నన్ను లాలించరే కన్యలారకపటంబు వీడరే కరుణతో జూడరే కోరికల దీర్చరే కొమ్మలారవిభు దార్చి గావరే వేడుకల్ సేయరే యిదివేళ బ్రోవరే యింతులార</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('తి', '|'), ('న', 'U'), ('న్ను', '|'), ('గూ', 'U'), ('ర్చ', '|'), ('రే', 'U'), ('ర', '|'), ('తి', '|'), ('క', '|'), ('రు', '|'), ('వు', '|'), ('దీ', 'U'), ('ర్చ', '|'), ('రే', 'U'), ('మ', '|'), ('ది', '|'), ('తా', 'U'), ('ప', '|'), ('మా', 'U'), ('ర్చ', '|'), ('రే', 'U'), ('మ', '|'), ('గు', '|'), ('వ', '|'), ('లా', 'U'), ('ర', '|'), ('చా', 'U'), ('న', '|'), ('మే', 'U'), ('లెం', 'U'), ('చ', '|'), ('రే', 'U'), ('జా', 'U'), ('గు', '|'), ('చా', 'U'), ('లిం', 'U'), ('చ', '|'), ('రే', 'U'), ('న', 'U'), ('న్ను', '|'), ('లా', 'U'), ('లిం', 'U'), ('చ', '|'), ('రే', 'U'), ('క', 'U'), ('న్య', '|'), ('లా', 'U'), ('ర', '|'), ('క', '|'), ('ప', '|'), ('టం', 'U'), ('బు', '|'), ('వీ', 'U'), ('డ', '|'), ('రే', 'U'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('తో', 'U'), ('జూ', 'U'), ('డ', '|'), ('రే', 'U'), ('కో', 'U'), ('రి', '|'), ('క', '|'), ('ల', '|'), ('దీ', 'U'), ('ర్చ', '|'), ('రే', 'U'), ('కొ', 'U'), ('మ్మ', '|'), ('లా', 'U'), ('ర', '|'), ('వి', '|'), ('భు', '|'), ('దా', 'U'), ('ర్చి', '|'), ('గా', 'U'), ('వ', '|'), ('రే', 'U'), ('వే', 'U'), ('డు', '|'), ('కల్', 'U'), ('సే', 'U'), ('య', '|'), ('రే', 'U'), ('యి', '|'), ('ది', '|'), ('వే', 'U'), ('ళ', 'U'), ('బ్రో', 'U'), ('వ', '|'), ('రే', 'U'), ('యిం', 'U'), ('తు', '|'), ('లా', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>మదనశతకోటిలావణ్యమహితుడైన | చిన్నికృష్ణుని దేరమ్మ చెలియలారమన్మథుని గన్న శ్రీతాడిమళ్ళవాస | రాజగోపాల రావన్న రమణి గూడ.</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>మదనశతకోటిలావణ్యమహితుడైన | చిన్నికృష్ణుని దేరమ్మ చెలియలారమన్మథుని గన్న శ్రీతాడిమళ్ళవాస | రాజగోపాల రావన్న రమణి గూడ.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('ద', '|'), ('న', '|'), ('శ', '|'), ('త', '|'), ('కో', 'U'), ('టి', '|'), ('లా', 'U'), ('వ', 'U'), ('ణ్య', '|'), ('మ', '|'), ('హి', '|'), ('తు', '|'), ('డై', 'U'), ('న', '|'), ('చి', 'U'), ('న్ని', '|'), ('కృ', 'U'), ('ష్ణు', '|'), ('ని', '|'), ('దే', 'U'), ('ర', 'U'), ('మ్మ', '|'), ('చె', '|'), ('లి', '|'), ('య', '|'), ('లా', 'U'), ('ర', '|'), ('మ', 'U'), ('న్మ', '|'), ('థు', '|'), ('ని', '|'), ('గ', 'U'), ('న్న', 'U'), ('శ్రీ', 'U'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('వా', 'U'), ('స', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('రా', 'U'), ('వ', 'U'), ('న్న', '|'), ('ర', '|'), ('మ', '|'), ('ణి', '|'), ('గూ', 'U'), ('డ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>కమలాక్ష నీతోడ రమియించుటకు వేగ ముదిత రమ్మనినీకు మ్రొక్కెనన్నవెలది నీ భ్రాంతిపై విస్తరించిన యింత విరహాగ్నిజ్వాలల విసికెనన్నమంచముపై బవళించి నిద్రింపక సుదతి నీ రాకను జూచునన్నతడవాయె నెడఁబాసి నేగుచున్నానని పనిబూని నన్నిటు బంపెనన్న</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>కమలాక్ష నీతోడ రమియించుటకు వేగ ముదిత రమ్మనినీకు మ్రొక్కెనన్నవెలది నీ భ్రాంతిపై విస్తరించిన యింత విరహాగ్నిజ్వాలల విసికెనన్నమంచముపై బవళించి నిద్రింపక సుదతి నీ రాకను జూచునన్నతడవాయె నెడఁబాసి నేగుచున్నానని పనిబూని నన్నిటు బంపెనన్న</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('మ', '|'), ('లా', 'U'), ('క్ష', '|'), ('నీ', 'U'), ('తో', 'U'), ('డ', '|'), ('ర', '|'), ('మి', '|'), ('యిం', 'U'), ('చు', '|'), ('ట', '|'), ('కు', '|'), ('వే', 'U'), ('గ', '|'), ('ము', '|'), ('ది', '|'), ('త', '|'), ('ర', 'U'), ('మ్మ', '|'), ('ని', '|'), ('నీ', 'U'), ('కు', '|'), ('మ్రొ', 'U'), ('క్కె', '|'), ('న', 'U'), ('న్న', '|'), ('వె', '|'), ('ల', '|'), ('ది', '|'), ('నీ', 'U'), ('భ్రాం', 'U'), ('తి', '|'), ('పై', 'U'), ('వి', 'U'), ('స్త', '|'), ('రిం', 'U'), ('చి', '|'), ('న', '|'), ('యిం', 'U'), ('త', '|'), ('వి', '|'), ('ర', '|'), ('హా', 'U'), ('గ్ని', 'U'), ('జ్వా', 'U'), ('ల', '|'), ('ల', '|'), ('వి', '|'), ('సి', '|'), ('కె', '|'), ('న', 'U'), ('న్న', '|'), ('మం', 'U'), ('చ', '|'), ('ము', '|'), ('పై', 'U'), ('బ', '|'), ('వ', '|'), ('ళిం', 'U'), ('చి', '|'), ('ని', '|'), ('ద్రిం', 'U'), ('ప', '|'), ('క', '|'), ('సు', '|'), ('ద', '|'), ('తి', '|'), ('నీ', 'U'), ('రా', 'U'), ('క', '|'), ('ను', '|'), ('జూ', 'U'), ('చు', '|'), ('న', 'U'), ('న్న', '|'), ('త', '|'), ('డ', '|'), ('వా', 'U'), ('యె', '|'), ('నె', '|'), ('డ', '|'), ('బా', 'U'), ('సి', '|'), ('నే', 'U'), ('గు', '|'), ('చు', 'U'), ('న్నా', 'U'), ('న', '|'), ('ని', '|'), ('ప', '|'), ('ని', '|'), ('బూ', 'U'), ('ని', '|'), ('న', 'U'), ('న్ని', '|'), ('టు', '|'), ('బం', 'U'), ('పె', '|'), ('న', 'U'), ('న్న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>కమలనాభుండ నామీదఁ గరుణయుంచి | వేగ నిను రమ్మనుచు విన్నవించెనన్నతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>కమలనాభుండ నామీదఁ గరుణయుంచి | వేగ నిను రమ్మనుచు విన్నవించెనన్నతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('మ', '|'), ('ల', '|'), ('నా', 'U'), ('భుం', 'U'), ('డ', '|'), ('నా', 'U'), ('మీ', 'U'), ('ద', '|'), ('గ', '|'), ('రు', '|'), ('ణ', '|'), ('యుం', 'U'), ('చి', '|'), ('వే', 'U'), ('గ', '|'), ('ని', '|'), ('ను', '|'), ('ర', 'U'), ('మ్మ', '|'), ('ను', '|'), ('చు', '|'), ('వి', 'U'), ('న్న', '|'), ('విం', 'U'), ('చె', '|'), ('న', 'U'), ('న్న', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('నీ', 'U'), ('వే', 'U'), ('గి', '|'), ('యి', '|'), ('చ', '|'), ('టి', '|'), ('కి', '|'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('లు', '|'), ('దే', 'U'), ('గ', '|'), ('దే', 'U'), ('రా', 'U'), ('జ', '|'), ('వ', '|'), ('ద', '|'), ('న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>ఘనముగా నలివేణి కరుణించి యింతైన నా పలుకాలించి నేలవమ్మనాయందు బలికిన న్యాయంబుగా నిప్పు డతియసహ్యంబయ్యె నరసిచూడరాధయు రుక్మిణీరమణీయ నాతని రానివ్వరైరిగా రట్టుజేసిసారసనేత్రుని శ్యామలాంగుని బలభద్రానుజుని నాదు ప్రాణసఖుని</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>ఘనముగా నలివేణి కరుణించి యింతైన నా పలుకాలించి నేలవమ్మనాయందు బలికిన న్యాయంబుగా నిప్పు డతియసహ్యంబయ్యె నరసిచూడరాధయు రుక్మిణీరమణీయ నాతని రానివ్వరైరిగా రట్టుజేసిసారసనేత్రుని శ్యామలాంగుని బలభద్రానుజుని నాదు ప్రాణసఖుని</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
           <t>[('ఘ', '|'), ('న', '|'), ('ము', '|'), ('గా', 'U'), ('న', '|'), ('లి', '|'), ('వే', 'U'), ('ణి', '|'), ('క', '|'), ('రు', '|'), ('ణిం', 'U'), ('చి', '|'), ('యిం', 'U'), ('తై', 'U'), ('న', '|'), ('నా', 'U'), ('ప', '|'), ('లు', '|'), ('కా', 'U'), ('లిం', 'U'), ('చి', '|'), ('నే', 'U'), ('ల', '|'), ('వ', 'U'), ('మ్మ', '|'), ('నా', 'U'), ('యం', 'U'), ('దు', '|'), ('బ', '|'), ('లి', '|'), ('కి', '|'), ('న', 'U'), ('న్యా', 'U'), ('యం', 'U'), ('బు', '|'), ('గా', 'U'), ('ని', 'U'), ('ప్పు', '|'), ('డ', '|'), ('తి', '|'), ('య', '|'), ('స', 'U'), ('హ్యం', 'U'), ('బ', 'U'), ('య్యె', '|'), ('న', '|'), ('ర', '|'), ('సి', '|'), ('చూ', 'U'), ('డ', '|'), ('రా', 'U'), ('ధ', '|'), ('యు', '|'), ('రు', 'U'), ('క్మి', '|'), ('ణీ', 'U'), ('ర', '|'), ('మ', '|'), ('ణీ', 'U'), ('య', '|'), ('నా', 'U'), ('త', '|'), ('ని', '|'), ('రా', 'U'), ('ని', 'U'), ('వ్వ', '|'), ('రై', 'U'), ('రి', '|'), ('గా', 'U'), ('ర', 'U'), ('ట్టు', '|'), ('జే', 'U'), ('సి', '|'), ('సా', 'U'), ('ర', '|'), ('స', '|'), ('నే', 'U'), ('త్రు', '|'), ('ని', 'U'), ('శ్యా', 'U'), ('మ', '|'), ('లాం', 'U'), ('గు', '|'), ('ని', '|'), ('బ', '|'), ('ల', '|'), ('భ', '|'), ('ద్రా', 'U'), ('ను', '|'), ('జు', '|'), ('ని', '|'), ('నా', 'U'), ('దు', 'U'), ('ప్రా', 'U'), ('ణ', '|'), ('స', '|'), ('ఖు', '|'), ('ని', '|')]</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నెపుడు కనులార గనుగొందు నెపుడు వాని | జెలిమితో నాదు కౌగిటఁ జేర్చుకొందుతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>నెపుడు కనులార గనుగొందు నెపుడు వాని | జెలిమితో నాదు కౌగిటఁ జేర్చుకొందుతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
           <t>[('నె', '|'), ('పు', '|'), ('డు', '|'), ('క', '|'), ('ను', '|'), ('లా', 'U'), ('ర', '|'), ('గ', '|'), ('ను', '|'), ('గొం', 'U'), ('దు', '|'), ('నె', '|'), ('పు', '|'), ('డు', '|'), ('వా', 'U'), ('ని', '|'), ('జె', '|'), ('లి', '|'), ('మి', '|'), ('తో', 'U'), ('నా', 'U'), ('దు', '|'), ('కౌ', 'U'), ('గి', '|'), ('ట', '|'), ('జే', 'U'), ('ర్చు', '|'), ('కొం', 'U'), ('దు', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('నీ', 'U'), ('వే', 'U'), ('గి', '|'), ('యి', '|'), ('చ', '|'), ('టి', '|'), ('కి', '|'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('లు', '|'), ('దే', 'U'), ('గ', '|'), ('దే', 'U'), ('రా', 'U'), ('జ', '|'), ('వ', '|'), ('ద', '|'), ('న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>కమలాక్షిరో నన్ను గరుణింపుమని వేడ నమ్మరే నా పల్కు నమ్మలారఅదిగొ చంద్రోదయంబాయె నీకేలాగు విరహము సైరింతు వెలదులారమానక క్రూరుడై మదనుండు శరముల వేయదొడంగెనే వెలదులారపంచబాణుని కెంత పగగల్గి యుండెనో సాధించెనిప్పుడు సఖియలార</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>కమలాక్షిరో నన్ను గరుణింపుమని వేడ నమ్మరే నా పల్కు నమ్మలారఅదిగొ చంద్రోదయంబాయె నీకేలాగు విరహము సైరింతు వెలదులారమానక క్రూరుడై మదనుండు శరముల వేయదొడంగెనే వెలదులారపంచబాణుని కెంత పగగల్గి యుండెనో సాధించెనిప్పుడు సఖియలార</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('మ', '|'), ('లా', 'U'), ('క్షి', '|'), ('రో', 'U'), ('న', 'U'), ('న్ను', '|'), ('గ', '|'), ('రు', '|'), ('ణిం', 'U'), ('పు', '|'), ('మ', '|'), ('ని', '|'), ('వే', 'U'), ('డ', '|'), ('న', 'U'), ('మ్మ', '|'), ('రే', 'U'), ('నా', 'U'), ('ప', 'U'), ('ల్కు', '|'), ('న', 'U'), ('మ్మ', '|'), ('లా', 'U'), ('ర', '|'), ('అ', '|'), ('ది', '|'), ('గొ', '|'), ('చం', 'U'), ('ద్రో', 'U'), ('ద', '|'), ('యం', 'U'), ('బా', 'U'), ('యె', '|'), ('నీ', 'U'), ('కే', 'U'), ('లా', 'U'), ('గు', '|'), ('వి', '|'), ('ర', '|'), ('హ', '|'), ('ము', '|'), ('సై', 'U'), ('రిం', 'U'), ('తు', '|'), ('వె', '|'), ('ల', '|'), ('దు', '|'), ('లా', 'U'), ('ర', '|'), ('మా', 'U'), ('న', '|'), ('క', 'U'), ('క్రూ', 'U'), ('రు', '|'), ('డై', 'U'), ('మ', '|'), ('ద', '|'), ('నుం', 'U'), ('డు', '|'), ('శ', '|'), ('ర', '|'), ('ము', '|'), ('ల', '|'), ('వే', 'U'), ('య', '|'), ('దొ', '|'), ('డం', 'U'), ('గె', '|'), ('నే', 'U'), ('వె', '|'), ('ల', '|'), ('దు', '|'), ('లా', 'U'), ('ర', '|'), ('పం', 'U'), ('చ', '|'), ('బా', 'U'), ('ణు', '|'), ('ని', '|'), ('కెం', 'U'), ('త', '|'), ('ప', '|'), ('గ', '|'), ('గ', 'U'), ('ల్గి', '|'), ('యుం', 'U'), ('డె', '|'), ('నో', 'U'), ('సా', 'U'), ('ధిం', 'U'), ('చె', '|'), ('ని', 'U'), ('ప్పు', '|'), ('డు', '|'), ('స', '|'), ('ఖి', '|'), ('య', '|'), ('లా', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>కరుణతోడుత మీరింక గపటముడిగి | నన్ను మన్నించి నా ప్రాణనాథు కడకుఁత్వరితముగ నెమ్మి యీవేళ తాడిమళ్ళ | రాజగోపాలు దోడ్తేరె రమణులార.</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>కరుణతోడుత మీరింక గపటముడిగి | నన్ను మన్నించి నా ప్రాణనాథు కడకుఁత్వరితముగ నెమ్మి యీవేళ తాడిమళ్ళ | రాజగోపాలు దోడ్తేరె రమణులార.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('రు', '|'), ('ణ', '|'), ('తో', 'U'), ('డు', '|'), ('త', '|'), ('మీ', 'U'), ('రిం', 'U'), ('క', '|'), ('గ', '|'), ('ప', '|'), ('ట', '|'), ('ము', '|'), ('డి', '|'), ('గి', '|'), ('న', 'U'), ('న్ను', '|'), ('మ', 'U'), ('న్నిం', 'U'), ('చి', '|'), ('నా', 'U'), ('ప్రా', 'U'), ('ణ', '|'), ('నా', 'U'), ('థు', '|'), ('క', '|'), ('డ', '|'), ('కు', 'U'), ('త్వ', '|'), ('రి', '|'), ('త', '|'), ('ము', '|'), ('గ', '|'), ('నె', 'U'), ('మ్మి', '|'), ('యీ', 'U'), ('వే', 'U'), ('ళ', '|'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('లు', '|'), ('దో', 'U'), ('డ్తే', 'U'), ('రె', '|'), ('ర', '|'), ('మ', '|'), ('ణు', '|'), ('లా', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>ఉదయమునం బూర్వ మొగి నిద్ర మేల్కొని సదయుడ నిన్ను నే స్మరణసేతుసూర్యోదయంబున సూటి నే దప్పక దైవముగా నిను దలతునెపుడునా స్వామి నన్నేల న్యాయంబు దప్పక కరుణతో బ్రోవుము కమలనయనవిరహవేదనచేత వేడెద నేనిట్లు పాలింపుమిక నన్ను పద్మనేత్ర</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>ఉదయమునం బూర్వ మొగి నిద్ర మేల్కొని సదయుడ నిన్ను నే స్మరణసేతుసూర్యోదయంబున సూటి నే దప్పక దైవముగా నిను దలతునెపుడునా స్వామి నన్నేల న్యాయంబు దప్పక కరుణతో బ్రోవుము కమలనయనవిరహవేదనచేత వేడెద నేనిట్లు పాలింపుమిక నన్ను పద్మనేత్ర</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
           <t>[('ఉ', '|'), ('ద', '|'), ('య', '|'), ('ము', '|'), ('నం', 'U'), ('బూ', 'U'), ('ర్వ', '|'), ('మొ', '|'), ('గి', '|'), ('ని', '|'), ('ద్ర', '|'), ('మే', 'U'), ('ల్కొ', '|'), ('ని', '|'), ('స', '|'), ('ద', '|'), ('యు', '|'), ('డ', '|'), ('ని', 'U'), ('న్ను', '|'), ('నే', 'U'), ('స్మ', '|'), ('ర', '|'), ('ణ', '|'), ('సే', 'U'), ('తు', '|'), ('సూ', 'U'), ('ర్యో', 'U'), ('ద', '|'), ('యం', 'U'), ('బు', '|'), ('న', '|'), ('సూ', 'U'), ('టి', '|'), ('నే', 'U'), ('ద', 'U'), ('ప్ప', '|'), ('క', '|'), ('దై', 'U'), ('వ', '|'), ('ము', '|'), ('గా', 'U'), ('ని', '|'), ('ను', '|'), ('ద', '|'), ('ల', '|'), ('తు', '|'), ('నె', '|'), ('పు', '|'), ('డు', '|'), ('నా', 'U'), ('స్వా', 'U'), ('మి', '|'), ('న', 'U'), ('న్నే', 'U'), ('ల', 'U'), ('న్యా', 'U'), ('యం', 'U'), ('బు', '|'), ('ద', 'U'), ('ప్ప', '|'), ('క', '|'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('తో', 'U'), ('బ్రో', 'U'), ('వు', '|'), ('ము', '|'), ('క', '|'), ('మ', '|'), ('ల', '|'), ('న', '|'), ('య', '|'), ('న', '|'), ('వి', '|'), ('ర', '|'), ('హ', '|'), ('వే', 'U'), ('ద', '|'), ('న', '|'), ('చే', 'U'), ('త', '|'), ('వే', 'U'), ('డె', '|'), ('ద', '|'), ('నే', 'U'), ('ని', 'U'), ('ట్లు', '|'), ('పా', 'U'), ('లిం', 'U'), ('పు', '|'), ('మి', '|'), ('క', '|'), ('న', 'U'), ('న్ను', '|'), ('ప', 'U'), ('ద్మ', '|'), ('నే', 'U'), ('త్ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నిత్యమును నిన్ను బ్రార్థింతు నీలవర్ణ | నాదు కోరిక లీడేర్చు నళిననాభతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>నిత్యమును నిన్ను బ్రార్థింతు నీలవర్ణ | నాదు కోరిక లీడేర్చు నళిననాభతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
           <t>[('ని', 'U'), ('త్య', '|'), ('ము', '|'), ('ను', '|'), ('ని', 'U'), ('న్ను', 'U'), ('బ్రా', 'U'), ('ర్థిం', 'U'), ('తు', '|'), ('నీ', 'U'), ('ల', '|'), ('వ', 'U'), ('ర్ణ', '|'), ('నా', 'U'), ('దు', '|'), ('కో', 'U'), ('రి', '|'), ('క', '|'), ('లీ', 'U'), ('డే', 'U'), ('ర్చు', '|'), ('న', '|'), ('ళి', '|'), ('న', '|'), ('నా', 'U'), ('భ', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('నీ', 'U'), ('వే', 'U'), ('గి', '|'), ('యి', '|'), ('చ', '|'), ('టి', '|'), ('కి', '|'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('లు', '|'), ('దే', 'U'), ('గ', '|'), ('దే', 'U'), ('రా', 'U'), ('జ', '|'), ('వ', '|'), ('ద', '|'), ('న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>మత్స్యావతార సన్మహితకచ్ఛపగాత్ర వరహరూపా నీకు వందనంబునారసింహా వామనశరీర జమదగ్నివరతనయా నీకు వందనంబురఘువంశతిలక యో రాజీవదళనేత్ర బలరామ నీకు నా వందనంబుబౌద్ధావతారసంభావితా గజవరద కల్క్యవతార నా వందనంబు</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>మత్స్యావతార సన్మహితకచ్ఛపగాత్ర వరహరూపా నీకు వందనంబునారసింహా వామనశరీర జమదగ్నివరతనయా నీకు వందనంబురఘువంశతిలక యో రాజీవదళనేత్ర బలరామ నీకు నా వందనంబుబౌద్ధావతారసంభావితా గజవరద కల్క్యవతార నా వందనంబు</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
           <t>[('మ', 'U'), ('త్స్యా', 'U'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('స', 'U'), ('న్మ', '|'), ('హి', '|'), ('త', '|'), ('క', 'U'), ('చ్ఛ', '|'), ('ప', '|'), ('గా', 'U'), ('త్ర', '|'), ('వ', '|'), ('ర', '|'), ('హ', '|'), ('రూ', 'U'), ('పా', 'U'), ('నీ', 'U'), ('కు', '|'), ('వం', 'U'), ('ద', '|'), ('నం', 'U'), ('బు', '|'), ('నా', 'U'), ('ర', '|'), ('సిం', 'U'), ('హా', 'U'), ('వా', 'U'), ('మ', '|'), ('న', '|'), ('శ', '|'), ('రీ', 'U'), ('ర', '|'), ('జ', '|'), ('మ', '|'), ('ద', 'U'), ('గ్ని', '|'), ('వ', '|'), ('ర', '|'), ('త', '|'), ('న', '|'), ('యా', 'U'), ('నీ', 'U'), ('కు', '|'), ('వం', 'U'), ('ద', '|'), ('నం', 'U'), ('బు', '|'), ('ర', '|'), ('ఘు', '|'), ('వం', 'U'), ('శ', '|'), ('తి', '|'), ('ల', '|'), ('క', '|'), ('యో', 'U'), ('రా', 'U'), ('జీ', 'U'), ('వ', '|'), ('ద', '|'), ('ళ', '|'), ('నే', 'U'), ('త్ర', '|'), ('బ', '|'), ('ల', '|'), ('రా', 'U'), ('మ', '|'), ('నీ', 'U'), ('కు', '|'), ('నా', 'U'), ('వం', 'U'), ('ద', '|'), ('నం', 'U'), ('బు', '|'), ('బౌ', 'U'), ('ద్ధా', 'U'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('సం', 'U'), ('భా', 'U'), ('వి', '|'), ('తా', 'U'), ('గ', '|'), ('జ', '|'), ('వ', '|'), ('ర', '|'), ('ద', '|'), ('క', 'U'), ('ల్క్య', '|'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('నా', 'U'), ('వం', 'U'), ('ద', '|'), ('నం', 'U'), ('బు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>వందనము నీకు సతతము యిందిరేశ | నందనందన శ్రీధర కుందరదనతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>వందనము నీకు సతతము యిందిరేశ | నందనందన శ్రీధర కుందరదనతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
           <t>[('వం', 'U'), ('ద', '|'), ('న', '|'), ('ము', '|'), ('నీ', 'U'), ('కు', '|'), ('స', '|'), ('త', '|'), ('త', '|'), ('ము', '|'), ('యిం', 'U'), ('ది', '|'), ('రే', 'U'), ('శ', '|'), ('నం', 'U'), ('ద', '|'), ('నం', 'U'), ('ద', '|'), ('న', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర', '|'), ('కుం', 'U'), ('ద', '|'), ('ర', '|'), ('ద', '|'), ('న', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('నీ', 'U'), ('వే', 'U'), ('గి', '|'), ('యి', '|'), ('చ', '|'), ('టి', '|'), ('కి', '|'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('లు', '|'), ('దే', 'U'), ('గ', '|'), ('దే', 'U'), ('రా', 'U'), ('జ', '|'), ('వ', '|'), ('ద', '|'), ('న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>ఏలరా నే తాళజాలరా యిక జాలు చాలురా పంతంబు జలజనయనయిందు రావైతి నేమందురా యే నాతిమందు తలకెక్కెనొ మదనజనకయేమిరా యిటు వేరుసేతురా మరుబారి ద్రోతురా యెందైన దోయజాక్షవీడరా కపటంబు గూడరా నను దయ జూడరా యీవేళ సుందరాంగ</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>ఏలరా నే తాళజాలరా యిక జాలు చాలురా పంతంబు జలజనయనయిందు రావైతి నేమందురా యే నాతిమందు తలకెక్కెనొ మదనజనకయేమిరా యిటు వేరుసేతురా మరుబారి ద్రోతురా యెందైన దోయజాక్షవీడరా కపటంబు గూడరా నను దయ జూడరా యీవేళ సుందరాంగ</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
           <t>[('ఏ', 'U'), ('ల', '|'), ('రా', 'U'), ('నే', 'U'), ('తా', 'U'), ('ళ', '|'), ('జా', 'U'), ('ల', '|'), ('రా', 'U'), ('యి', '|'), ('క', '|'), ('జా', 'U'), ('లు', '|'), ('చా', 'U'), ('లు', '|'), ('రా', 'U'), ('పం', 'U'), ('తం', 'U'), ('బు', '|'), ('జ', '|'), ('ల', '|'), ('జ', '|'), ('న', '|'), ('య', '|'), ('న', '|'), ('యిం', 'U'), ('దు', '|'), ('రా', 'U'), ('వై', 'U'), ('తి', '|'), ('నే', 'U'), ('మం', 'U'), ('దు', '|'), ('రా', 'U'), ('యే', 'U'), ('నా', 'U'), ('తి', '|'), ('మం', 'U'), ('దు', '|'), ('త', '|'), ('ల', '|'), ('కె', 'U'), ('క్కె', '|'), ('నొ', '|'), ('మ', '|'), ('ద', '|'), ('న', '|'), ('జ', '|'), ('న', '|'), ('క', '|'), ('యే', 'U'), ('మి', '|'), ('రా', 'U'), ('యి', '|'), ('టు', '|'), ('వే', 'U'), ('రు', '|'), ('సే', 'U'), ('తు', '|'), ('రా', 'U'), ('మ', '|'), ('రు', '|'), ('బా', 'U'), ('రి', '|'), ('ద్రో', 'U'), ('తు', '|'), ('రా', 'U'), ('యెం', 'U'), ('దై', 'U'), ('న', '|'), ('దో', 'U'), ('య', '|'), ('జా', 'U'), ('క్ష', '|'), ('వీ', 'U'), ('డ', '|'), ('రా', 'U'), ('క', '|'), ('ప', '|'), ('టం', 'U'), ('బు', '|'), ('గూ', 'U'), ('డ', '|'), ('రా', 'U'), ('న', '|'), ('ను', '|'), ('ద', '|'), ('య', '|'), ('జూ', 'U'), ('డ', '|'), ('రా', 'U'), ('యీ', 'U'), ('వే', 'U'), ('ళ', '|'), ('సుం', 'U'), ('ద', '|'), ('రాం', 'U'), ('గ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>యనుచు బెక్కువిధంబుల నార్తిజెందు | నతివ విడనాడగా నీకు సరసమగునెతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>యనుచు బెక్కువిధంబుల నార్తిజెందు | నతివ విడనాడగా నీకు సరసమగునెతరుణి నీవేగి యిచటికి తాడిమళ్ళ | రాజగోపాలు దేగదే రాజవదన.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
           <t>[('య', '|'), ('ను', '|'), ('చు', '|'), ('బె', 'U'), ('క్కు', '|'), ('వి', '|'), ('ధం', 'U'), ('బు', '|'), ('ల', '|'), ('నా', 'U'), ('ర్తి', '|'), ('జెం', 'U'), ('దు', '|'), ('న', '|'), ('తి', '|'), ('వ', '|'), ('వి', '|'), ('డ', '|'), ('నా', 'U'), ('డ', '|'), ('గా', 'U'), ('నీ', 'U'), ('కు', '|'), ('స', '|'), ('ర', '|'), ('స', '|'), ('మ', '|'), ('గు', '|'), ('నె', '|'), ('త', '|'), ('రు', '|'), ('ణి', '|'), ('నీ', 'U'), ('వే', 'U'), ('గి', '|'), ('యి', '|'), ('చ', '|'), ('టి', '|'), ('కి', '|'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('లు', '|'), ('దే', 'U'), ('గ', '|'), ('దే', 'U'), ('రా', 'U'), ('జ', '|'), ('వ', '|'), ('ద', '|'), ('న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>seesamu</t>
+          <t>వైకుంఠవాసాయ వారిజనేత్రాయ ద్విజరాజసుముఖాయ తే నమోస్తుజలధరదేహాయ శంఖచక్రధరాయ మానితభర్గాయ తే నమోస్తుపాలితసుజనాయ భావజజనకాయ దీనార్తిహరణాయ తే నమోస్తుసామజవరదాయ శాత్రవహరణాయ దేవకీతనయాయ తే నమోస్తు</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>వైకుంఠవాసాయ వారిజనేత్రాయ ద్విజరాజసుముఖాయ తే నమోస్తుజలధరదేహాయ శంఖచక్రధరాయ మానితభర్గాయ తే నమోస్తుపాలితసుజనాయ భావజజనకాయ దీనార్తిహరణాయ తే నమోస్తుసామజవరదాయ శాత్రవహరణాయ దేవకీతనయాయ తే నమోస్తు</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
           <t>[('వై', 'U'), ('కుం', 'U'), ('ఠ', '|'), ('వా', 'U'), ('సా', 'U'), ('య', '|'), ('వా', 'U'), ('రి', '|'), ('జ', '|'), ('నే', 'U'), ('త్రా', 'U'), ('య', 'U'), ('ద్వి', '|'), ('జ', '|'), ('రా', 'U'), ('జ', '|'), ('సు', '|'), ('ము', '|'), ('ఖా', 'U'), ('య', '|'), ('తే', 'U'), ('న', '|'), ('మో', 'U'), ('స్తు', '|'), ('జ', '|'), ('ల', '|'), ('ధ', '|'), ('ర', '|'), ('దే', 'U'), ('హా', 'U'), ('య', '|'), ('శం', 'U'), ('ఖ', '|'), ('చ', 'U'), ('క్ర', '|'), ('ధ', '|'), ('రా', 'U'), ('య', '|'), ('మా', 'U'), ('ని', '|'), ('త', '|'), ('భ', 'U'), ('ర్గా', 'U'), ('య', '|'), ('తే', 'U'), ('న', '|'), ('మో', 'U'), ('స్తు', '|'), ('పా', 'U'), ('లి', '|'), ('త', '|'), ('సు', '|'), ('జ', '|'), ('నా', 'U'), ('య', '|'), ('భా', 'U'), ('వ', '|'), ('జ', '|'), ('జ', '|'), ('న', '|'), ('కా', 'U'), ('య', '|'), ('దీ', 'U'), ('నా', 'U'), ('ర్తి', '|'), ('హ', '|'), ('ర', '|'), ('ణా', 'U'), ('య', '|'), ('తే', 'U'), ('న', '|'), ('మో', 'U'), ('స్తు', '|'), ('సా', 'U'), ('మ', '|'), ('జ', '|'), ('వ', '|'), ('ర', '|'), ('దా', 'U'), ('య', '|'), ('శా', 'U'), ('త్ర', '|'), ('వ', '|'), ('హ', '|'), ('ర', '|'), ('ణా', 'U'), ('య', '|'), ('దే', 'U'), ('వ', '|'), ('కీ', 'U'), ('త', '|'), ('న', '|'), ('యా', 'U'), ('య', '|'), ('తే', 'U'), ('న', '|'), ('మో', 'U'), ('స్తు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>అని ప్రణామము లొనరించి యతని మదిని | గనికరము దోచునట్టుల గారవించితరుణ మిదియని తెలిపి శ్రీ తాడిమళ్ళ | రాజగోపాలుఁ దోడ్తేరె రమణులార.</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>అని ప్రణామము లొనరించి యతని మదిని | గనికరము దోచునట్టుల గారవించితరుణ మిదియని తెలిపి శ్రీ తాడిమళ్ళ | రాజగోపాలుఁ దోడ్తేరె రమణులార.</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>taadimallaraajagopaala</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
-        <is>
-          <t>taadimallaraajagopaala</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
         <is>
           <t>[('అ', '|'), ('ని', 'U'), ('ప్ర', '|'), ('ణా', 'U'), ('మ', '|'), ('ము', '|'), ('లొ', '|'), ('న', '|'), ('రిం', 'U'), ('చి', '|'), ('య', '|'), ('త', '|'), ('ని', '|'), ('మ', '|'), ('ది', '|'), ('ని', '|'), ('గ', '|'), ('ని', '|'), ('క', '|'), ('ర', '|'), ('ము', '|'), ('దో', 'U'), ('చు', '|'), ('న', 'U'), ('ట్టు', '|'), ('ల', '|'), ('గా', 'U'), ('ర', '|'), ('విం', 'U'), ('చి', '|'), ('త', '|'), ('రు', '|'), ('ణ', '|'), ('మి', '|'), ('ది', '|'), ('య', '|'), ('ని', '|'), ('తె', '|'), ('లి', '|'), ('పి', 'U'), ('శ్రీ', 'U'), ('తా', 'U'), ('డి', '|'), ('మ', 'U'), ('ళ్ళ', '|'), ('రా', 'U'), ('జ', '|'), ('గో', 'U'), ('పా', 'U'), ('లు', '|'), ('దో', 'U'), ('డ్తే', 'U'), ('రె', '|'), ('ర', '|'), ('మ', '|'), ('ణు', '|'), ('లా', 'U'), ('ర', '|')]</t>
         </is>

--- a/dataset/lg/taadimallaraajagopaala.xlsx
+++ b/dataset/lg/taadimallaraajagopaala.xlsx
@@ -483,7 +483,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('శ్రీ', 'U'), ('కృ', 'U'), ('ష్ణు', '|'), ('నె', 'U'), ('వ్వ', '|'), ('రు', '|'), ('సే', 'U'), ('విం', 'U'), ('చు', '|'), ('చుం', 'U'), ('దు', '|'), ('రో', 'U'), ('వై', 'U'), ('కుం', 'U'), ('ఠ', '|'), ('పు', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('వా', 'U'), ('రు', '|'), ('ఘ', '|'), ('ను', '|'), ('లు', '|'), ('క', '|'), ('మ', '|'), ('ల', '|'), ('నా', 'U'), ('భు', '|'), ('ని', '|'), ('జి', 'U'), ('త్త', '|'), ('క', '|'), ('మ', '|'), ('లం', 'U'), ('బు', '|'), ('లో', 'U'), ('ని', 'U'), ('ల్పి', '|'), ('వ', '|'), ('సు', '|'), ('ధ', '|'), ('లో', 'U'), ('మె', '|'), ('ల', '|'), ('గె', '|'), ('డు', '|'), ('వా', 'U'), ('డు', '|'), ('రా', 'U'), ('జు', '|'), ('ధ', '|'), ('న', '|'), ('ము', '|'), ('మెం', 'U'), ('డు', '|'), ('గ', '|'), ('గూ', 'U'), ('ర్చు', '|'), ('ధ', 'U'), ('న్యు', '|'), ('లెం', 'U'), ('ద', '|'), ('రు', '|'), ('నై', 'U'), ('న', 'U'), ('స్వా', 'U'), ('మి', '|'), ('భ', 'U'), ('క్తు', '|'), ('ల', '|'), ('తో', 'U'), ('టి', '|'), ('సా', 'U'), ('టి', '|'), ('గా', 'U'), ('రు', '|'), ('హ', '|'), ('రి', '|'), ('నా', 'U'), ('మ', '|'), ('కీ', 'U'), ('ర్త', '|'), ('న', '|'), ('ల', '|'), ('తి', '|'), ('భ', 'U'), ('క్తి', '|'), ('చే', 'U'), ('సి', '|'), ('న', '|'), ('వా', 'U'), ('రి', '|'), ('దు', 'U'), ('ష్క', 'U'), ('ర్మ', '|'), ('ముల్', 'U'), ('వ', '|'), ('ద', '|'), ('లి', '|'), ('పో', 'U'), ('ను', '|')]</t>
+          <t>[('శ్రీ', 'U'), ('కృ', 'U'), ('ష్ణు', '|'), ('నె', 'U'), ('వ్వ', '|'), ('రు', '|'), ('సే', 'U'), ('విం', 'U'), ('చు', '|'), ('చుం', 'U'), ('దు', '|'), ('రో', 'U'), ('వై', 'U'), ('కుం', 'U'), ('ఠ', '|'), ('పు', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('వా', 'U'), ('రు', '|'), ('ఘ', '|'), ('ను', '|'), ('లు', '|'), ('క', '|'), ('మ', '|'), ('ల', '|'), ('నా', 'U'), ('భు', '|'), ('ని', '|'), ('జి', 'U'), ('త్త', '|'), ('క', '|'), ('మ', '|'), ('లం', 'U'), ('బు', '|'), ('లో', 'U'), ('ని', 'U'), ('ల్పి', '|'), ('వ', '|'), ('సు', '|'), ('ధ', '|'), ('లో', 'U'), ('మె', '|'), ('ల', '|'), ('గె', '|'), ('డు', '|'), ('వా', 'U'), ('డు', '|'), ('రా', 'U'), ('జు', '|'), ('ధ', '|'), ('న', '|'), ('ము', '|'), ('మెం', 'U'), ('డు', '|'), ('గ', '|'), ('గూ', 'U'), ('ర్చు', '|'), ('ధ', 'U'), ('న్యు', '|'), ('లెం', 'U'), ('ద', '|'), ('రు', '|'), ('నై', 'U'), ('న', 'U'), ('స్వా', 'U'), ('మి', '|'), ('భ', 'U'), ('క్తు', '|'), ('ల', '|'), ('తో', 'U'), ('టి', '|'), ('సా', 'U'), ('టి', '|'), ('గా', 'U'), ('రు', '|'), ('హ', '|'), ('రి', '|'), ('నా', 'U'), ('మ', '|'), ('కీ', 'U'), ('ర్త', '|'), ('న', '|'), ('ల', '|'), ('తి', '|'), ('భ', 'U'), ('క్తి', '|'), ('చే', 'U'), ('సి', '|'), ('న', '|'), ('వా', 'U'), ('రి', '|'), ('దు', 'U'), ('ష్క', 'U'), ('ర్మ', '|'), ('ము', 'U'), ('ల్వ', '|'), ('ద', '|'), ('లి', '|'), ('పో', 'U'), ('ను', '|')]</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[('ప', '|'), ('గ', '|'), ('తు', '|'), ('డై', 'U'), ('మ', '|'), ('ద', '|'), ('నుం', 'U'), ('డు', '|'), ('బా', 'U'), ('ణ', '|'), ('ము', 'U'), ('ల్సం', 'U'), ('ధిం', 'U'), ('చి', '|'), ('చు', '|'), ('ర', '|'), ('చు', '|'), ('ర', 'U'), ('క్కు', '|'), ('న', '|'), ('సే', 'U'), ('య', '|'), ('జూ', 'U'), ('చె', '|'), ('న', 'U'), ('మ్మ', '|'), ('బా', 'U'), ('ల', '|'), ('యా', 'U'), ('త', '|'), ('ని', '|'), ('వే', 'U'), ('డి', '|'), ('బా', 'U'), ('ణ', '|'), ('ముల్', 'U'), ('దా', 'U'), ('క', '|'), ('క', '|'), ('త', 'U'), ('ప్పిం', 'U'), ('చు', '|'), ('కొ', '|'), ('న', '|'), ('గ', '|'), ('నా', 'U'), ('త', '|'), ('ర', '|'), ('ము', '|'), ('గా', 'U'), ('దు', '|'), ('యో', 'U'), ('స', '|'), ('ఖి', '|'), ('ని', '|'), ('మి', '|'), ('షం', 'U'), ('బు', '|'), ('నూ', 'U'), ('ర', '|'), ('కుం', 'U'), ('డ', '|'), ('ను', '|'), ('గా', 'U'), ('దు', '|'), ('వె', '|'), ('డ', '|'), ('వి', '|'), ('లు', '|'), ('కా', 'U'), ('డు', '|'), ('నా', 'U'), ('వెం', 'U'), ('ట', '|'), ('నం', 'U'), ('టి', '|'), ('జా', 'U'), ('ము', '|'), ('జా', 'U'), ('ము', '|'), ('న', '|'), ('లే', 'U'), ('పి', '|'), ('లే', 'U'), ('మ', '|'), ('రో', 'U'), ('నా', 'U'), ('పై', 'U'), ('ని', '|'), ('త', '|'), ('న', '|'), ('శ', '|'), ('రం', 'U'), ('బు', '|'), ('లు', '|'), ('చే', 'U'), ('ర్చి', '|'), ('దా', 'U'), ('కు', '|'), ('న', 'U'), ('మ్మ', '|')]</t>
+          <t>[('ప', '|'), ('గ', '|'), ('తు', '|'), ('డై', 'U'), ('మ', '|'), ('ద', '|'), ('నుం', 'U'), ('డు', '|'), ('బా', 'U'), ('ణ', '|'), ('ము', 'U'), ('ల్సం', 'U'), ('ధిం', 'U'), ('చి', '|'), ('చు', '|'), ('ర', '|'), ('చు', '|'), ('ర', 'U'), ('క్కు', '|'), ('న', '|'), ('సే', 'U'), ('య', '|'), ('జూ', 'U'), ('చె', '|'), ('న', 'U'), ('మ్మ', '|'), ('బా', 'U'), ('ల', '|'), ('యా', 'U'), ('త', '|'), ('ని', '|'), ('వే', 'U'), ('డి', '|'), ('బా', 'U'), ('ణ', '|'), ('ము', 'U'), ('ల్దా', 'U'), ('క', '|'), ('క', '|'), ('త', 'U'), ('ప్పిం', 'U'), ('చు', '|'), ('కొ', '|'), ('న', '|'), ('గ', '|'), ('నా', 'U'), ('త', '|'), ('ర', '|'), ('ము', '|'), ('గా', 'U'), ('దు', '|'), ('యో', 'U'), ('స', '|'), ('ఖి', '|'), ('ని', '|'), ('మి', '|'), ('షం', 'U'), ('బు', '|'), ('నూ', 'U'), ('ర', '|'), ('కుం', 'U'), ('డ', '|'), ('ను', '|'), ('గా', 'U'), ('దు', '|'), ('వె', '|'), ('డ', '|'), ('వి', '|'), ('లు', '|'), ('కా', 'U'), ('డు', '|'), ('నా', 'U'), ('వెం', 'U'), ('ట', '|'), ('నం', 'U'), ('టి', '|'), ('జా', 'U'), ('ము', '|'), ('జా', 'U'), ('ము', '|'), ('న', '|'), ('లే', 'U'), ('పి', '|'), ('లే', 'U'), ('మ', '|'), ('రో', 'U'), ('నా', 'U'), ('పై', 'U'), ('ని', '|'), ('త', '|'), ('న', '|'), ('శ', '|'), ('రం', 'U'), ('బు', '|'), ('లు', '|'), ('చే', 'U'), ('ర్చి', '|'), ('దా', 'U'), ('కు', '|'), ('న', 'U'), ('మ్మ', '|')]</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[('త', '|'), ('రు', '|'), ('ణి', '|'), ('నా', 'U'), ('య', '|'), ('ధ', '|'), ('రా', 'U'), ('మృ', '|'), ('త', '|'), ('ము', '|'), ('గో', 'U'), ('రు', '|'), ('నా', 'U'), ('ప', '|'), ('తి', '|'), ('కి', 'U'), ('ప్పు', '|'), ('డు', '|'), ('వి', '|'), ('స', '|'), ('ము', '|'), ('నే', 'U'), ('నె', 'U'), ('ట్టు', '|'), ('లై', 'U'), ('తి', '|'), ('న', '|'), ('త', '|'), ('ని', '|'), ('కి', '|'), ('నా', 'U'), ('నే', 'U'), ('స్త', '|'), ('మ', '|'), ('తి', '|'), ('దూ', 'U'), ('ర', '|'), ('మే', 'U'), ('యుం', 'U'), ('డ', '|'), ('నె', 'U'), ('వ్వ', '|'), ('తె', '|'), ('చే', 'U'), ('సె', '|'), ('నో', 'U'), ('యె', '|'), ('ఱు', '|'), ('గ', '|'), ('నై', 'U'), ('తి', '|'), ('మ', '|'), ('గు', '|'), ('వ', '|'), ('చి', 'U'), ('న్న', 'U'), ('ప్ప', '|'), ('టి', '|'), ('మా', 'U'), ('ట', '|'), ('లో', 'U'), ('చో', 'U'), ('ద్య', '|'), ('ముల్', 'U'), ('గ', '|'), ('లు', '|'), ('గు', '|'), ('నా', 'U'), ('కె', '|'), ('పు', '|'), ('డ', '|'), ('ని', '|'), ('గ', 'U'), ('ర్వ', '|'), ('ప', '|'), ('డి', '|'), ('తి', '|'), ('బ', '|'), ('డ', '|'), ('తి', '|'), ('న', 'U'), ('న్నం', 'U'), ('ద', '|'), ('ఱి', '|'), ('పా', 'U'), ('టి', '|'), ('గా', 'U'), ('నెం', 'U'), ('చ', '|'), ('క', '|'), ('యె', 'U'), ('క్కు', '|'), ('వ', '|'), ('లా', 'U'), ('లిం', 'U'), ('చు', '|'), ('టె', '|'), ('ఱు', '|'), ('గ', '|'), ('నై', 'U'), ('తి', '|')]</t>
+          <t>[('త', '|'), ('రు', '|'), ('ణి', '|'), ('నా', 'U'), ('య', '|'), ('ధ', '|'), ('రా', 'U'), ('మృ', '|'), ('త', '|'), ('ము', '|'), ('గో', 'U'), ('రు', '|'), ('నా', 'U'), ('ప', '|'), ('తి', '|'), ('కి', 'U'), ('ప్పు', '|'), ('డు', '|'), ('వి', '|'), ('స', '|'), ('ము', '|'), ('నే', 'U'), ('నె', 'U'), ('ట్టు', '|'), ('లై', 'U'), ('తి', '|'), ('న', '|'), ('త', '|'), ('ని', '|'), ('కి', '|'), ('నా', 'U'), ('నే', 'U'), ('స్త', '|'), ('మ', '|'), ('తి', '|'), ('దూ', 'U'), ('ర', '|'), ('మే', 'U'), ('యుం', 'U'), ('డ', '|'), ('నె', 'U'), ('వ్వ', '|'), ('తె', '|'), ('చే', 'U'), ('సె', '|'), ('నో', 'U'), ('యె', '|'), ('ఱు', '|'), ('గ', '|'), ('నై', 'U'), ('తి', '|'), ('మ', '|'), ('గు', '|'), ('వ', '|'), ('చి', 'U'), ('న్న', 'U'), ('ప్ప', '|'), ('టి', '|'), ('మా', 'U'), ('ట', '|'), ('లో', 'U'), ('చో', 'U'), ('ద్య', '|'), ('ము', 'U'), ('ల్గ', '|'), ('లు', '|'), ('గు', '|'), ('నా', 'U'), ('కె', '|'), ('పు', '|'), ('డ', '|'), ('ని', '|'), ('గ', 'U'), ('ర్వ', '|'), ('ప', '|'), ('డి', '|'), ('తి', '|'), ('బ', '|'), ('డ', '|'), ('తి', '|'), ('న', 'U'), ('న్నం', 'U'), ('ద', '|'), ('ఱి', '|'), ('పా', 'U'), ('టి', '|'), ('గా', 'U'), ('నెం', 'U'), ('చ', '|'), ('క', '|'), ('యె', 'U'), ('క్కు', '|'), ('వ', '|'), ('లా', 'U'), ('లిం', 'U'), ('చు', '|'), ('టె', '|'), ('ఱు', '|'), ('గ', '|'), ('నై', 'U'), ('తి', '|')]</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[('వి', '|'), ('ర', '|'), ('హ', '|'), ('తా', 'U'), ('పం', 'U'), ('బా', 'U'), ('యె', '|'), ('వి', '|'), ('భు', '|'), ('డి', '|'), ('టు', '|'), ('రా', 'U'), ('డా', 'U'), ('యె', '|'), ('మ', '|'), ('ది', '|'), ('తా', 'U'), ('ల్మి', '|'), ('లే', 'U'), ('దా', 'U'), ('యె', '|'), ('మం', 'U'), ('ద', '|'), ('యా', 'U'), ('న', '|'), ('వె', 'U'), ('న్నె', '|'), ('లా', 'U'), ('త', '|'), ('ప', '|'), ('మా', 'U'), ('యె', '|'), ('వి', '|'), ('రి', '|'), ('స', '|'), ('రుల్', 'U'), ('వె', '|'), ('గ', '|'), ('టా', 'U'), ('యె', '|'), ('ని', '|'), ('దు', '|'), ('ర', '|'), ('లే', 'U'), ('దా', 'U'), ('యె', '|'), ('నే', 'U'), ('నీ', 'U'), ('ల', '|'), ('వే', 'U'), ('ణి', '|'), ('హ', 'U'), ('ర్షం', 'U'), ('బు', '|'), ('లే', 'U'), ('దా', 'U'), ('యె', '|'), ('నా', 'U'), ('డి', '|'), ('కల్', 'U'), ('ఘ', '|'), ('న', '|'), ('మా', 'U'), ('యె', '|'), ('ని', 'U'), ('ద్ద', '|'), ('రి', '|'), ('కె', '|'), ('డ', '|'), ('మా', 'U'), ('యె', '|'), ('నిం', 'U'), ('దు', '|'), ('వ', '|'), ('ద', '|'), ('న', '|'), ('క', '|'), ('లి', '|'), ('కి', '|'), ('పె', 'U'), ('ట్టి', '|'), ('న', '|'), ('మం', 'U'), ('దు', '|'), ('త', '|'), ('ల', '|'), ('కె', 'U'), ('క్కి', '|'), ('యి', '|'), ('పు', '|'), ('డై', 'U'), ('న', '|'), ('చే', 'U'), ('డె', '|'), ('నా', 'U'), ('యి', '|'), ('లు', '|'), ('తొం', 'U'), ('గి', '|'), ('చూ', 'U'), ('డ', '|'), ('డా', 'U'), ('యె', '|')]</t>
+          <t>[('వి', '|'), ('ర', '|'), ('హ', '|'), ('తా', 'U'), ('పం', 'U'), ('బా', 'U'), ('యె', '|'), ('వి', '|'), ('భు', '|'), ('డి', '|'), ('టు', '|'), ('రా', 'U'), ('డా', 'U'), ('యె', '|'), ('మ', '|'), ('ది', '|'), ('తా', 'U'), ('ల్మి', '|'), ('లే', 'U'), ('దా', 'U'), ('యె', '|'), ('మం', 'U'), ('ద', '|'), ('యా', 'U'), ('న', '|'), ('వె', 'U'), ('న్నె', '|'), ('లా', 'U'), ('త', '|'), ('ప', '|'), ('మా', 'U'), ('యె', '|'), ('వి', '|'), ('రి', '|'), ('స', '|'), ('రు', 'U'), ('ల్వె', '|'), ('గ', '|'), ('టా', 'U'), ('యె', '|'), ('ని', '|'), ('దు', '|'), ('ర', '|'), ('లే', 'U'), ('దా', 'U'), ('యె', '|'), ('నే', 'U'), ('నీ', 'U'), ('ల', '|'), ('వే', 'U'), ('ణి', '|'), ('హ', 'U'), ('ర్షం', 'U'), ('బు', '|'), ('లే', 'U'), ('దా', 'U'), ('యె', '|'), ('నా', 'U'), ('డి', '|'), ('క', 'U'), ('ల్ఘ', '|'), ('న', '|'), ('మా', 'U'), ('యె', '|'), ('ని', 'U'), ('ద్ద', '|'), ('రి', '|'), ('కె', '|'), ('డ', '|'), ('మా', 'U'), ('యె', '|'), ('నిం', 'U'), ('దు', '|'), ('వ', '|'), ('ద', '|'), ('న', '|'), ('క', '|'), ('లి', '|'), ('కి', '|'), ('పె', 'U'), ('ట్టి', '|'), ('న', '|'), ('మం', 'U'), ('దు', '|'), ('త', '|'), ('ల', '|'), ('కె', 'U'), ('క్కి', '|'), ('యి', '|'), ('పు', '|'), ('డై', 'U'), ('న', '|'), ('చే', 'U'), ('డె', '|'), ('నా', 'U'), ('యి', '|'), ('లు', '|'), ('తొం', 'U'), ('గి', '|'), ('చూ', 'U'), ('డ', '|'), ('డా', 'U'), ('యె', '|')]</t>
         </is>
       </c>
     </row>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>[('జ', '|'), ('న', '|'), ('కు', '|'), ('డన్', 'U'), ('బ', '|'), ('హు', '|'), ('శాం', 'U'), ('త', '|'), ('శా', 'U'), ('లి', '|'), ('స', '|'), ('ము', '|'), ('ఖ', 'U'), ('మ్ము', '|'), ('న', '|'), ('వి', '|'), ('ఱు', '|'), ('వ', '|'), ('రా', 'U'), ('న', 'U'), ('ట్టి', '|'), ('వి', 'U'), ('ల్వి', '|'), ('ర', '|'), ('చి', '|'), ('నా', 'U'), ('ను', '|'), ('య', '|'), ('వ', '|'), ('ని', '|'), ('పు', '|'), ('త్రి', '|'), ('క', '|'), ('సీ', 'U'), ('త', '|'), ('న', '|'), ('తి', '|'), ('వే', 'U'), ('గ', '|'), ('ము', '|'), ('గ', '|'), ('నే', 'U'), ('ను', '|'), ('గె', 'U'), ('ల్చు', '|'), ('కొం', 'U'), ('టి', '|'), ('ని', '|'), ('భూ', 'U'), ('మి', '|'), ('కీ', 'U'), ('ర్తి', '|'), ('కొ', '|'), ('ఱ', '|'), ('కు', '|'), ('జో', 'U'), ('డు', '|'), ('గా', 'U'), ('భూ', 'U'), ('పు', '|'), ('త్రి', '|'), ('కూ', 'U'), ('డ', '|'), ('వే', 'U'), ('డు', '|'), ('క', '|'), ('ల', '|'), ('ల', '|'), ('రం', 'U'), ('గ', '|'), ('న', 'U'), ('య్యో', 'U'), ('ధ్యా', 'U'), ('పు', '|'), ('రం', 'U'), ('బు', '|'), ('జే', 'U'), ('రి', '|'), ('త', 'U'), ('ల్లి', '|'), ('దం', 'U'), ('డ్రు', '|'), ('ల', '|'), ('న', 'U'), ('న్న', '|'), ('ద', 'U'), ('మ్ము', '|'), ('ల', '|'), ('మె', '|'), ('ల', '|'), ('గు', '|'), ('చు', '|'), ('రా', 'U'), ('రా', 'U'), ('జు', '|'), ('నై', 'U'), ('తి', '|'), ('నో', 'U'), ('ర', '|'), ('మ', '|'), ('ణి', '|'), ('నే', 'U'), ('ను', '|')]</t>
+          <t>[('జ', '|'), ('న', '|'), ('కు', '|'), ('డ', 'U'), ('న్బ', '|'), ('హు', '|'), ('శాం', 'U'), ('త', '|'), ('శా', 'U'), ('లి', '|'), ('స', '|'), ('ము', '|'), ('ఖ', 'U'), ('మ్ము', '|'), ('న', '|'), ('వి', '|'), ('ఱు', '|'), ('వ', '|'), ('రా', 'U'), ('న', 'U'), ('ట్టి', '|'), ('వి', 'U'), ('ల్వి', '|'), ('ర', '|'), ('చి', '|'), ('నా', 'U'), ('ను', '|'), ('య', '|'), ('వ', '|'), ('ని', '|'), ('పు', '|'), ('త్రి', '|'), ('క', '|'), ('సీ', 'U'), ('త', '|'), ('న', '|'), ('తి', '|'), ('వే', 'U'), ('గ', '|'), ('ము', '|'), ('గ', '|'), ('నే', 'U'), ('ను', '|'), ('గె', 'U'), ('ల్చు', '|'), ('కొం', 'U'), ('టి', '|'), ('ని', '|'), ('భూ', 'U'), ('మి', '|'), ('కీ', 'U'), ('ర్తి', '|'), ('కొ', '|'), ('ఱ', '|'), ('కు', '|'), ('జో', 'U'), ('డు', '|'), ('గా', 'U'), ('భూ', 'U'), ('పు', '|'), ('త్రి', '|'), ('కూ', 'U'), ('డ', '|'), ('వే', 'U'), ('డు', '|'), ('క', '|'), ('ల', '|'), ('ల', '|'), ('రం', 'U'), ('గ', '|'), ('న', 'U'), ('య్యో', 'U'), ('ధ్యా', 'U'), ('పు', '|'), ('రం', 'U'), ('బు', '|'), ('జే', 'U'), ('రి', '|'), ('త', 'U'), ('ల్లి', '|'), ('దం', 'U'), ('డ్రు', '|'), ('ల', '|'), ('న', 'U'), ('న్న', '|'), ('ద', 'U'), ('మ్ము', '|'), ('ల', '|'), ('మె', '|'), ('ల', '|'), ('గు', '|'), ('చు', '|'), ('రా', 'U'), ('రా', 'U'), ('జు', '|'), ('నై', 'U'), ('తి', '|'), ('నో', 'U'), ('ర', '|'), ('మ', '|'), ('ణి', '|'), ('నే', 'U'), ('ను', '|')]</t>
         </is>
       </c>
     </row>
@@ -3291,7 +3291,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>[('చి', 'U'), ('న్న', '|'), ('త', '|'), ('న', 'U'), ('మ్ము', '|'), ('న', '|'), ('జి', 'U'), ('న్న', '|'), ('వాం', 'U'), ('డ్ర', '|'), ('ను', '|'), ('గూ', 'U'), ('డి', '|'), ('బా', 'U'), ('గు', '|'), ('గా', 'U'), ('నుం', 'U'), ('దు', '|'), ('వే', 'U'), ('ప', '|'), ('ర', '|'), ('మ', '|'), ('పు', '|'), ('రు', '|'), ('ష', '|'), ('య', '|'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('వం', 'U'), ('చ', '|'), ('లి', '|'), ('వే', 'U'), ('ణు', '|'), ('లం', 'U'), ('ద', '|'), ('రున్', 'U'), ('భ్రాం', 'U'), ('తి', '|'), ('చే', 'U'), ('త', '|'), ('ను', '|'), ('ని', 'U'), ('న్ను', '|'), ('బ్ర', 'U'), ('స్తు', '|'), ('తిం', 'U'), ('ప', '|'), ('నా', 'U'), ('ల', 'U'), ('క్ష్మి', '|'), ('తో', 'U'), ('డు', '|'), ('త', '|'), ('నా', 'U'), ('నం', 'U'), ('ద', '|'), ('ము', '|'), ('గ', '|'), ('గూ', 'U'), ('డి', '|'), ('పొం', 'U'), ('దు', '|'), ('గా', 'U'), ('నుం', 'U'), ('టి', '|'), ('వే', 'U'), ('సుం', 'U'), ('ద', '|'), ('రాం', 'U'), ('గ', '|'), ('ర', '|'), ('మ', '|'), ('ణు', '|'), ('లం', 'U'), ('ద', '|'), ('ఱు', '|'), ('గూ', 'U'), ('డి', '|'), ('ర', 'U'), ('వ్వ', '|'), ('లు', '|'), ('బె', 'U'), ('ట్టి', '|'), ('న', '|'), ('చె', 'U'), ('ట్ల', '|'), ('నె', 'U'), ('క్కు', '|'), ('ట', '|'), ('నీ', 'U'), ('కు', '|'), ('చె', 'U'), ('ల్ల', '|'), ('మ', '|'), ('గు', '|'), ('నె', '|')]</t>
+          <t>[('చి', 'U'), ('న్న', '|'), ('త', '|'), ('న', 'U'), ('మ్ము', '|'), ('న', '|'), ('జి', 'U'), ('న్న', '|'), ('వాం', 'U'), ('డ్ర', '|'), ('ను', '|'), ('గూ', 'U'), ('డి', '|'), ('బా', 'U'), ('గు', '|'), ('గా', 'U'), ('నుం', 'U'), ('దు', '|'), ('వే', 'U'), ('ప', '|'), ('ర', '|'), ('మ', '|'), ('పు', '|'), ('రు', '|'), ('ష', '|'), ('య', '|'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('వం', 'U'), ('చ', '|'), ('లి', '|'), ('వే', 'U'), ('ణు', '|'), ('లం', 'U'), ('ద', '|'), ('రు', 'U'), ('న్భ్రాం', 'U'), ('తి', '|'), ('చే', 'U'), ('త', '|'), ('ను', '|'), ('ని', 'U'), ('న్ను', '|'), ('బ్ర', 'U'), ('స్తు', '|'), ('తిం', 'U'), ('ప', '|'), ('నా', 'U'), ('ల', 'U'), ('క్ష్మి', '|'), ('తో', 'U'), ('డు', '|'), ('త', '|'), ('నా', 'U'), ('నం', 'U'), ('ద', '|'), ('ము', '|'), ('గ', '|'), ('గూ', 'U'), ('డి', '|'), ('పొం', 'U'), ('దు', '|'), ('గా', 'U'), ('నుం', 'U'), ('టి', '|'), ('వే', 'U'), ('సుం', 'U'), ('ద', '|'), ('రాం', 'U'), ('గ', '|'), ('ర', '|'), ('మ', '|'), ('ణు', '|'), ('లం', 'U'), ('ద', '|'), ('ఱు', '|'), ('గూ', 'U'), ('డి', '|'), ('ర', 'U'), ('వ్వ', '|'), ('లు', '|'), ('బె', 'U'), ('ట్టి', '|'), ('న', '|'), ('చె', 'U'), ('ట్ల', '|'), ('నె', 'U'), ('క్కు', '|'), ('ట', '|'), ('నీ', 'U'), ('కు', '|'), ('చె', 'U'), ('ల్ల', '|'), ('మ', '|'), ('గు', '|'), ('నె', '|')]</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>[('ప', '|'), ('తి', '|'), ('న', 'U'), ('న్ను', '|'), ('గూ', 'U'), ('ర్చ', '|'), ('రే', 'U'), ('ర', '|'), ('తి', '|'), ('క', '|'), ('రు', '|'), ('వు', '|'), ('దీ', 'U'), ('ర్చ', '|'), ('రే', 'U'), ('మ', '|'), ('ది', '|'), ('తా', 'U'), ('ప', '|'), ('మా', 'U'), ('ర్చ', '|'), ('రే', 'U'), ('మ', '|'), ('గు', '|'), ('వ', '|'), ('లా', 'U'), ('ర', '|'), ('చా', 'U'), ('న', '|'), ('మే', 'U'), ('లెం', 'U'), ('చ', '|'), ('రే', 'U'), ('జా', 'U'), ('గు', '|'), ('చా', 'U'), ('లిం', 'U'), ('చ', '|'), ('రే', 'U'), ('న', 'U'), ('న్ను', '|'), ('లా', 'U'), ('లిం', 'U'), ('చ', '|'), ('రే', 'U'), ('క', 'U'), ('న్య', '|'), ('లా', 'U'), ('ర', '|'), ('క', '|'), ('ప', '|'), ('టం', 'U'), ('బు', '|'), ('వీ', 'U'), ('డ', '|'), ('రే', 'U'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('తో', 'U'), ('జూ', 'U'), ('డ', '|'), ('రే', 'U'), ('కో', 'U'), ('రి', '|'), ('క', '|'), ('ల', '|'), ('దీ', 'U'), ('ర్చ', '|'), ('రే', 'U'), ('కొ', 'U'), ('మ్మ', '|'), ('లా', 'U'), ('ర', '|'), ('వి', '|'), ('భు', '|'), ('దా', 'U'), ('ర్చి', '|'), ('గా', 'U'), ('వ', '|'), ('రే', 'U'), ('వే', 'U'), ('డు', '|'), ('కల్', 'U'), ('సే', 'U'), ('య', '|'), ('రే', 'U'), ('యి', '|'), ('ది', '|'), ('వే', 'U'), ('ళ', '|'), ('బ్రో', 'U'), ('వ', '|'), ('రే', 'U'), ('యిం', 'U'), ('తు', '|'), ('లా', 'U'), ('ర', '|')]</t>
+          <t>[('ప', '|'), ('తి', '|'), ('న', 'U'), ('న్ను', '|'), ('గూ', 'U'), ('ర్చ', '|'), ('రే', 'U'), ('ర', '|'), ('తి', '|'), ('క', '|'), ('రు', '|'), ('వు', '|'), ('దీ', 'U'), ('ర్చ', '|'), ('రే', 'U'), ('మ', '|'), ('ది', '|'), ('తా', 'U'), ('ప', '|'), ('మా', 'U'), ('ర్చ', '|'), ('రే', 'U'), ('మ', '|'), ('గు', '|'), ('వ', '|'), ('లా', 'U'), ('ర', '|'), ('చా', 'U'), ('న', '|'), ('మే', 'U'), ('లెం', 'U'), ('చ', '|'), ('రే', 'U'), ('జా', 'U'), ('గు', '|'), ('చా', 'U'), ('లిం', 'U'), ('చ', '|'), ('రే', 'U'), ('న', 'U'), ('న్ను', '|'), ('లా', 'U'), ('లిం', 'U'), ('చ', '|'), ('రే', 'U'), ('క', 'U'), ('న్య', '|'), ('లా', 'U'), ('ర', '|'), ('క', '|'), ('ప', '|'), ('టం', 'U'), ('బు', '|'), ('వీ', 'U'), ('డ', '|'), ('రే', 'U'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('తో', 'U'), ('జూ', 'U'), ('డ', '|'), ('రే', 'U'), ('కో', 'U'), ('రి', '|'), ('క', '|'), ('ల', '|'), ('దీ', 'U'), ('ర్చ', '|'), ('రే', 'U'), ('కొ', 'U'), ('మ్మ', '|'), ('లా', 'U'), ('ర', '|'), ('వి', '|'), ('భు', '|'), ('దా', 'U'), ('ర్చి', '|'), ('గా', 'U'), ('వ', '|'), ('రే', 'U'), ('వే', 'U'), ('డు', '|'), ('క', 'U'), ('ల్సే', 'U'), ('య', '|'), ('రే', 'U'), ('యి', '|'), ('ది', '|'), ('వే', 'U'), ('ళ', '|'), ('బ్రో', 'U'), ('వ', '|'), ('రే', 'U'), ('యిం', 'U'), ('తు', '|'), ('లా', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
